--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xilinx_project\git_project\projet_CPU\projet_CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{98783071-2A5B-4BA0-A7C1-781F2B1DEEC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DDB9D-4FAC-492C-9C99-4A37E7F0510A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format operateur" sheetId="1" r:id="rId1"/>
-    <sheet name="Fomat registre" sheetId="2" r:id="rId2"/>
-    <sheet name="Operateur" sheetId="3" r:id="rId3"/>
+    <sheet name="PLL_PWM compute" sheetId="4" r:id="rId2"/>
+    <sheet name="Fomat registre" sheetId="2" r:id="rId3"/>
+    <sheet name="Operateur" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="213">
   <si>
     <t>ADD</t>
   </si>
@@ -615,12 +616,66 @@
   </si>
   <si>
     <t>R3=1 si R1(R2)=0</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>PWM_in</t>
+  </si>
+  <si>
+    <t>N_bit</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>PLL_in</t>
+  </si>
+  <si>
+    <t>pll_ratio</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>VCO</t>
+  </si>
+  <si>
+    <t>post_D</t>
+  </si>
+  <si>
+    <t>sur_num</t>
+  </si>
+  <si>
+    <t>real_post_D</t>
+  </si>
+  <si>
+    <t>N_intern</t>
+  </si>
+  <si>
+    <t>D_intern</t>
+  </si>
+  <si>
+    <t>de 2 à 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -707,18 +762,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1037,7 +1097,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AG4"/>
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,26 +2184,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="J11:Y11"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
     <mergeCell ref="I6:AG6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="B6:D6"/>
@@ -2160,12 +2200,166 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:Y8"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="J11:Y11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF91B83-DE17-4BDD-82F8-6CED1B5411DB}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="13">
+        <v>48000</v>
+      </c>
+      <c r="C2">
+        <f>B2*2^(D2)</f>
+        <v>3145728000</v>
+      </c>
+      <c r="D2" s="13">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="F2" s="16">
+        <f>C2/E2</f>
+        <v>31.457280000000001</v>
+      </c>
+      <c r="G2" s="17">
+        <f>C2*K2/GCD(E2,C2)</f>
+        <v>98304</v>
+      </c>
+      <c r="H2" s="17">
+        <f>(E2/GCD(E2,C2))/J2</f>
+        <v>3125</v>
+      </c>
+      <c r="I2" s="15">
+        <f>G2/H2*E2</f>
+        <v>3145728000</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>K2*J2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <f>B2/10^6</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <f>C2/10^6</f>
+        <v>3145.7280000000001</v>
+      </c>
+      <c r="E3" s="15">
+        <f>E2/1000000</f>
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <f>I2/1000000</f>
+        <v>3145.7280000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -2429,11 +2623,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
@@ -2625,20 +2819,20 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2705,20 +2899,20 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
       <c r="AI4" t="s">
         <v>68</v>
       </c>
@@ -2794,20 +2988,20 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
       <c r="AI5" t="s">
         <v>73</v>
       </c>
@@ -2883,20 +3077,20 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
       <c r="AI6" t="s">
         <v>69</v>
       </c>
@@ -2972,20 +3166,20 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
       <c r="AI7" t="s">
         <v>70</v>
       </c>
@@ -3064,20 +3258,20 @@
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
       <c r="AI8" t="s">
         <v>71</v>
       </c>
@@ -3153,20 +3347,20 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
       <c r="AI9" t="s">
         <v>72</v>
       </c>
@@ -3242,20 +3436,20 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
       <c r="AI10" t="s">
         <v>94</v>
       </c>
@@ -3331,20 +3525,20 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
       <c r="AI11" t="s">
         <v>76</v>
       </c>
@@ -3420,20 +3614,20 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
       <c r="AI12" t="s">
         <v>77</v>
       </c>
@@ -3509,20 +3703,20 @@
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="9" t="s">
+      <c r="Y13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
       <c r="AI13" t="s">
         <v>81</v>
       </c>
@@ -3598,20 +3792,20 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
       <c r="AI14" t="s">
         <v>82</v>
       </c>
@@ -3687,20 +3881,20 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
       <c r="AI15" t="s">
         <v>87</v>
       </c>
@@ -3776,20 +3970,20 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
       <c r="AI16" t="s">
         <v>88</v>
       </c>
@@ -3865,20 +4059,20 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
       <c r="AI17" t="s">
         <v>89</v>
       </c>
@@ -3954,20 +4148,20 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
       <c r="AI18" t="s">
         <v>90</v>
       </c>
@@ -4043,20 +4237,20 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
       <c r="AI19" t="s">
         <v>95</v>
       </c>
@@ -4132,20 +4326,20 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="9" t="s">
+      <c r="Y20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
       <c r="AI20" t="s">
         <v>97</v>
       </c>
@@ -4221,20 +4415,20 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
       <c r="AI21" t="s">
         <v>101</v>
       </c>
@@ -4310,20 +4504,20 @@
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="9" t="s">
+      <c r="Y22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
       <c r="AI22" t="s">
         <v>95</v>
       </c>
@@ -4399,20 +4593,20 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="9" t="s">
+      <c r="Y23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
       <c r="AI23" t="s">
         <v>107</v>
       </c>
@@ -4491,20 +4685,20 @@
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="9" t="s">
+      <c r="Y24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
       <c r="AI24" t="s">
         <v>108</v>
       </c>
@@ -4580,20 +4774,20 @@
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="9" t="s">
+      <c r="Y25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
       <c r="AI25" t="s">
         <v>109</v>
       </c>
@@ -4669,20 +4863,20 @@
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="9" t="s">
+      <c r="Y26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
       <c r="AJ26" t="s">
         <v>100</v>
       </c>
@@ -4755,20 +4949,20 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="9" t="s">
+      <c r="Y27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
       <c r="AI27" t="s">
         <v>191</v>
       </c>
@@ -4844,20 +5038,20 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="9" t="s">
+      <c r="Y28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
       <c r="AI28" t="s">
         <v>190</v>
       </c>
@@ -4933,20 +5127,20 @@
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
-      <c r="Y29" s="9" t="s">
+      <c r="Y29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
       <c r="AI29" t="s">
         <v>194</v>
       </c>
@@ -5022,20 +5216,20 @@
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
-      <c r="Y30" s="9" t="s">
+      <c r="Y30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
       <c r="AI30" t="s">
         <v>195</v>
       </c>
@@ -5111,20 +5305,20 @@
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
-      <c r="Y31" s="9" t="s">
+      <c r="Y31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
       <c r="AI31" t="s">
         <v>87</v>
       </c>
@@ -5200,20 +5394,20 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
-      <c r="Y32" s="9" t="s">
+      <c r="Y32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
       <c r="AI32" t="s">
         <v>88</v>
       </c>
@@ -5289,20 +5483,20 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
-      <c r="Y33" s="9" t="s">
+      <c r="Y33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
       <c r="AI33" t="s">
         <v>89</v>
       </c>
@@ -5378,20 +5572,20 @@
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
-      <c r="Y34" s="9" t="s">
+      <c r="Y34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
       <c r="AI34" t="s">
         <v>90</v>
       </c>
@@ -5464,20 +5658,20 @@
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
-      <c r="Y35" s="9" t="s">
+      <c r="Y35" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
       <c r="AI35" t="s">
         <v>118</v>
       </c>
@@ -5553,20 +5747,20 @@
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
-      <c r="Y36" s="9" t="s">
+      <c r="Y36" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
       <c r="AI36" t="s">
         <v>128</v>
       </c>
@@ -5642,20 +5836,20 @@
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
-      <c r="Y37" s="9" t="s">
+      <c r="Y37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
       <c r="AI37" t="s">
         <v>121</v>
       </c>
@@ -5731,20 +5925,20 @@
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="9" t="s">
+      <c r="Y38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
       <c r="AI38" t="s">
         <v>124</v>
       </c>
@@ -5820,20 +6014,20 @@
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
-      <c r="Y39" s="9" t="s">
+      <c r="Y39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
       <c r="AI39" t="s">
         <v>125</v>
       </c>
@@ -5909,20 +6103,20 @@
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
-      <c r="Y40" s="9" t="s">
+      <c r="Y40" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
       <c r="AI40" t="s">
         <v>127</v>
       </c>
@@ -5998,20 +6192,20 @@
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
-      <c r="Y41" s="9" t="s">
+      <c r="Y41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="12" t="s">
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
       <c r="AI41" t="s">
         <v>130</v>
       </c>
@@ -6087,20 +6281,20 @@
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
-      <c r="Y42" s="9" t="s">
+      <c r="Y42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="12" t="s">
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="12"/>
-      <c r="AH42" s="12"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
       <c r="AI42" t="s">
         <v>131</v>
       </c>
@@ -6176,20 +6370,20 @@
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
-      <c r="Y43" s="9" t="s">
+      <c r="Y43" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
       <c r="AI43" t="s">
         <v>132</v>
       </c>
@@ -6265,20 +6459,20 @@
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
-      <c r="Y44" s="9" t="s">
+      <c r="Y44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
       <c r="AI44" t="s">
         <v>141</v>
       </c>
@@ -6354,20 +6548,20 @@
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
-      <c r="Y45" s="9" t="s">
+      <c r="Y45" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="12" t="s">
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
       <c r="AI45" t="s">
         <v>142</v>
       </c>
@@ -6443,20 +6637,20 @@
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
-      <c r="Y46" s="9" t="s">
+      <c r="Y46" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="12"/>
-      <c r="AG46" s="12"/>
-      <c r="AH46" s="12"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
       <c r="AI46" t="s">
         <v>144</v>
       </c>
@@ -6532,20 +6726,20 @@
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
-      <c r="Y47" s="9" t="s">
+      <c r="Y47" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="12"/>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="12"/>
-      <c r="AH47" s="12"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
       <c r="AI47" t="s">
         <v>143</v>
       </c>
@@ -6621,20 +6815,20 @@
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
-      <c r="Y48" s="9" t="s">
+      <c r="Y48" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
-      <c r="AH48" s="12"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
       <c r="AI48" t="str">
         <f>"@R1 -&gt; R3"</f>
         <v>@R1 -&gt; R3</v>
@@ -6711,20 +6905,20 @@
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
-      <c r="Y49" s="9" t="s">
+      <c r="Y49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
       <c r="AI49" t="s">
         <v>145</v>
       </c>
@@ -6800,20 +6994,20 @@
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
-      <c r="Y50" s="9" t="s">
+      <c r="Y50" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="12" t="s">
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
       <c r="AI50" t="s">
         <v>149</v>
       </c>
@@ -6880,20 +7074,20 @@
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
-      <c r="Y51" s="9" t="s">
+      <c r="Y51" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="12" t="s">
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
       <c r="AL51" t="s">
         <v>156</v>
       </c>
@@ -6963,20 +7157,20 @@
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
-      <c r="Y52" s="9" t="s">
+      <c r="Y52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
       <c r="AI52" s="7" t="s">
         <v>152</v>
       </c>
@@ -7049,20 +7243,20 @@
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
-      <c r="Y53" s="9" t="s">
+      <c r="Y53" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
       <c r="AI53" t="s">
         <v>183</v>
       </c>
@@ -7135,20 +7329,20 @@
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
-      <c r="Y54" s="9" t="s">
+      <c r="Y54" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
       <c r="AI54" t="s">
         <v>184</v>
       </c>
@@ -7221,20 +7415,20 @@
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
-      <c r="Y55" s="9" t="s">
+      <c r="Y55" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="12"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -7301,20 +7495,20 @@
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
-      <c r="Y56" s="9" t="s">
+      <c r="Y56" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="12"/>
-      <c r="AH56" s="12"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -7381,20 +7575,20 @@
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
-      <c r="Y57" s="9" t="s">
+      <c r="Y57" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="12"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -7461,20 +7655,20 @@
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
-      <c r="Y58" s="9" t="s">
+      <c r="Y58" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="12" t="s">
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="12"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -7541,20 +7735,20 @@
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
-      <c r="Y59" s="9" t="s">
+      <c r="Y59" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="12" t="s">
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE59" s="12"/>
-      <c r="AF59" s="12"/>
-      <c r="AG59" s="12"/>
-      <c r="AH59" s="12"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -7621,20 +7815,20 @@
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
-      <c r="Y60" s="9" t="s">
+      <c r="Y60" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="12"/>
-      <c r="AF60" s="12"/>
-      <c r="AG60" s="12"/>
-      <c r="AH60" s="12"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -7701,20 +7895,20 @@
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
-      <c r="Y61" s="9" t="s">
+      <c r="Y61" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="12"/>
-      <c r="AF61" s="12"/>
-      <c r="AG61" s="12"/>
-      <c r="AH61" s="12"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -7781,20 +7975,20 @@
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
-      <c r="Y62" s="9" t="s">
+      <c r="Y62" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="12" t="s">
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="12"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -7861,20 +8055,20 @@
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
-      <c r="Y63" s="9" t="s">
+      <c r="Y63" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
-      <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
-      <c r="AD63" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="12"/>
-      <c r="AG63" s="12"/>
-      <c r="AH63" s="12"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -7941,20 +8135,20 @@
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
-      <c r="Y64" s="9" t="s">
+      <c r="Y64" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="12"/>
-      <c r="AF64" s="12"/>
-      <c r="AG64" s="12"/>
-      <c r="AH64" s="12"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8021,20 +8215,20 @@
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
-      <c r="Y65" s="9" t="s">
+      <c r="Y65" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -8101,20 +8295,20 @@
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
-      <c r="Y66" s="9" t="s">
+      <c r="Y66" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="12"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -8181,20 +8375,20 @@
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
-      <c r="Y67" s="9" t="s">
+      <c r="Y67" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="12" t="s">
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C68" s="3">
@@ -8255,20 +8449,20 @@
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
-      <c r="Y68" s="9" t="s">
+      <c r="Y68" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="12" t="s">
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE68" s="12"/>
-      <c r="AF68" s="12"/>
-      <c r="AG68" s="12"/>
-      <c r="AH68" s="12"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L69" t="s">
@@ -8291,39 +8485,39 @@
       <c r="E70" s="5">
         <v>1</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="12" t="s">
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AF70" s="12"/>
-      <c r="AG70" s="12"/>
-      <c r="AH70" s="12"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
       <c r="AI70" t="s">
         <v>137</v>
       </c>
@@ -8344,39 +8538,39 @@
       <c r="E71" s="5">
         <v>0</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="12" t="s">
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
       <c r="AI71" t="s">
         <v>138</v>
       </c>
@@ -8397,39 +8591,39 @@
       <c r="E72" s="5">
         <v>0</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="12" t="s">
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AF72" s="12"/>
-      <c r="AG72" s="12"/>
-      <c r="AH72" s="12"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="9"/>
       <c r="AI72" t="str">
         <f>"@Imm-&gt;R3"</f>
         <v>@Imm-&gt;R3</v>
@@ -8451,39 +8645,39 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
-      <c r="AC73" s="9"/>
-      <c r="AD73" s="9"/>
-      <c r="AE73" s="12" t="s">
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
       <c r="AI73" t="s">
         <v>146</v>
       </c>
@@ -8504,39 +8698,39 @@
       <c r="E74" s="5">
         <v>0</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
-      <c r="AD74" s="9"/>
-      <c r="AE74" s="12" t="s">
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
       <c r="AI74" t="s">
         <v>160</v>
       </c>
@@ -8560,39 +8754,39 @@
       <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-      <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-      <c r="AE75" s="12" t="s">
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="12"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
       <c r="AI75" t="s">
         <v>147</v>
       </c>
@@ -8625,33 +8819,33 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-      <c r="AA76" s="9"/>
-      <c r="AB76" s="9"/>
-      <c r="AC76" s="9"/>
-      <c r="AD76" s="9"/>
-      <c r="AE76" s="9"/>
-      <c r="AF76" s="9"/>
-      <c r="AG76" s="9"/>
-      <c r="AH76" s="9"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10"/>
+      <c r="AH76" s="10"/>
       <c r="AI76" t="s">
         <v>165</v>
       </c>
@@ -8687,33 +8881,33 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="9"/>
-      <c r="AC77" s="9"/>
-      <c r="AD77" s="9"/>
-      <c r="AE77" s="9"/>
-      <c r="AF77" s="9"/>
-      <c r="AG77" s="9"/>
-      <c r="AH77" s="9"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10"/>
+      <c r="AH77" s="10"/>
       <c r="AI77" t="s">
         <v>167</v>
       </c>
@@ -8759,26 +8953,26 @@
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
-      <c r="S80" s="9" t="s">
+      <c r="S80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="12" t="s">
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB80" s="12"/>
-      <c r="AC80" s="12"/>
-      <c r="AD80" s="12"/>
-      <c r="AE80" s="12"/>
-      <c r="AF80" s="12"/>
-      <c r="AG80" s="12"/>
-      <c r="AH80" s="12"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="9"/>
+      <c r="AG80" s="9"/>
+      <c r="AH80" s="9"/>
       <c r="AI80" t="s">
         <v>68</v>
       </c>
@@ -8830,26 +9024,26 @@
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
-      <c r="S81" s="9" t="s">
+      <c r="S81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="9"/>
-      <c r="AA81" s="12" t="s">
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="12"/>
-      <c r="AC81" s="12"/>
-      <c r="AD81" s="12"/>
-      <c r="AE81" s="12"/>
-      <c r="AF81" s="12"/>
-      <c r="AG81" s="12"/>
-      <c r="AH81" s="12"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="9"/>
       <c r="AI81" t="s">
         <v>73</v>
       </c>
@@ -8901,26 +9095,26 @@
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
-      <c r="S82" s="9" t="s">
+      <c r="S82" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
-      <c r="AA82" s="12" t="s">
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB82" s="12"/>
-      <c r="AC82" s="12"/>
-      <c r="AD82" s="12"/>
-      <c r="AE82" s="12"/>
-      <c r="AF82" s="12"/>
-      <c r="AG82" s="12"/>
-      <c r="AH82" s="12"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
+      <c r="AE82" s="9"/>
+      <c r="AF82" s="9"/>
+      <c r="AG82" s="9"/>
+      <c r="AH82" s="9"/>
       <c r="AI82" t="s">
         <v>69</v>
       </c>
@@ -8972,26 +9166,26 @@
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
-      <c r="S83" s="9" t="s">
+      <c r="S83" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
-      <c r="Z83" s="9"/>
-      <c r="AA83" s="12" t="s">
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB83" s="12"/>
-      <c r="AC83" s="12"/>
-      <c r="AD83" s="12"/>
-      <c r="AE83" s="12"/>
-      <c r="AF83" s="12"/>
-      <c r="AG83" s="12"/>
-      <c r="AH83" s="12"/>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="9"/>
+      <c r="AG83" s="9"/>
+      <c r="AH83" s="9"/>
       <c r="AI83" t="s">
         <v>70</v>
       </c>
@@ -9046,26 +9240,26 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
-      <c r="S84" s="9" t="s">
+      <c r="S84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-      <c r="AA84" s="12" t="s">
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB84" s="12"/>
-      <c r="AC84" s="12"/>
-      <c r="AD84" s="12"/>
-      <c r="AE84" s="12"/>
-      <c r="AF84" s="12"/>
-      <c r="AG84" s="12"/>
-      <c r="AH84" s="12"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="9"/>
       <c r="AI84" t="s">
         <v>71</v>
       </c>
@@ -9117,26 +9311,26 @@
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
-      <c r="S85" s="9" t="s">
+      <c r="S85" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="9"/>
-      <c r="AA85" s="12" t="s">
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB85" s="12"/>
-      <c r="AC85" s="12"/>
-      <c r="AD85" s="12"/>
-      <c r="AE85" s="12"/>
-      <c r="AF85" s="12"/>
-      <c r="AG85" s="12"/>
-      <c r="AH85" s="12"/>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9"/>
+      <c r="AD85" s="9"/>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="9"/>
+      <c r="AG85" s="9"/>
+      <c r="AH85" s="9"/>
       <c r="AI85" t="s">
         <v>72</v>
       </c>
@@ -9188,26 +9382,26 @@
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
-      <c r="S86" s="9" t="s">
+      <c r="S86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="12" t="s">
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB86" s="12"/>
-      <c r="AC86" s="12"/>
-      <c r="AD86" s="12"/>
-      <c r="AE86" s="12"/>
-      <c r="AF86" s="12"/>
-      <c r="AG86" s="12"/>
-      <c r="AH86" s="12"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="9"/>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="9"/>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="9"/>
+      <c r="AH86" s="9"/>
       <c r="AI86" t="s">
         <v>76</v>
       </c>
@@ -9259,26 +9453,26 @@
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
-      <c r="S87" s="9" t="s">
+      <c r="S87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="9"/>
-      <c r="AA87" s="12" t="s">
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB87" s="12"/>
-      <c r="AC87" s="12"/>
-      <c r="AD87" s="12"/>
-      <c r="AE87" s="12"/>
-      <c r="AF87" s="12"/>
-      <c r="AG87" s="12"/>
-      <c r="AH87" s="12"/>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="9"/>
+      <c r="AD87" s="9"/>
+      <c r="AE87" s="9"/>
+      <c r="AF87" s="9"/>
+      <c r="AG87" s="9"/>
+      <c r="AH87" s="9"/>
       <c r="AI87" t="s">
         <v>77</v>
       </c>
@@ -9343,26 +9537,26 @@
       <c r="R90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S90" s="9" t="s">
+      <c r="S90" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
-      <c r="Z90" s="9"/>
-      <c r="AA90" s="12" t="s">
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB90" s="12"/>
-      <c r="AC90" s="12"/>
-      <c r="AD90" s="12"/>
-      <c r="AE90" s="12"/>
-      <c r="AF90" s="12"/>
-      <c r="AG90" s="12"/>
-      <c r="AH90" s="12"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+      <c r="AF90" s="9"/>
+      <c r="AG90" s="9"/>
+      <c r="AH90" s="9"/>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -9419,26 +9613,26 @@
       <c r="R91" s="4">
         <v>0</v>
       </c>
-      <c r="S91" s="9" t="s">
+      <c r="S91" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
-      <c r="Z91" s="9"/>
-      <c r="AA91" s="12" t="s">
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB91" s="12"/>
-      <c r="AC91" s="12"/>
-      <c r="AD91" s="12"/>
-      <c r="AE91" s="12"/>
-      <c r="AF91" s="12"/>
-      <c r="AG91" s="12"/>
-      <c r="AH91" s="12"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="9"/>
+      <c r="AH91" s="9"/>
       <c r="AI91" t="s">
         <v>169</v>
       </c>
@@ -9501,26 +9695,26 @@
       <c r="R92" s="4">
         <v>1</v>
       </c>
-      <c r="S92" s="9" t="s">
+      <c r="S92" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="12" t="s">
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB92" s="12"/>
-      <c r="AC92" s="12"/>
-      <c r="AD92" s="12"/>
-      <c r="AE92" s="12"/>
-      <c r="AF92" s="12"/>
-      <c r="AG92" s="12"/>
-      <c r="AH92" s="12"/>
+      <c r="AB92" s="9"/>
+      <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
+      <c r="AE92" s="9"/>
+      <c r="AF92" s="9"/>
+      <c r="AG92" s="9"/>
+      <c r="AH92" s="9"/>
       <c r="AI92" t="s">
         <v>170</v>
       </c>
@@ -9583,26 +9777,26 @@
       <c r="R93" s="4">
         <v>0</v>
       </c>
-      <c r="S93" s="9" t="s">
+      <c r="S93" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
-      <c r="X93" s="9"/>
-      <c r="Y93" s="9"/>
-      <c r="Z93" s="9"/>
-      <c r="AA93" s="12" t="s">
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB93" s="12"/>
-      <c r="AC93" s="12"/>
-      <c r="AD93" s="12"/>
-      <c r="AE93" s="12"/>
-      <c r="AF93" s="12"/>
-      <c r="AG93" s="12"/>
-      <c r="AH93" s="12"/>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="9"/>
+      <c r="AD93" s="9"/>
+      <c r="AE93" s="9"/>
+      <c r="AF93" s="9"/>
+      <c r="AG93" s="9"/>
+      <c r="AH93" s="9"/>
       <c r="AI93" t="s">
         <v>171</v>
       </c>
@@ -9665,26 +9859,26 @@
       <c r="R94" s="4">
         <v>1</v>
       </c>
-      <c r="S94" s="9" t="s">
+      <c r="S94" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
-      <c r="Z94" s="9"/>
-      <c r="AA94" s="12" t="s">
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB94" s="12"/>
-      <c r="AC94" s="12"/>
-      <c r="AD94" s="12"/>
-      <c r="AE94" s="12"/>
-      <c r="AF94" s="12"/>
-      <c r="AG94" s="12"/>
-      <c r="AH94" s="12"/>
+      <c r="AB94" s="9"/>
+      <c r="AC94" s="9"/>
+      <c r="AD94" s="9"/>
+      <c r="AE94" s="9"/>
+      <c r="AF94" s="9"/>
+      <c r="AG94" s="9"/>
+      <c r="AH94" s="9"/>
       <c r="AI94" t="s">
         <v>172</v>
       </c>
@@ -9747,26 +9941,26 @@
       <c r="R95" s="4">
         <v>0</v>
       </c>
-      <c r="S95" s="9" t="s">
+      <c r="S95" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
-      <c r="Z95" s="9"/>
-      <c r="AA95" s="12" t="s">
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB95" s="12"/>
-      <c r="AC95" s="12"/>
-      <c r="AD95" s="12"/>
-      <c r="AE95" s="12"/>
-      <c r="AF95" s="12"/>
-      <c r="AG95" s="12"/>
-      <c r="AH95" s="12"/>
+      <c r="AB95" s="9"/>
+      <c r="AC95" s="9"/>
+      <c r="AD95" s="9"/>
+      <c r="AE95" s="9"/>
+      <c r="AF95" s="9"/>
+      <c r="AG95" s="9"/>
+      <c r="AH95" s="9"/>
       <c r="AI95" t="s">
         <v>127</v>
       </c>
@@ -9829,26 +10023,26 @@
       <c r="R96" s="4">
         <v>1</v>
       </c>
-      <c r="S96" s="9" t="s">
+      <c r="S96" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
-      <c r="X96" s="9"/>
-      <c r="Y96" s="9"/>
-      <c r="Z96" s="9"/>
-      <c r="AA96" s="12" t="s">
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AB96" s="12"/>
-      <c r="AC96" s="12"/>
-      <c r="AD96" s="12"/>
-      <c r="AE96" s="12"/>
-      <c r="AF96" s="12"/>
-      <c r="AG96" s="12"/>
-      <c r="AH96" s="12"/>
+      <c r="AB96" s="9"/>
+      <c r="AC96" s="9"/>
+      <c r="AD96" s="9"/>
+      <c r="AE96" s="9"/>
+      <c r="AF96" s="9"/>
+      <c r="AG96" s="9"/>
+      <c r="AH96" s="9"/>
       <c r="AI96" t="s">
         <v>174</v>
       </c>
@@ -9908,26 +10102,26 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" s="9" t="s">
+      <c r="S97" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9"/>
-      <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
-      <c r="X97" s="9"/>
-      <c r="Y97" s="9"/>
-      <c r="Z97" s="9"/>
-      <c r="AA97" s="12" t="s">
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AB97" s="12"/>
-      <c r="AC97" s="12"/>
-      <c r="AD97" s="12"/>
-      <c r="AE97" s="12"/>
-      <c r="AF97" s="12"/>
-      <c r="AG97" s="12"/>
-      <c r="AH97" s="12"/>
+      <c r="AB97" s="9"/>
+      <c r="AC97" s="9"/>
+      <c r="AD97" s="9"/>
+      <c r="AE97" s="9"/>
+      <c r="AF97" s="9"/>
+      <c r="AG97" s="9"/>
+      <c r="AH97" s="9"/>
       <c r="AI97" t="s">
         <v>173</v>
       </c>
@@ -9987,26 +10181,26 @@
       <c r="R98" s="4">
         <v>1</v>
       </c>
-      <c r="S98" s="9" t="s">
+      <c r="S98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
-      <c r="X98" s="9"/>
-      <c r="Y98" s="9"/>
-      <c r="Z98" s="9"/>
-      <c r="AA98" s="12" t="s">
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB98" s="12"/>
-      <c r="AC98" s="12"/>
-      <c r="AD98" s="12"/>
-      <c r="AE98" s="12"/>
-      <c r="AF98" s="12"/>
-      <c r="AG98" s="12"/>
-      <c r="AH98" s="12"/>
+      <c r="AB98" s="9"/>
+      <c r="AC98" s="9"/>
+      <c r="AD98" s="9"/>
+      <c r="AE98" s="9"/>
+      <c r="AF98" s="9"/>
+      <c r="AG98" s="9"/>
+      <c r="AH98" s="9"/>
       <c r="AI98" t="s">
         <v>175</v>
       </c>
@@ -10069,26 +10263,26 @@
       <c r="R99" s="4">
         <v>0</v>
       </c>
-      <c r="S99" s="9" t="s">
+      <c r="S99" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
-      <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="9"/>
-      <c r="AA99" s="12" t="s">
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB99" s="12"/>
-      <c r="AC99" s="12"/>
-      <c r="AD99" s="12"/>
-      <c r="AE99" s="12"/>
-      <c r="AF99" s="12"/>
-      <c r="AG99" s="12"/>
-      <c r="AH99" s="12"/>
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
+      <c r="AE99" s="9"/>
+      <c r="AF99" s="9"/>
+      <c r="AG99" s="9"/>
+      <c r="AH99" s="9"/>
       <c r="AI99" t="s">
         <v>141</v>
       </c>
@@ -10151,26 +10345,26 @@
       <c r="R100" s="4">
         <v>1</v>
       </c>
-      <c r="S100" s="9" t="s">
+      <c r="S100" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
-      <c r="X100" s="9"/>
-      <c r="Y100" s="9"/>
-      <c r="Z100" s="9"/>
-      <c r="AA100" s="12" t="s">
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB100" s="12"/>
-      <c r="AC100" s="12"/>
-      <c r="AD100" s="12"/>
-      <c r="AE100" s="12"/>
-      <c r="AF100" s="12"/>
-      <c r="AG100" s="12"/>
-      <c r="AH100" s="12"/>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="9"/>
+      <c r="AD100" s="9"/>
+      <c r="AE100" s="9"/>
+      <c r="AF100" s="9"/>
+      <c r="AG100" s="9"/>
+      <c r="AH100" s="9"/>
       <c r="AI100" t="s">
         <v>142</v>
       </c>
@@ -10233,26 +10427,26 @@
       <c r="R101" s="4">
         <v>0</v>
       </c>
-      <c r="S101" s="9" t="s">
+      <c r="S101" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9"/>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
-      <c r="X101" s="9"/>
-      <c r="Y101" s="9"/>
-      <c r="Z101" s="9"/>
-      <c r="AA101" s="12" t="s">
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB101" s="12"/>
-      <c r="AC101" s="12"/>
-      <c r="AD101" s="12"/>
-      <c r="AE101" s="12"/>
-      <c r="AF101" s="12"/>
-      <c r="AG101" s="12"/>
-      <c r="AH101" s="12"/>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="9"/>
+      <c r="AG101" s="9"/>
+      <c r="AH101" s="9"/>
       <c r="AI101" t="s">
         <v>176</v>
       </c>
@@ -10315,26 +10509,26 @@
       <c r="R102" s="4">
         <v>1</v>
       </c>
-      <c r="S102" s="9" t="s">
+      <c r="S102" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-      <c r="AA102" s="12" t="s">
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB102" s="12"/>
-      <c r="AC102" s="12"/>
-      <c r="AD102" s="12"/>
-      <c r="AE102" s="12"/>
-      <c r="AF102" s="12"/>
-      <c r="AG102" s="12"/>
-      <c r="AH102" s="12"/>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
+      <c r="AD102" s="9"/>
+      <c r="AE102" s="9"/>
+      <c r="AF102" s="9"/>
+      <c r="AG102" s="9"/>
+      <c r="AH102" s="9"/>
       <c r="AI102" t="s">
         <v>177</v>
       </c>
@@ -10397,26 +10591,26 @@
       <c r="R103" s="4">
         <v>0</v>
       </c>
-      <c r="S103" s="9" t="s">
+      <c r="S103" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
-      <c r="X103" s="9"/>
-      <c r="Y103" s="9"/>
-      <c r="Z103" s="9"/>
-      <c r="AA103" s="12" t="s">
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10"/>
+      <c r="AA103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB103" s="12"/>
-      <c r="AC103" s="12"/>
-      <c r="AD103" s="12"/>
-      <c r="AE103" s="12"/>
-      <c r="AF103" s="12"/>
-      <c r="AG103" s="12"/>
-      <c r="AH103" s="12"/>
+      <c r="AB103" s="9"/>
+      <c r="AC103" s="9"/>
+      <c r="AD103" s="9"/>
+      <c r="AE103" s="9"/>
+      <c r="AF103" s="9"/>
+      <c r="AG103" s="9"/>
+      <c r="AH103" s="9"/>
       <c r="AI103" t="str">
         <f>"@R2 -&gt; R3"</f>
         <v>@R2 -&gt; R3</v>
@@ -10480,26 +10674,26 @@
       <c r="R104" s="4">
         <v>1</v>
       </c>
-      <c r="S104" s="9" t="s">
+      <c r="S104" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
-      <c r="Z104" s="9"/>
-      <c r="AA104" s="12" t="s">
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+      <c r="Z104" s="10"/>
+      <c r="AA104" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB104" s="12"/>
-      <c r="AC104" s="12"/>
-      <c r="AD104" s="12"/>
-      <c r="AE104" s="12"/>
-      <c r="AF104" s="12"/>
-      <c r="AG104" s="12"/>
-      <c r="AH104" s="12"/>
+      <c r="AB104" s="9"/>
+      <c r="AC104" s="9"/>
+      <c r="AD104" s="9"/>
+      <c r="AE104" s="9"/>
+      <c r="AF104" s="9"/>
+      <c r="AG104" s="9"/>
+      <c r="AH104" s="9"/>
       <c r="AI104" t="s">
         <v>178</v>
       </c>
@@ -10590,31 +10784,31 @@
       <c r="M108" s="3">
         <v>1</v>
       </c>
-      <c r="N108" s="9" t="s">
+      <c r="N108" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
-      <c r="Y108" s="9"/>
-      <c r="Z108" s="9"/>
-      <c r="AA108" s="9"/>
-      <c r="AB108" s="9"/>
-      <c r="AC108" s="9"/>
-      <c r="AD108" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE108" s="10"/>
-      <c r="AF108" s="10"/>
-      <c r="AG108" s="10"/>
-      <c r="AH108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+      <c r="Z108" s="10"/>
+      <c r="AA108" s="10"/>
+      <c r="AB108" s="10"/>
+      <c r="AC108" s="10"/>
+      <c r="AD108" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="12"/>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -10656,256 +10850,61 @@
       <c r="M109" s="3">
         <v>1</v>
       </c>
-      <c r="N109" s="9" t="s">
+      <c r="N109" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
-      <c r="Z109" s="9"/>
-      <c r="AA109" s="9"/>
-      <c r="AB109" s="9"/>
-      <c r="AC109" s="9"/>
-      <c r="AD109" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE109" s="10"/>
-      <c r="AF109" s="10"/>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="10"/>
+      <c r="Z109" s="10"/>
+      <c r="AA109" s="10"/>
+      <c r="AB109" s="10"/>
+      <c r="AC109" s="10"/>
+      <c r="AD109" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="N107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="AA99:AH99"/>
-    <mergeCell ref="AA100:AH100"/>
-    <mergeCell ref="AA101:AH101"/>
-    <mergeCell ref="AA102:AH102"/>
-    <mergeCell ref="AA103:AH103"/>
-    <mergeCell ref="AA104:AH104"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="S104:Z104"/>
-    <mergeCell ref="S99:Z99"/>
-    <mergeCell ref="S100:Z100"/>
-    <mergeCell ref="S101:Z101"/>
-    <mergeCell ref="S102:Z102"/>
-    <mergeCell ref="AA91:AH91"/>
-    <mergeCell ref="AA92:AH92"/>
-    <mergeCell ref="AA93:AH93"/>
-    <mergeCell ref="AA94:AH94"/>
-    <mergeCell ref="AA95:AH95"/>
-    <mergeCell ref="AA96:AH96"/>
-    <mergeCell ref="AA97:AH97"/>
-    <mergeCell ref="AA98:AH98"/>
-    <mergeCell ref="S97:Z97"/>
-    <mergeCell ref="S98:Z98"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S92:Z92"/>
-    <mergeCell ref="S93:Z93"/>
-    <mergeCell ref="S94:Z94"/>
-    <mergeCell ref="S95:Z95"/>
-    <mergeCell ref="S96:Z96"/>
-    <mergeCell ref="K87:R87"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="AA90:AH90"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="AA81:AH81"/>
-    <mergeCell ref="AA82:AH82"/>
-    <mergeCell ref="AA83:AH83"/>
-    <mergeCell ref="AA84:AH84"/>
-    <mergeCell ref="AA85:AH85"/>
-    <mergeCell ref="AA86:AH86"/>
-    <mergeCell ref="AA87:AH87"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="S80:Z80"/>
-    <mergeCell ref="AA80:AH80"/>
-    <mergeCell ref="K81:R81"/>
-    <mergeCell ref="K82:R82"/>
-    <mergeCell ref="K83:R83"/>
-    <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="J77:AH77"/>
-    <mergeCell ref="T68:X68"/>
-    <mergeCell ref="Y68:AC68"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="K84:R84"/>
-    <mergeCell ref="K85:R85"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="T66:X66"/>
-    <mergeCell ref="Y66:AC66"/>
-    <mergeCell ref="AD66:AH66"/>
-    <mergeCell ref="T67:X67"/>
-    <mergeCell ref="Y67:AC67"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="T64:X64"/>
-    <mergeCell ref="Y64:AC64"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="Y65:AC65"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="T62:X62"/>
-    <mergeCell ref="Y62:AC62"/>
-    <mergeCell ref="AD62:AH62"/>
-    <mergeCell ref="T63:X63"/>
-    <mergeCell ref="Y63:AC63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="Y60:AC60"/>
-    <mergeCell ref="AD60:AH60"/>
-    <mergeCell ref="J76:AH76"/>
-    <mergeCell ref="T51:X51"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="T57:X57"/>
-    <mergeCell ref="Y57:AC57"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="Y54:AC54"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="T55:X55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="T61:X61"/>
-    <mergeCell ref="Y61:AC61"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="Y58:AC58"/>
-    <mergeCell ref="AD58:AH58"/>
-    <mergeCell ref="T59:X59"/>
-    <mergeCell ref="Y59:AC59"/>
-    <mergeCell ref="AE74:AH74"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="Y44:AC44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AD45:AH45"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="Y46:AC46"/>
-    <mergeCell ref="F70:AD70"/>
-    <mergeCell ref="F71:AD71"/>
-    <mergeCell ref="F72:AD72"/>
-    <mergeCell ref="F73:AD73"/>
-    <mergeCell ref="F74:AD74"/>
-    <mergeCell ref="F75:AD75"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="AD51:AH51"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="T50:X50"/>
-    <mergeCell ref="Y50:AC50"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AD42:AH42"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="T49:X49"/>
-    <mergeCell ref="Y49:AC49"/>
-    <mergeCell ref="AD49:AH49"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="Y52:AC52"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="Y39:AC39"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="Y40:AC40"/>
-    <mergeCell ref="AD40:AH40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="AD37:AH37"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="Y33:AC33"/>
-    <mergeCell ref="AD33:AH33"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="Y31:AC31"/>
-    <mergeCell ref="AD31:AH31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="AD32:AH32"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="Y34:AC34"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AC35"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Y29:AC29"/>
-    <mergeCell ref="AD29:AH29"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AC28"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="N108:AC108"/>
+    <mergeCell ref="AD108:AH108"/>
+    <mergeCell ref="N109:AC109"/>
+    <mergeCell ref="AD109:AH109"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="AD3:AH3"/>
@@ -10930,33 +10929,228 @@
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="N108:AC108"/>
-    <mergeCell ref="AD108:AH108"/>
-    <mergeCell ref="N109:AC109"/>
-    <mergeCell ref="AD109:AH109"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AH21"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AH25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:AC29"/>
+    <mergeCell ref="AD29:AH29"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AC28"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="Y33:AC33"/>
+    <mergeCell ref="AD33:AH33"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:AC31"/>
+    <mergeCell ref="AD31:AH31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="AD32:AH32"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="Y34:AC34"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AC35"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AC40"/>
+    <mergeCell ref="AD40:AH40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="AD37:AH37"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AD41:AH41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AD42:AH42"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="T49:X49"/>
+    <mergeCell ref="Y49:AC49"/>
+    <mergeCell ref="AD49:AH49"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="Y52:AC52"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="Y45:AC45"/>
+    <mergeCell ref="AD45:AH45"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="Y46:AC46"/>
+    <mergeCell ref="F70:AD70"/>
+    <mergeCell ref="AD51:AH51"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="T50:X50"/>
+    <mergeCell ref="Y50:AC50"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="T51:X51"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="Y57:AC57"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="Y54:AC54"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="T61:X61"/>
+    <mergeCell ref="Y61:AC61"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="Y58:AC58"/>
+    <mergeCell ref="AD58:AH58"/>
+    <mergeCell ref="T59:X59"/>
+    <mergeCell ref="Y59:AC59"/>
+    <mergeCell ref="F71:AD71"/>
+    <mergeCell ref="AD52:AH52"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="Y66:AC66"/>
+    <mergeCell ref="AD66:AH66"/>
+    <mergeCell ref="T67:X67"/>
+    <mergeCell ref="Y67:AC67"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="T64:X64"/>
+    <mergeCell ref="Y64:AC64"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="T62:X62"/>
+    <mergeCell ref="Y62:AC62"/>
+    <mergeCell ref="AD62:AH62"/>
+    <mergeCell ref="T63:X63"/>
+    <mergeCell ref="Y63:AC63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="Y60:AC60"/>
+    <mergeCell ref="AD60:AH60"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="S80:Z80"/>
+    <mergeCell ref="AA80:AH80"/>
+    <mergeCell ref="K81:R81"/>
+    <mergeCell ref="K82:R82"/>
+    <mergeCell ref="K83:R83"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="J77:AH77"/>
+    <mergeCell ref="T68:X68"/>
+    <mergeCell ref="Y68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="K84:R84"/>
+    <mergeCell ref="K85:R85"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="J76:AH76"/>
+    <mergeCell ref="AE74:AH74"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="F72:AD72"/>
+    <mergeCell ref="F73:AD73"/>
+    <mergeCell ref="F74:AD74"/>
+    <mergeCell ref="F75:AD75"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="K87:R87"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S82:Z82"/>
+    <mergeCell ref="S83:Z83"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="AA90:AH90"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="AA81:AH81"/>
+    <mergeCell ref="AA82:AH82"/>
+    <mergeCell ref="AA83:AH83"/>
+    <mergeCell ref="AA84:AH84"/>
+    <mergeCell ref="AA85:AH85"/>
+    <mergeCell ref="AA86:AH86"/>
+    <mergeCell ref="AA87:AH87"/>
+    <mergeCell ref="AA91:AH91"/>
+    <mergeCell ref="AA92:AH92"/>
+    <mergeCell ref="AA93:AH93"/>
+    <mergeCell ref="AA94:AH94"/>
+    <mergeCell ref="AA95:AH95"/>
+    <mergeCell ref="AA96:AH96"/>
+    <mergeCell ref="AA97:AH97"/>
+    <mergeCell ref="AA98:AH98"/>
+    <mergeCell ref="S97:Z97"/>
+    <mergeCell ref="S98:Z98"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="S93:Z93"/>
+    <mergeCell ref="S94:Z94"/>
+    <mergeCell ref="S95:Z95"/>
+    <mergeCell ref="S96:Z96"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="N107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="AA99:AH99"/>
+    <mergeCell ref="AA100:AH100"/>
+    <mergeCell ref="AA101:AH101"/>
+    <mergeCell ref="AA102:AH102"/>
+    <mergeCell ref="AA103:AH103"/>
+    <mergeCell ref="AA104:AH104"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="S104:Z104"/>
+    <mergeCell ref="S99:Z99"/>
+    <mergeCell ref="S100:Z100"/>
+    <mergeCell ref="S101:Z101"/>
+    <mergeCell ref="S102:Z102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AI52" r:id="rId1" display="JMP@R3" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xilinx_project\git_project\projet_CPU\projet_CPU\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DDB9D-4FAC-492C-9C99-4A37E7F0510A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Format operateur" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Fomat registre" sheetId="2" r:id="rId3"/>
     <sheet name="Operateur" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="217">
   <si>
     <t>ADD</t>
   </si>
@@ -667,14 +661,26 @@
   </si>
   <si>
     <t xml:space="preserve">de </t>
+  </si>
+  <si>
+    <t>Clock manager</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>intern ratio</t>
+  </si>
+  <si>
+    <t>N_ideal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -759,26 +765,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1086,14 +1092,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1269,46 +1275,46 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
       <c r="AI2" t="s">
         <v>32</v>
       </c>
@@ -1371,46 +1377,46 @@
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
       <c r="AI3" t="s">
         <v>32</v>
       </c>
@@ -1473,44 +1479,44 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
       <c r="AI4" t="s">
         <v>34</v>
       </c>
@@ -1555,42 +1561,42 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
       <c r="AH5" t="s">
         <v>40</v>
       </c>
@@ -1626,44 +1632,44 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
       <c r="AH6" t="s">
         <v>31</v>
       </c>
@@ -1690,46 +1696,46 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8" t="s">
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
       <c r="AI7" t="s">
         <v>36</v>
       </c>
@@ -1765,46 +1771,46 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8" t="s">
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
       <c r="AI8" t="s">
         <v>36</v>
       </c>
@@ -1840,44 +1846,44 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
       <c r="AI9" t="s">
         <v>37</v>
       </c>
@@ -1940,44 +1946,44 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
       <c r="AI10" t="s">
         <v>37</v>
       </c>
@@ -2040,44 +2046,44 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
       <c r="AI11" t="s">
         <v>36</v>
       </c>
@@ -2113,44 +2119,44 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
       <c r="AI12" t="s">
         <v>36</v>
       </c>
@@ -2184,6 +2190,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="J11:Y11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:Y8"/>
     <mergeCell ref="I6:AG6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="B6:D6"/>
@@ -2200,41 +2226,22 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="J11:Y11"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF91B83-DE17-4BDD-82F8-6CED1B5411DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="7" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2277,44 +2284,44 @@
       <c r="A2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="8">
         <v>48000</v>
       </c>
       <c r="C2">
         <f>B2*2^(D2)</f>
-        <v>3145728000</v>
-      </c>
-      <c r="D2" s="13">
-        <v>16</v>
-      </c>
-      <c r="E2" s="14">
+        <v>196608000</v>
+      </c>
+      <c r="D2" s="8">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9">
         <v>100000000</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="11">
         <f>C2/E2</f>
-        <v>31.457280000000001</v>
-      </c>
-      <c r="G2" s="17">
+        <v>1.96608</v>
+      </c>
+      <c r="G2" s="12">
         <f>C2*K2/GCD(E2,C2)</f>
-        <v>98304</v>
-      </c>
-      <c r="H2" s="17">
+        <v>24576</v>
+      </c>
+      <c r="H2" s="12">
         <f>(E2/GCD(E2,C2))/J2</f>
         <v>3125</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="10">
         <f>G2/H2*E2</f>
-        <v>3145728000</v>
-      </c>
-      <c r="J2" s="13">
-        <v>1</v>
-      </c>
-      <c r="K2" s="13">
-        <v>1</v>
+        <v>786432000</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>4</v>
       </c>
       <c r="L2">
         <f>K2*J2</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2327,15 +2334,54 @@
       </c>
       <c r="C3">
         <f>C2/10^6</f>
-        <v>3145.7280000000001</v>
-      </c>
-      <c r="E3" s="15">
+        <v>196.608</v>
+      </c>
+      <c r="E3" s="10">
         <f>E2/1000000</f>
         <v>100</v>
       </c>
       <c r="I3">
         <f>I2/1000000</f>
-        <v>3145.7280000000001</v>
+        <v>786.43200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>(G2/H2)</f>
+        <v>7.8643200000000002</v>
+      </c>
+      <c r="I5">
+        <f>L2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="10">
+        <f>800000000/(F2*E2)</f>
+        <v>4.069010416666667</v>
+      </c>
+      <c r="H7" s="12">
+        <f>INT(G7)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2356,11 +2402,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2624,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM109"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
@@ -2812,27 +2859,27 @@
       <c r="S3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="10" t="s">
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2892,27 +2939,27 @@
       <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="10" t="s">
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
       <c r="AI4" t="s">
         <v>68</v>
       </c>
@@ -2981,27 +3028,27 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="10" t="s">
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
       <c r="AI5" t="s">
         <v>73</v>
       </c>
@@ -3070,27 +3117,27 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="10" t="s">
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
       <c r="AI6" t="s">
         <v>69</v>
       </c>
@@ -3159,27 +3206,27 @@
       <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="10" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
       <c r="AI7" t="s">
         <v>70</v>
       </c>
@@ -3251,27 +3298,27 @@
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="10" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
       <c r="AI8" t="s">
         <v>71</v>
       </c>
@@ -3340,27 +3387,27 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="10" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
       <c r="AI9" t="s">
         <v>72</v>
       </c>
@@ -3429,27 +3476,27 @@
       <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="10" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
       <c r="AI10" t="s">
         <v>94</v>
       </c>
@@ -3518,27 +3565,27 @@
       <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="10" t="s">
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
       <c r="AI11" t="s">
         <v>76</v>
       </c>
@@ -3607,27 +3654,27 @@
       <c r="S12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="10" t="s">
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
       <c r="AI12" t="s">
         <v>77</v>
       </c>
@@ -3696,27 +3743,27 @@
       <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="10" t="s">
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
       <c r="AI13" t="s">
         <v>81</v>
       </c>
@@ -3785,27 +3832,27 @@
       <c r="S14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="10" t="s">
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
       <c r="AI14" t="s">
         <v>82</v>
       </c>
@@ -3874,27 +3921,27 @@
       <c r="S15" s="4">
         <v>0</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="10" t="s">
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
       <c r="AI15" t="s">
         <v>87</v>
       </c>
@@ -3963,27 +4010,27 @@
       <c r="S16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="10" t="s">
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
       <c r="AI16" t="s">
         <v>88</v>
       </c>
@@ -4052,27 +4099,27 @@
       <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="10" t="s">
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
       <c r="AI17" t="s">
         <v>89</v>
       </c>
@@ -4141,27 +4188,27 @@
       <c r="S18" s="4">
         <v>1</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="10" t="s">
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
       <c r="AI18" t="s">
         <v>90</v>
       </c>
@@ -4230,27 +4277,27 @@
       <c r="S19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="10" t="s">
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
       <c r="AI19" t="s">
         <v>95</v>
       </c>
@@ -4319,27 +4366,27 @@
       <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="10" t="s">
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
       <c r="AI20" t="s">
         <v>97</v>
       </c>
@@ -4408,27 +4455,27 @@
       <c r="S21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="10" t="s">
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
       <c r="AI21" t="s">
         <v>101</v>
       </c>
@@ -4497,27 +4544,27 @@
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="10" t="s">
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
       <c r="AI22" t="s">
         <v>95</v>
       </c>
@@ -4586,27 +4633,27 @@
       <c r="S23" s="4">
         <v>0</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="10" t="s">
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
       <c r="AI23" t="s">
         <v>107</v>
       </c>
@@ -4678,27 +4725,27 @@
       <c r="S24" s="4">
         <v>1</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="10" t="s">
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
       <c r="AI24" t="s">
         <v>108</v>
       </c>
@@ -4767,27 +4814,27 @@
       <c r="S25" s="4">
         <v>0</v>
       </c>
-      <c r="T25" s="11" t="s">
+      <c r="T25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="10" t="s">
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
       <c r="AI25" t="s">
         <v>109</v>
       </c>
@@ -4856,27 +4903,27 @@
       <c r="S26" s="4">
         <v>1</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="10" t="s">
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
       <c r="AJ26" t="s">
         <v>100</v>
       </c>
@@ -4942,27 +4989,27 @@
       <c r="S27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="10" t="s">
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
       <c r="AI27" t="s">
         <v>191</v>
       </c>
@@ -5031,27 +5078,27 @@
       <c r="S28" s="4">
         <v>1</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="T28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="10" t="s">
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
       <c r="AI28" t="s">
         <v>190</v>
       </c>
@@ -5120,27 +5167,27 @@
       <c r="S29" s="4">
         <v>0</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="T29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="10" t="s">
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
       <c r="AI29" t="s">
         <v>194</v>
       </c>
@@ -5209,27 +5256,27 @@
       <c r="S30" s="4">
         <v>1</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="10" t="s">
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
       <c r="AI30" t="s">
         <v>195</v>
       </c>
@@ -5298,27 +5345,27 @@
       <c r="S31" s="4">
         <v>0</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="10" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
       <c r="AI31" t="s">
         <v>87</v>
       </c>
@@ -5387,27 +5434,27 @@
       <c r="S32" s="4">
         <v>1</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="10" t="s">
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
       <c r="AI32" t="s">
         <v>88</v>
       </c>
@@ -5476,27 +5523,27 @@
       <c r="S33" s="4">
         <v>0</v>
       </c>
-      <c r="T33" s="11" t="s">
+      <c r="T33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="10" t="s">
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
       <c r="AI33" t="s">
         <v>89</v>
       </c>
@@ -5565,27 +5612,27 @@
       <c r="S34" s="4">
         <v>1</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="T34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="10" t="s">
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
       <c r="AI34" t="s">
         <v>90</v>
       </c>
@@ -5651,27 +5698,27 @@
       <c r="S35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="T35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="10" t="s">
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
       <c r="AI35" t="s">
         <v>118</v>
       </c>
@@ -5740,27 +5787,27 @@
       <c r="S36" s="4">
         <v>0</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="10" t="s">
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
       <c r="AI36" t="s">
         <v>128</v>
       </c>
@@ -5829,27 +5876,27 @@
       <c r="S37" s="4">
         <v>1</v>
       </c>
-      <c r="T37" s="11" t="s">
+      <c r="T37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="10" t="s">
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
       <c r="AI37" t="s">
         <v>121</v>
       </c>
@@ -5918,27 +5965,27 @@
       <c r="S38" s="4">
         <v>0</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="10" t="s">
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
       <c r="AI38" t="s">
         <v>124</v>
       </c>
@@ -6007,27 +6054,27 @@
       <c r="S39" s="4">
         <v>1</v>
       </c>
-      <c r="T39" s="11" t="s">
+      <c r="T39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="10" t="s">
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
       <c r="AI39" t="s">
         <v>125</v>
       </c>
@@ -6096,27 +6143,27 @@
       <c r="S40" s="4">
         <v>0</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="T40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="10" t="s">
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
       <c r="AI40" t="s">
         <v>127</v>
       </c>
@@ -6185,27 +6232,27 @@
       <c r="S41" s="4">
         <v>1</v>
       </c>
-      <c r="T41" s="11" t="s">
+      <c r="T41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="10" t="s">
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="9" t="s">
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
       <c r="AI41" t="s">
         <v>130</v>
       </c>
@@ -6274,27 +6321,27 @@
       <c r="S42" s="4">
         <v>0</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="10" t="s">
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="9" t="s">
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
       <c r="AI42" t="s">
         <v>131</v>
       </c>
@@ -6363,27 +6410,27 @@
       <c r="S43" s="4">
         <v>1</v>
       </c>
-      <c r="T43" s="11" t="s">
+      <c r="T43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="10" t="s">
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
       <c r="AI43" t="s">
         <v>132</v>
       </c>
@@ -6452,27 +6499,27 @@
       <c r="S44" s="4">
         <v>0</v>
       </c>
-      <c r="T44" s="11" t="s">
+      <c r="T44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="10" t="s">
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
       <c r="AI44" t="s">
         <v>141</v>
       </c>
@@ -6541,27 +6588,27 @@
       <c r="S45" s="4">
         <v>1</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="T45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="10" t="s">
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="9" t="s">
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
       <c r="AI45" t="s">
         <v>142</v>
       </c>
@@ -6630,27 +6677,27 @@
       <c r="S46" s="4">
         <v>0</v>
       </c>
-      <c r="T46" s="11" t="s">
+      <c r="T46" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="10" t="s">
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
       <c r="AI46" t="s">
         <v>144</v>
       </c>
@@ -6719,27 +6766,27 @@
       <c r="S47" s="4">
         <v>1</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="T47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="10" t="s">
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
       <c r="AI47" t="s">
         <v>143</v>
       </c>
@@ -6808,27 +6855,27 @@
       <c r="S48" s="4">
         <v>0</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="10" t="s">
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
       <c r="AI48" t="str">
         <f>"@R1 -&gt; R3"</f>
         <v>@R1 -&gt; R3</v>
@@ -6898,27 +6945,27 @@
       <c r="S49" s="4">
         <v>1</v>
       </c>
-      <c r="T49" s="11" t="s">
+      <c r="T49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="10" t="s">
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
       <c r="AI49" t="s">
         <v>145</v>
       </c>
@@ -6987,27 +7034,27 @@
       <c r="S50" s="4">
         <v>0</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="10" t="s">
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="9" t="s">
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
       <c r="AI50" t="s">
         <v>149</v>
       </c>
@@ -7067,27 +7114,27 @@
       <c r="S51" s="4">
         <v>1</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="T51" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="10" t="s">
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="9" t="s">
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
       <c r="AL51" t="s">
         <v>156</v>
       </c>
@@ -7150,27 +7197,27 @@
       <c r="S52" s="4">
         <v>0</v>
       </c>
-      <c r="T52" s="11" t="s">
+      <c r="T52" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="10" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-      <c r="AD52" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
       <c r="AI52" s="7" t="s">
         <v>152</v>
       </c>
@@ -7236,27 +7283,27 @@
       <c r="S53" s="4">
         <v>0</v>
       </c>
-      <c r="T53" s="11" t="s">
+      <c r="T53" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="10" t="s">
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
       <c r="AI53" t="s">
         <v>183</v>
       </c>
@@ -7322,27 +7369,27 @@
       <c r="S54" s="4">
         <v>1</v>
       </c>
-      <c r="T54" s="11" t="s">
+      <c r="T54" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="10" t="s">
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
       <c r="AI54" t="s">
         <v>184</v>
       </c>
@@ -7408,27 +7455,27 @@
       <c r="S55" s="4">
         <v>0</v>
       </c>
-      <c r="T55" s="11" t="s">
+      <c r="T55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="10" t="s">
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -7488,27 +7535,27 @@
       <c r="S56" s="4">
         <v>1</v>
       </c>
-      <c r="T56" s="11" t="s">
+      <c r="T56" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="10" t="s">
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -7568,27 +7615,27 @@
       <c r="S57" s="4">
         <v>0</v>
       </c>
-      <c r="T57" s="11" t="s">
+      <c r="T57" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="10" t="s">
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -7648,27 +7695,27 @@
       <c r="S58" s="4">
         <v>1</v>
       </c>
-      <c r="T58" s="11" t="s">
+      <c r="T58" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="10" t="s">
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="9" t="s">
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -7728,27 +7775,27 @@
       <c r="S59" s="4">
         <v>0</v>
       </c>
-      <c r="T59" s="11" t="s">
+      <c r="T59" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="10" t="s">
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="9" t="s">
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="9"/>
-      <c r="AH59" s="9"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="14"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -7808,27 +7855,27 @@
       <c r="S60" s="4">
         <v>1</v>
       </c>
-      <c r="T60" s="11" t="s">
+      <c r="T60" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="10" t="s">
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
-      <c r="AH60" s="9"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
+      <c r="AH60" s="14"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -7888,27 +7935,27 @@
       <c r="S61" s="4">
         <v>0</v>
       </c>
-      <c r="T61" s="11" t="s">
+      <c r="T61" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="10" t="s">
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -7968,27 +8015,27 @@
       <c r="S62" s="4">
         <v>1</v>
       </c>
-      <c r="T62" s="11" t="s">
+      <c r="T62" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="10" t="s">
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="10"/>
-      <c r="AC62" s="10"/>
-      <c r="AD62" s="9" t="s">
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
+      <c r="AD62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="9"/>
-      <c r="AG62" s="9"/>
-      <c r="AH62" s="9"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -8048,27 +8095,27 @@
       <c r="S63" s="4">
         <v>0</v>
       </c>
-      <c r="T63" s="11" t="s">
+      <c r="T63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="10" t="s">
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="9"/>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="9"/>
-      <c r="AH63" s="9"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -8128,27 +8175,27 @@
       <c r="S64" s="4">
         <v>1</v>
       </c>
-      <c r="T64" s="11" t="s">
+      <c r="T64" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="10" t="s">
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
-      <c r="AD64" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="9"/>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="9"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8208,27 +8255,27 @@
       <c r="S65" s="4">
         <v>0</v>
       </c>
-      <c r="T65" s="11" t="s">
+      <c r="T65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="10" t="s">
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="9"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -8288,27 +8335,27 @@
       <c r="S66" s="4">
         <v>1</v>
       </c>
-      <c r="T66" s="11" t="s">
+      <c r="T66" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="10" t="s">
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
-      <c r="AD66" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
-      <c r="AG66" s="9"/>
-      <c r="AH66" s="9"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -8368,27 +8415,27 @@
       <c r="S67" s="4">
         <v>0</v>
       </c>
-      <c r="T67" s="11" t="s">
+      <c r="T67" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="10" t="s">
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="9" t="s">
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
-      <c r="AG67" s="9"/>
-      <c r="AH67" s="9"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C68" s="3">
@@ -8442,27 +8489,27 @@
       <c r="S68" s="4">
         <v>1</v>
       </c>
-      <c r="T68" s="11" t="s">
+      <c r="T68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="10" t="s">
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="9" t="s">
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9"/>
-      <c r="AH68" s="9"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L69" t="s">
@@ -8485,39 +8532,39 @@
       <c r="E70" s="5">
         <v>1</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="9" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
+      <c r="AE70" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF70" s="9"/>
-      <c r="AG70" s="9"/>
-      <c r="AH70" s="9"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
       <c r="AI70" t="s">
         <v>137</v>
       </c>
@@ -8538,39 +8585,39 @@
       <c r="E71" s="5">
         <v>0</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="9" t="s">
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF71" s="9"/>
-      <c r="AG71" s="9"/>
-      <c r="AH71" s="9"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
+      <c r="AH71" s="14"/>
       <c r="AI71" t="s">
         <v>138</v>
       </c>
@@ -8591,39 +8638,39 @@
       <c r="E72" s="5">
         <v>0</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="9" t="s">
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF72" s="9"/>
-      <c r="AG72" s="9"/>
-      <c r="AH72" s="9"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
       <c r="AI72" t="str">
         <f>"@Imm-&gt;R3"</f>
         <v>@Imm-&gt;R3</v>
@@ -8645,39 +8692,39 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="9" t="s">
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF73" s="9"/>
-      <c r="AG73" s="9"/>
-      <c r="AH73" s="9"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="14"/>
       <c r="AI73" t="s">
         <v>146</v>
       </c>
@@ -8698,39 +8745,39 @@
       <c r="E74" s="5">
         <v>0</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="9" t="s">
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF74" s="9"/>
-      <c r="AG74" s="9"/>
-      <c r="AH74" s="9"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="14"/>
       <c r="AI74" t="s">
         <v>160</v>
       </c>
@@ -8754,39 +8801,39 @@
       <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="9" t="s">
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
+      <c r="AE75" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF75" s="9"/>
-      <c r="AG75" s="9"/>
-      <c r="AH75" s="9"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
+      <c r="AH75" s="14"/>
       <c r="AI75" t="s">
         <v>147</v>
       </c>
@@ -8819,33 +8866,33 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
-      <c r="AD76" s="10"/>
-      <c r="AE76" s="10"/>
-      <c r="AF76" s="10"/>
-      <c r="AG76" s="10"/>
-      <c r="AH76" s="10"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
       <c r="AI76" t="s">
         <v>165</v>
       </c>
@@ -8881,33 +8928,33 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
-      <c r="AD77" s="10"/>
-      <c r="AE77" s="10"/>
-      <c r="AF77" s="10"/>
-      <c r="AG77" s="10"/>
-      <c r="AH77" s="10"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
       <c r="AI77" t="s">
         <v>167</v>
       </c>
@@ -8943,36 +8990,36 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="10" t="s">
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="9" t="s">
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB80" s="9"/>
-      <c r="AC80" s="9"/>
-      <c r="AD80" s="9"/>
-      <c r="AE80" s="9"/>
-      <c r="AF80" s="9"/>
-      <c r="AG80" s="9"/>
-      <c r="AH80" s="9"/>
+      <c r="AB80" s="14"/>
+      <c r="AC80" s="14"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="14"/>
+      <c r="AF80" s="14"/>
+      <c r="AG80" s="14"/>
+      <c r="AH80" s="14"/>
       <c r="AI80" t="s">
         <v>68</v>
       </c>
@@ -9014,36 +9061,36 @@
       <c r="J81" s="4">
         <v>1</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="10" t="s">
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="9" t="s">
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="9"/>
-      <c r="AC81" s="9"/>
-      <c r="AD81" s="9"/>
-      <c r="AE81" s="9"/>
-      <c r="AF81" s="9"/>
-      <c r="AG81" s="9"/>
-      <c r="AH81" s="9"/>
+      <c r="AB81" s="14"/>
+      <c r="AC81" s="14"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="14"/>
+      <c r="AF81" s="14"/>
+      <c r="AG81" s="14"/>
+      <c r="AH81" s="14"/>
       <c r="AI81" t="s">
         <v>73</v>
       </c>
@@ -9085,36 +9132,36 @@
       <c r="J82" s="4">
         <v>0</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="10" t="s">
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="9" t="s">
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB82" s="9"/>
-      <c r="AC82" s="9"/>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="9"/>
-      <c r="AF82" s="9"/>
-      <c r="AG82" s="9"/>
-      <c r="AH82" s="9"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
+      <c r="AH82" s="14"/>
       <c r="AI82" t="s">
         <v>69</v>
       </c>
@@ -9156,36 +9203,36 @@
       <c r="J83" s="4">
         <v>1</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="10" t="s">
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="9" t="s">
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
+      <c r="AA83" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB83" s="9"/>
-      <c r="AC83" s="9"/>
-      <c r="AD83" s="9"/>
-      <c r="AE83" s="9"/>
-      <c r="AF83" s="9"/>
-      <c r="AG83" s="9"/>
-      <c r="AH83" s="9"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
+      <c r="AH83" s="14"/>
       <c r="AI83" t="s">
         <v>70</v>
       </c>
@@ -9230,36 +9277,36 @@
       <c r="J84" s="4">
         <v>0</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="10" t="s">
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="9" t="s">
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
+      <c r="AA84" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB84" s="9"/>
-      <c r="AC84" s="9"/>
-      <c r="AD84" s="9"/>
-      <c r="AE84" s="9"/>
-      <c r="AF84" s="9"/>
-      <c r="AG84" s="9"/>
-      <c r="AH84" s="9"/>
+      <c r="AB84" s="14"/>
+      <c r="AC84" s="14"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="14"/>
+      <c r="AF84" s="14"/>
+      <c r="AG84" s="14"/>
+      <c r="AH84" s="14"/>
       <c r="AI84" t="s">
         <v>71</v>
       </c>
@@ -9301,36 +9348,36 @@
       <c r="J85" s="4">
         <v>1</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="K85" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="10" t="s">
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="9" t="s">
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
+      <c r="AA85" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB85" s="9"/>
-      <c r="AC85" s="9"/>
-      <c r="AD85" s="9"/>
-      <c r="AE85" s="9"/>
-      <c r="AF85" s="9"/>
-      <c r="AG85" s="9"/>
-      <c r="AH85" s="9"/>
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="14"/>
+      <c r="AF85" s="14"/>
+      <c r="AG85" s="14"/>
+      <c r="AH85" s="14"/>
       <c r="AI85" t="s">
         <v>72</v>
       </c>
@@ -9372,36 +9419,36 @@
       <c r="J86" s="4">
         <v>0</v>
       </c>
-      <c r="K86" s="11" t="s">
+      <c r="K86" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="10" t="s">
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
-      <c r="Z86" s="10"/>
-      <c r="AA86" s="9" t="s">
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
+      <c r="AA86" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-      <c r="AD86" s="9"/>
-      <c r="AE86" s="9"/>
-      <c r="AF86" s="9"/>
-      <c r="AG86" s="9"/>
-      <c r="AH86" s="9"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="14"/>
+      <c r="AG86" s="14"/>
+      <c r="AH86" s="14"/>
       <c r="AI86" t="s">
         <v>76</v>
       </c>
@@ -9443,36 +9490,36 @@
       <c r="J87" s="4">
         <v>1</v>
       </c>
-      <c r="K87" s="11" t="s">
+      <c r="K87" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="10" t="s">
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="9" t="s">
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="16"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
+      <c r="AA87" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB87" s="9"/>
-      <c r="AC87" s="9"/>
-      <c r="AD87" s="9"/>
-      <c r="AE87" s="9"/>
-      <c r="AF87" s="9"/>
-      <c r="AG87" s="9"/>
-      <c r="AH87" s="9"/>
+      <c r="AB87" s="14"/>
+      <c r="AC87" s="14"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="14"/>
+      <c r="AF87" s="14"/>
+      <c r="AG87" s="14"/>
+      <c r="AH87" s="14"/>
       <c r="AI87" t="s">
         <v>77</v>
       </c>
@@ -9537,26 +9584,26 @@
       <c r="R90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S90" s="10" t="s">
+      <c r="S90" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="9" t="s">
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="16"/>
+      <c r="Z90" s="16"/>
+      <c r="AA90" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB90" s="9"/>
-      <c r="AC90" s="9"/>
-      <c r="AD90" s="9"/>
-      <c r="AE90" s="9"/>
-      <c r="AF90" s="9"/>
-      <c r="AG90" s="9"/>
-      <c r="AH90" s="9"/>
+      <c r="AB90" s="14"/>
+      <c r="AC90" s="14"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="14"/>
+      <c r="AF90" s="14"/>
+      <c r="AG90" s="14"/>
+      <c r="AH90" s="14"/>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -9613,26 +9660,26 @@
       <c r="R91" s="4">
         <v>0</v>
       </c>
-      <c r="S91" s="10" t="s">
+      <c r="S91" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
-      <c r="Z91" s="10"/>
-      <c r="AA91" s="9" t="s">
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
+      <c r="AA91" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB91" s="9"/>
-      <c r="AC91" s="9"/>
-      <c r="AD91" s="9"/>
-      <c r="AE91" s="9"/>
-      <c r="AF91" s="9"/>
-      <c r="AG91" s="9"/>
-      <c r="AH91" s="9"/>
+      <c r="AB91" s="14"/>
+      <c r="AC91" s="14"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="14"/>
+      <c r="AF91" s="14"/>
+      <c r="AG91" s="14"/>
+      <c r="AH91" s="14"/>
       <c r="AI91" t="s">
         <v>169</v>
       </c>
@@ -9695,26 +9742,26 @@
       <c r="R92" s="4">
         <v>1</v>
       </c>
-      <c r="S92" s="10" t="s">
+      <c r="S92" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="9" t="s">
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
+      <c r="AA92" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB92" s="9"/>
-      <c r="AC92" s="9"/>
-      <c r="AD92" s="9"/>
-      <c r="AE92" s="9"/>
-      <c r="AF92" s="9"/>
-      <c r="AG92" s="9"/>
-      <c r="AH92" s="9"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+      <c r="AF92" s="14"/>
+      <c r="AG92" s="14"/>
+      <c r="AH92" s="14"/>
       <c r="AI92" t="s">
         <v>170</v>
       </c>
@@ -9777,26 +9824,26 @@
       <c r="R93" s="4">
         <v>0</v>
       </c>
-      <c r="S93" s="10" t="s">
+      <c r="S93" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="10"/>
-      <c r="Z93" s="10"/>
-      <c r="AA93" s="9" t="s">
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="16"/>
+      <c r="Z93" s="16"/>
+      <c r="AA93" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB93" s="9"/>
-      <c r="AC93" s="9"/>
-      <c r="AD93" s="9"/>
-      <c r="AE93" s="9"/>
-      <c r="AF93" s="9"/>
-      <c r="AG93" s="9"/>
-      <c r="AH93" s="9"/>
+      <c r="AB93" s="14"/>
+      <c r="AC93" s="14"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="14"/>
+      <c r="AF93" s="14"/>
+      <c r="AG93" s="14"/>
+      <c r="AH93" s="14"/>
       <c r="AI93" t="s">
         <v>171</v>
       </c>
@@ -9859,26 +9906,26 @@
       <c r="R94" s="4">
         <v>1</v>
       </c>
-      <c r="S94" s="10" t="s">
+      <c r="S94" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T94" s="10"/>
-      <c r="U94" s="10"/>
-      <c r="V94" s="10"/>
-      <c r="W94" s="10"/>
-      <c r="X94" s="10"/>
-      <c r="Y94" s="10"/>
-      <c r="Z94" s="10"/>
-      <c r="AA94" s="9" t="s">
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
+      <c r="AA94" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB94" s="9"/>
-      <c r="AC94" s="9"/>
-      <c r="AD94" s="9"/>
-      <c r="AE94" s="9"/>
-      <c r="AF94" s="9"/>
-      <c r="AG94" s="9"/>
-      <c r="AH94" s="9"/>
+      <c r="AB94" s="14"/>
+      <c r="AC94" s="14"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="14"/>
+      <c r="AF94" s="14"/>
+      <c r="AG94" s="14"/>
+      <c r="AH94" s="14"/>
       <c r="AI94" t="s">
         <v>172</v>
       </c>
@@ -9941,26 +9988,26 @@
       <c r="R95" s="4">
         <v>0</v>
       </c>
-      <c r="S95" s="10" t="s">
+      <c r="S95" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T95" s="10"/>
-      <c r="U95" s="10"/>
-      <c r="V95" s="10"/>
-      <c r="W95" s="10"/>
-      <c r="X95" s="10"/>
-      <c r="Y95" s="10"/>
-      <c r="Z95" s="10"/>
-      <c r="AA95" s="9" t="s">
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
+      <c r="AA95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB95" s="9"/>
-      <c r="AC95" s="9"/>
-      <c r="AD95" s="9"/>
-      <c r="AE95" s="9"/>
-      <c r="AF95" s="9"/>
-      <c r="AG95" s="9"/>
-      <c r="AH95" s="9"/>
+      <c r="AB95" s="14"/>
+      <c r="AC95" s="14"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="14"/>
+      <c r="AF95" s="14"/>
+      <c r="AG95" s="14"/>
+      <c r="AH95" s="14"/>
       <c r="AI95" t="s">
         <v>127</v>
       </c>
@@ -10023,26 +10070,26 @@
       <c r="R96" s="4">
         <v>1</v>
       </c>
-      <c r="S96" s="10" t="s">
+      <c r="S96" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T96" s="10"/>
-      <c r="U96" s="10"/>
-      <c r="V96" s="10"/>
-      <c r="W96" s="10"/>
-      <c r="X96" s="10"/>
-      <c r="Y96" s="10"/>
-      <c r="Z96" s="10"/>
-      <c r="AA96" s="9" t="s">
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
+      <c r="Z96" s="16"/>
+      <c r="AA96" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AB96" s="9"/>
-      <c r="AC96" s="9"/>
-      <c r="AD96" s="9"/>
-      <c r="AE96" s="9"/>
-      <c r="AF96" s="9"/>
-      <c r="AG96" s="9"/>
-      <c r="AH96" s="9"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="14"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="14"/>
+      <c r="AF96" s="14"/>
+      <c r="AG96" s="14"/>
+      <c r="AH96" s="14"/>
       <c r="AI96" t="s">
         <v>174</v>
       </c>
@@ -10102,26 +10149,26 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" s="10" t="s">
+      <c r="S97" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T97" s="10"/>
-      <c r="U97" s="10"/>
-      <c r="V97" s="10"/>
-      <c r="W97" s="10"/>
-      <c r="X97" s="10"/>
-      <c r="Y97" s="10"/>
-      <c r="Z97" s="10"/>
-      <c r="AA97" s="9" t="s">
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="16"/>
+      <c r="Y97" s="16"/>
+      <c r="Z97" s="16"/>
+      <c r="AA97" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AB97" s="9"/>
-      <c r="AC97" s="9"/>
-      <c r="AD97" s="9"/>
-      <c r="AE97" s="9"/>
-      <c r="AF97" s="9"/>
-      <c r="AG97" s="9"/>
-      <c r="AH97" s="9"/>
+      <c r="AB97" s="14"/>
+      <c r="AC97" s="14"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="14"/>
+      <c r="AF97" s="14"/>
+      <c r="AG97" s="14"/>
+      <c r="AH97" s="14"/>
       <c r="AI97" t="s">
         <v>173</v>
       </c>
@@ -10181,26 +10228,26 @@
       <c r="R98" s="4">
         <v>1</v>
       </c>
-      <c r="S98" s="10" t="s">
+      <c r="S98" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="10"/>
-      <c r="W98" s="10"/>
-      <c r="X98" s="10"/>
-      <c r="Y98" s="10"/>
-      <c r="Z98" s="10"/>
-      <c r="AA98" s="9" t="s">
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
+      <c r="W98" s="16"/>
+      <c r="X98" s="16"/>
+      <c r="Y98" s="16"/>
+      <c r="Z98" s="16"/>
+      <c r="AA98" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB98" s="9"/>
-      <c r="AC98" s="9"/>
-      <c r="AD98" s="9"/>
-      <c r="AE98" s="9"/>
-      <c r="AF98" s="9"/>
-      <c r="AG98" s="9"/>
-      <c r="AH98" s="9"/>
+      <c r="AB98" s="14"/>
+      <c r="AC98" s="14"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="14"/>
+      <c r="AF98" s="14"/>
+      <c r="AG98" s="14"/>
+      <c r="AH98" s="14"/>
       <c r="AI98" t="s">
         <v>175</v>
       </c>
@@ -10263,26 +10310,26 @@
       <c r="R99" s="4">
         <v>0</v>
       </c>
-      <c r="S99" s="10" t="s">
+      <c r="S99" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="10"/>
-      <c r="Y99" s="10"/>
-      <c r="Z99" s="10"/>
-      <c r="AA99" s="9" t="s">
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="16"/>
+      <c r="Z99" s="16"/>
+      <c r="AA99" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB99" s="9"/>
-      <c r="AC99" s="9"/>
-      <c r="AD99" s="9"/>
-      <c r="AE99" s="9"/>
-      <c r="AF99" s="9"/>
-      <c r="AG99" s="9"/>
-      <c r="AH99" s="9"/>
+      <c r="AB99" s="14"/>
+      <c r="AC99" s="14"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="14"/>
+      <c r="AF99" s="14"/>
+      <c r="AG99" s="14"/>
+      <c r="AH99" s="14"/>
       <c r="AI99" t="s">
         <v>141</v>
       </c>
@@ -10345,26 +10392,26 @@
       <c r="R100" s="4">
         <v>1</v>
       </c>
-      <c r="S100" s="10" t="s">
+      <c r="S100" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
-      <c r="Z100" s="10"/>
-      <c r="AA100" s="9" t="s">
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="16"/>
+      <c r="Z100" s="16"/>
+      <c r="AA100" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB100" s="9"/>
-      <c r="AC100" s="9"/>
-      <c r="AD100" s="9"/>
-      <c r="AE100" s="9"/>
-      <c r="AF100" s="9"/>
-      <c r="AG100" s="9"/>
-      <c r="AH100" s="9"/>
+      <c r="AB100" s="14"/>
+      <c r="AC100" s="14"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="14"/>
+      <c r="AF100" s="14"/>
+      <c r="AG100" s="14"/>
+      <c r="AH100" s="14"/>
       <c r="AI100" t="s">
         <v>142</v>
       </c>
@@ -10427,26 +10474,26 @@
       <c r="R101" s="4">
         <v>0</v>
       </c>
-      <c r="S101" s="10" t="s">
+      <c r="S101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
-      <c r="Z101" s="10"/>
-      <c r="AA101" s="9" t="s">
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="16"/>
+      <c r="Z101" s="16"/>
+      <c r="AA101" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB101" s="9"/>
-      <c r="AC101" s="9"/>
-      <c r="AD101" s="9"/>
-      <c r="AE101" s="9"/>
-      <c r="AF101" s="9"/>
-      <c r="AG101" s="9"/>
-      <c r="AH101" s="9"/>
+      <c r="AB101" s="14"/>
+      <c r="AC101" s="14"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="14"/>
+      <c r="AF101" s="14"/>
+      <c r="AG101" s="14"/>
+      <c r="AH101" s="14"/>
       <c r="AI101" t="s">
         <v>176</v>
       </c>
@@ -10509,26 +10556,26 @@
       <c r="R102" s="4">
         <v>1</v>
       </c>
-      <c r="S102" s="10" t="s">
+      <c r="S102" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
-      <c r="Z102" s="10"/>
-      <c r="AA102" s="9" t="s">
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+      <c r="Z102" s="16"/>
+      <c r="AA102" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB102" s="9"/>
-      <c r="AC102" s="9"/>
-      <c r="AD102" s="9"/>
-      <c r="AE102" s="9"/>
-      <c r="AF102" s="9"/>
-      <c r="AG102" s="9"/>
-      <c r="AH102" s="9"/>
+      <c r="AB102" s="14"/>
+      <c r="AC102" s="14"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="14"/>
+      <c r="AF102" s="14"/>
+      <c r="AG102" s="14"/>
+      <c r="AH102" s="14"/>
       <c r="AI102" t="s">
         <v>177</v>
       </c>
@@ -10591,26 +10638,26 @@
       <c r="R103" s="4">
         <v>0</v>
       </c>
-      <c r="S103" s="10" t="s">
+      <c r="S103" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T103" s="10"/>
-      <c r="U103" s="10"/>
-      <c r="V103" s="10"/>
-      <c r="W103" s="10"/>
-      <c r="X103" s="10"/>
-      <c r="Y103" s="10"/>
-      <c r="Z103" s="10"/>
-      <c r="AA103" s="9" t="s">
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="16"/>
+      <c r="Z103" s="16"/>
+      <c r="AA103" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB103" s="9"/>
-      <c r="AC103" s="9"/>
-      <c r="AD103" s="9"/>
-      <c r="AE103" s="9"/>
-      <c r="AF103" s="9"/>
-      <c r="AG103" s="9"/>
-      <c r="AH103" s="9"/>
+      <c r="AB103" s="14"/>
+      <c r="AC103" s="14"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="14"/>
+      <c r="AF103" s="14"/>
+      <c r="AG103" s="14"/>
+      <c r="AH103" s="14"/>
       <c r="AI103" t="str">
         <f>"@R2 -&gt; R3"</f>
         <v>@R2 -&gt; R3</v>
@@ -10674,26 +10721,26 @@
       <c r="R104" s="4">
         <v>1</v>
       </c>
-      <c r="S104" s="10" t="s">
+      <c r="S104" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T104" s="10"/>
-      <c r="U104" s="10"/>
-      <c r="V104" s="10"/>
-      <c r="W104" s="10"/>
-      <c r="X104" s="10"/>
-      <c r="Y104" s="10"/>
-      <c r="Z104" s="10"/>
-      <c r="AA104" s="9" t="s">
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+      <c r="Z104" s="16"/>
+      <c r="AA104" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AB104" s="9"/>
-      <c r="AC104" s="9"/>
-      <c r="AD104" s="9"/>
-      <c r="AE104" s="9"/>
-      <c r="AF104" s="9"/>
-      <c r="AG104" s="9"/>
-      <c r="AH104" s="9"/>
+      <c r="AB104" s="14"/>
+      <c r="AC104" s="14"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="14"/>
+      <c r="AF104" s="14"/>
+      <c r="AG104" s="14"/>
+      <c r="AH104" s="14"/>
       <c r="AI104" t="s">
         <v>178</v>
       </c>
@@ -10705,44 +10752,44 @@
       <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8" t="s">
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="8"/>
-      <c r="X107" s="8"/>
-      <c r="Y107" s="8"/>
-      <c r="Z107" s="8"/>
-      <c r="AA107" s="8"/>
-      <c r="AB107" s="8"/>
-      <c r="AC107" s="8"/>
-      <c r="AD107" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE107" s="8"/>
-      <c r="AF107" s="8"/>
-      <c r="AG107" s="8"/>
-      <c r="AH107" s="8"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="13"/>
+      <c r="AB107" s="13"/>
+      <c r="AC107" s="13"/>
+      <c r="AD107" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE107" s="13"/>
+      <c r="AF107" s="13"/>
+      <c r="AG107" s="13"/>
+      <c r="AH107" s="13"/>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -10784,31 +10831,31 @@
       <c r="M108" s="3">
         <v>1</v>
       </c>
-      <c r="N108" s="10" t="s">
+      <c r="N108" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="10"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="10"/>
-      <c r="W108" s="10"/>
-      <c r="X108" s="10"/>
-      <c r="Y108" s="10"/>
-      <c r="Z108" s="10"/>
-      <c r="AA108" s="10"/>
-      <c r="AB108" s="10"/>
-      <c r="AC108" s="10"/>
-      <c r="AD108" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE108" s="12"/>
-      <c r="AF108" s="12"/>
-      <c r="AG108" s="12"/>
-      <c r="AH108" s="12"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="16"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="16"/>
+      <c r="Y108" s="16"/>
+      <c r="Z108" s="16"/>
+      <c r="AA108" s="16"/>
+      <c r="AB108" s="16"/>
+      <c r="AC108" s="16"/>
+      <c r="AD108" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -10850,61 +10897,250 @@
       <c r="M109" s="3">
         <v>1</v>
       </c>
-      <c r="N109" s="10" t="s">
+      <c r="N109" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
-      <c r="AG109" s="12"/>
-      <c r="AH109" s="12"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="16"/>
+      <c r="Y109" s="16"/>
+      <c r="Z109" s="16"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="16"/>
+      <c r="AC109" s="16"/>
+      <c r="AD109" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="N108:AC108"/>
-    <mergeCell ref="AD108:AH108"/>
-    <mergeCell ref="N109:AC109"/>
-    <mergeCell ref="AD109:AH109"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="N107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="AA99:AH99"/>
+    <mergeCell ref="AA100:AH100"/>
+    <mergeCell ref="AA101:AH101"/>
+    <mergeCell ref="AA102:AH102"/>
+    <mergeCell ref="AA103:AH103"/>
+    <mergeCell ref="AA104:AH104"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="S104:Z104"/>
+    <mergeCell ref="S99:Z99"/>
+    <mergeCell ref="S100:Z100"/>
+    <mergeCell ref="S101:Z101"/>
+    <mergeCell ref="S102:Z102"/>
+    <mergeCell ref="AA91:AH91"/>
+    <mergeCell ref="AA92:AH92"/>
+    <mergeCell ref="AA93:AH93"/>
+    <mergeCell ref="AA94:AH94"/>
+    <mergeCell ref="AA95:AH95"/>
+    <mergeCell ref="AA96:AH96"/>
+    <mergeCell ref="AA97:AH97"/>
+    <mergeCell ref="AA98:AH98"/>
+    <mergeCell ref="S97:Z97"/>
+    <mergeCell ref="S98:Z98"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="S93:Z93"/>
+    <mergeCell ref="S94:Z94"/>
+    <mergeCell ref="S95:Z95"/>
+    <mergeCell ref="S96:Z96"/>
+    <mergeCell ref="K87:R87"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S82:Z82"/>
+    <mergeCell ref="S83:Z83"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="AA90:AH90"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="AA81:AH81"/>
+    <mergeCell ref="AA82:AH82"/>
+    <mergeCell ref="AA83:AH83"/>
+    <mergeCell ref="AA84:AH84"/>
+    <mergeCell ref="AA85:AH85"/>
+    <mergeCell ref="AA86:AH86"/>
+    <mergeCell ref="AA87:AH87"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="J77:AH77"/>
+    <mergeCell ref="T68:X68"/>
+    <mergeCell ref="Y68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="K84:R84"/>
+    <mergeCell ref="K85:R85"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="J76:AH76"/>
+    <mergeCell ref="AE74:AH74"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="F72:AD72"/>
+    <mergeCell ref="F73:AD73"/>
+    <mergeCell ref="F74:AD74"/>
+    <mergeCell ref="F75:AD75"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="Y60:AC60"/>
+    <mergeCell ref="AD60:AH60"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="S80:Z80"/>
+    <mergeCell ref="AA80:AH80"/>
+    <mergeCell ref="K81:R81"/>
+    <mergeCell ref="K82:R82"/>
+    <mergeCell ref="K83:R83"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="T62:X62"/>
+    <mergeCell ref="Y62:AC62"/>
+    <mergeCell ref="AD62:AH62"/>
+    <mergeCell ref="T63:X63"/>
+    <mergeCell ref="Y63:AC63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="Y57:AC57"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="Y54:AC54"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="T61:X61"/>
+    <mergeCell ref="Y61:AC61"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="Y58:AC58"/>
+    <mergeCell ref="AD58:AH58"/>
+    <mergeCell ref="T59:X59"/>
+    <mergeCell ref="Y59:AC59"/>
+    <mergeCell ref="F71:AD71"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="Y66:AC66"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="Y45:AC45"/>
+    <mergeCell ref="AD45:AH45"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="Y46:AC46"/>
+    <mergeCell ref="F70:AD70"/>
+    <mergeCell ref="AD51:AH51"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="T50:X50"/>
+    <mergeCell ref="Y50:AC50"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="T51:X51"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AD52:AH52"/>
+    <mergeCell ref="AD66:AH66"/>
+    <mergeCell ref="T67:X67"/>
+    <mergeCell ref="Y67:AC67"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="T64:X64"/>
+    <mergeCell ref="Y64:AC64"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AD41:AH41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AD42:AH42"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="T49:X49"/>
+    <mergeCell ref="Y49:AC49"/>
+    <mergeCell ref="AD49:AH49"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="Y52:AC52"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AC40"/>
+    <mergeCell ref="AD40:AH40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="AD37:AH37"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="Y33:AC33"/>
+    <mergeCell ref="AD33:AH33"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:AC31"/>
+    <mergeCell ref="AD31:AH31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="AD32:AH32"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="Y34:AC34"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AC35"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:AC29"/>
+    <mergeCell ref="AD29:AH29"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AC28"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="AD3:AH3"/>
@@ -10929,231 +11165,42 @@
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="N108:AC108"/>
+    <mergeCell ref="AD108:AH108"/>
+    <mergeCell ref="N109:AC109"/>
+    <mergeCell ref="AD109:AH109"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
     <mergeCell ref="AD16:AH16"/>
     <mergeCell ref="T21:X21"/>
     <mergeCell ref="Y21:AC21"/>
     <mergeCell ref="AD21:AH21"/>
     <mergeCell ref="T22:X22"/>
     <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Y29:AC29"/>
-    <mergeCell ref="AD29:AH29"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AC28"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="Y33:AC33"/>
-    <mergeCell ref="AD33:AH33"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="Y31:AC31"/>
-    <mergeCell ref="AD31:AH31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="AD32:AH32"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="Y34:AC34"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AC35"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="Y39:AC39"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="Y40:AC40"/>
-    <mergeCell ref="AD40:AH40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="AD37:AH37"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AD42:AH42"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="T49:X49"/>
-    <mergeCell ref="Y49:AC49"/>
-    <mergeCell ref="AD49:AH49"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="Y52:AC52"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="Y44:AC44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AD45:AH45"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="Y46:AC46"/>
-    <mergeCell ref="F70:AD70"/>
-    <mergeCell ref="AD51:AH51"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="T50:X50"/>
-    <mergeCell ref="Y50:AC50"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="T51:X51"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="T57:X57"/>
-    <mergeCell ref="Y57:AC57"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="Y54:AC54"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="T55:X55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="T61:X61"/>
-    <mergeCell ref="Y61:AC61"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="Y58:AC58"/>
-    <mergeCell ref="AD58:AH58"/>
-    <mergeCell ref="T59:X59"/>
-    <mergeCell ref="Y59:AC59"/>
-    <mergeCell ref="F71:AD71"/>
-    <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="T66:X66"/>
-    <mergeCell ref="Y66:AC66"/>
-    <mergeCell ref="AD66:AH66"/>
-    <mergeCell ref="T67:X67"/>
-    <mergeCell ref="Y67:AC67"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="T64:X64"/>
-    <mergeCell ref="Y64:AC64"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="Y65:AC65"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="T62:X62"/>
-    <mergeCell ref="Y62:AC62"/>
-    <mergeCell ref="AD62:AH62"/>
-    <mergeCell ref="T63:X63"/>
-    <mergeCell ref="Y63:AC63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="Y60:AC60"/>
-    <mergeCell ref="AD60:AH60"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="S80:Z80"/>
-    <mergeCell ref="AA80:AH80"/>
-    <mergeCell ref="K81:R81"/>
-    <mergeCell ref="K82:R82"/>
-    <mergeCell ref="K83:R83"/>
-    <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="J77:AH77"/>
-    <mergeCell ref="T68:X68"/>
-    <mergeCell ref="Y68:AC68"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="K84:R84"/>
-    <mergeCell ref="K85:R85"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="J76:AH76"/>
-    <mergeCell ref="AE74:AH74"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="F72:AD72"/>
-    <mergeCell ref="F73:AD73"/>
-    <mergeCell ref="F74:AD74"/>
-    <mergeCell ref="F75:AD75"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="K87:R87"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="AA90:AH90"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="AA81:AH81"/>
-    <mergeCell ref="AA82:AH82"/>
-    <mergeCell ref="AA83:AH83"/>
-    <mergeCell ref="AA84:AH84"/>
-    <mergeCell ref="AA85:AH85"/>
-    <mergeCell ref="AA86:AH86"/>
-    <mergeCell ref="AA87:AH87"/>
-    <mergeCell ref="AA91:AH91"/>
-    <mergeCell ref="AA92:AH92"/>
-    <mergeCell ref="AA93:AH93"/>
-    <mergeCell ref="AA94:AH94"/>
-    <mergeCell ref="AA95:AH95"/>
-    <mergeCell ref="AA96:AH96"/>
-    <mergeCell ref="AA97:AH97"/>
-    <mergeCell ref="AA98:AH98"/>
-    <mergeCell ref="S97:Z97"/>
-    <mergeCell ref="S98:Z98"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S92:Z92"/>
-    <mergeCell ref="S93:Z93"/>
-    <mergeCell ref="S94:Z94"/>
-    <mergeCell ref="S95:Z95"/>
-    <mergeCell ref="S96:Z96"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="N107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="AA99:AH99"/>
-    <mergeCell ref="AA100:AH100"/>
-    <mergeCell ref="AA101:AH101"/>
-    <mergeCell ref="AA102:AH102"/>
-    <mergeCell ref="AA103:AH103"/>
-    <mergeCell ref="AA104:AH104"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="S104:Z104"/>
-    <mergeCell ref="S99:Z99"/>
-    <mergeCell ref="S100:Z100"/>
-    <mergeCell ref="S101:Z101"/>
-    <mergeCell ref="S102:Z102"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AI52" r:id="rId1" display="JMP@R3" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="AI52" r:id="rId1" display="JMP@R3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xilinx_project\git_project\projet_CPU\projet_CPU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F63BEE-0C61-4223-BC94-5BBDF17B9FE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format operateur" sheetId="1" r:id="rId1"/>
     <sheet name="PLL_PWM compute" sheetId="4" r:id="rId2"/>
-    <sheet name="Fomat registre" sheetId="2" r:id="rId3"/>
-    <sheet name="Operateur" sheetId="3" r:id="rId4"/>
+    <sheet name="Cache" sheetId="5" r:id="rId3"/>
+    <sheet name="Fomat registre" sheetId="2" r:id="rId4"/>
+    <sheet name="Operateur" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="223">
   <si>
     <t>ADD</t>
   </si>
@@ -673,12 +680,30 @@
   </si>
   <si>
     <t>N_ideal</t>
+  </si>
+  <si>
+    <t>Taille des ligne de cache</t>
+  </si>
+  <si>
+    <t>taille des labels</t>
+  </si>
+  <si>
+    <t>tailles des addresse</t>
+  </si>
+  <si>
+    <t>tailles des cache</t>
+  </si>
+  <si>
+    <t>tailles des adresse</t>
+  </si>
+  <si>
+    <t>taille de la mémoire adresse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
@@ -776,10 +801,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1092,14 +1117,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2190,26 +2215,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="J11:Y11"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
     <mergeCell ref="I6:AG6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="B6:D6"/>
@@ -2226,16 +2231,36 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:Y8"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="J11:Y11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2407,7 +2432,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C217D931-D8EC-4E18-86A1-839AA8BD0689}">
+  <dimension ref="A4:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f>A5-B7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>(A7+B7)*2^8</f>
+        <v>19968</v>
+      </c>
+      <c r="C10">
+        <f>B7*2^C7</f>
+        <v>14336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,8 +2766,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM109"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
@@ -2859,20 +2955,20 @@
       <c r="S3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16" t="s">
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
       <c r="AD3" s="14" t="s">
         <v>1</v>
       </c>
@@ -2939,20 +3035,20 @@
       <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16" t="s">
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
       <c r="AD4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3028,20 +3124,20 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16" t="s">
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
       <c r="AD5" s="14" t="s">
         <v>1</v>
       </c>
@@ -3117,20 +3213,20 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16" t="s">
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
       <c r="AD6" s="14" t="s">
         <v>1</v>
       </c>
@@ -3206,20 +3302,20 @@
       <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="16" t="s">
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
       <c r="AD7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3298,20 +3394,20 @@
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="16" t="s">
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
       <c r="AD8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3387,20 +3483,20 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="16" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
       <c r="AD9" s="14" t="s">
         <v>1</v>
       </c>
@@ -3476,20 +3572,20 @@
       <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="16" t="s">
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
       <c r="AD10" s="14" t="s">
         <v>1</v>
       </c>
@@ -3565,20 +3661,20 @@
       <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="16" t="s">
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
       <c r="AD11" s="14" t="s">
         <v>1</v>
       </c>
@@ -3654,20 +3750,20 @@
       <c r="S12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="16" t="s">
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
       <c r="AD12" s="14" t="s">
         <v>1</v>
       </c>
@@ -3743,20 +3839,20 @@
       <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="16" t="s">
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
       <c r="AD13" s="14" t="s">
         <v>1</v>
       </c>
@@ -3832,20 +3928,20 @@
       <c r="S14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="16" t="s">
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
       <c r="AD14" s="14" t="s">
         <v>1</v>
       </c>
@@ -3921,20 +4017,20 @@
       <c r="S15" s="4">
         <v>0</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16" t="s">
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
       <c r="AD15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4010,20 +4106,20 @@
       <c r="S16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16" t="s">
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
       <c r="AD16" s="14" t="s">
         <v>1</v>
       </c>
@@ -4099,20 +4195,20 @@
       <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="16" t="s">
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
       <c r="AD17" s="14" t="s">
         <v>1</v>
       </c>
@@ -4188,20 +4284,20 @@
       <c r="S18" s="4">
         <v>1</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16" t="s">
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
       <c r="AD18" s="14" t="s">
         <v>1</v>
       </c>
@@ -4277,20 +4373,20 @@
       <c r="S19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="16" t="s">
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
       <c r="AD19" s="14" t="s">
         <v>1</v>
       </c>
@@ -4366,20 +4462,20 @@
       <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16" t="s">
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
       <c r="AD20" s="14" t="s">
         <v>1</v>
       </c>
@@ -4455,20 +4551,20 @@
       <c r="S21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16" t="s">
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
       <c r="AD21" s="14" t="s">
         <v>1</v>
       </c>
@@ -4544,20 +4640,20 @@
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="16" t="s">
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
       <c r="AD22" s="14" t="s">
         <v>1</v>
       </c>
@@ -4633,20 +4729,20 @@
       <c r="S23" s="4">
         <v>0</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="16" t="s">
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
       <c r="AD23" s="14" t="s">
         <v>1</v>
       </c>
@@ -4725,20 +4821,20 @@
       <c r="S24" s="4">
         <v>1</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="16" t="s">
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
       <c r="AD24" s="14" t="s">
         <v>1</v>
       </c>
@@ -4814,20 +4910,20 @@
       <c r="S25" s="4">
         <v>0</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="16" t="s">
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
       <c r="AD25" s="14" t="s">
         <v>1</v>
       </c>
@@ -4903,20 +4999,20 @@
       <c r="S26" s="4">
         <v>1</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="16" t="s">
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
       <c r="AD26" s="14" t="s">
         <v>1</v>
       </c>
@@ -4989,20 +5085,20 @@
       <c r="S27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="16" t="s">
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
       <c r="AD27" s="14" t="s">
         <v>1</v>
       </c>
@@ -5078,20 +5174,20 @@
       <c r="S28" s="4">
         <v>1</v>
       </c>
-      <c r="T28" s="15" t="s">
+      <c r="T28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="16" t="s">
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
       <c r="AD28" s="14" t="s">
         <v>1</v>
       </c>
@@ -5167,20 +5263,20 @@
       <c r="S29" s="4">
         <v>0</v>
       </c>
-      <c r="T29" s="15" t="s">
+      <c r="T29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="16" t="s">
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
       <c r="AD29" s="14" t="s">
         <v>1</v>
       </c>
@@ -5256,20 +5352,20 @@
       <c r="S30" s="4">
         <v>1</v>
       </c>
-      <c r="T30" s="15" t="s">
+      <c r="T30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="16" t="s">
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
       <c r="AD30" s="14" t="s">
         <v>1</v>
       </c>
@@ -5345,20 +5441,20 @@
       <c r="S31" s="4">
         <v>0</v>
       </c>
-      <c r="T31" s="15" t="s">
+      <c r="T31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="16" t="s">
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
       <c r="AD31" s="14" t="s">
         <v>1</v>
       </c>
@@ -5434,20 +5530,20 @@
       <c r="S32" s="4">
         <v>1</v>
       </c>
-      <c r="T32" s="15" t="s">
+      <c r="T32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="16" t="s">
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
       <c r="AD32" s="14" t="s">
         <v>1</v>
       </c>
@@ -5523,20 +5619,20 @@
       <c r="S33" s="4">
         <v>0</v>
       </c>
-      <c r="T33" s="15" t="s">
+      <c r="T33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="16" t="s">
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
       <c r="AD33" s="14" t="s">
         <v>1</v>
       </c>
@@ -5612,20 +5708,20 @@
       <c r="S34" s="4">
         <v>1</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="16" t="s">
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
       <c r="AD34" s="14" t="s">
         <v>1</v>
       </c>
@@ -5698,20 +5794,20 @@
       <c r="S35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="15" t="s">
+      <c r="T35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="16" t="s">
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
       <c r="AD35" s="14" t="s">
         <v>1</v>
       </c>
@@ -5787,20 +5883,20 @@
       <c r="S36" s="4">
         <v>0</v>
       </c>
-      <c r="T36" s="15" t="s">
+      <c r="T36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="16" t="s">
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
       <c r="AD36" s="14" t="s">
         <v>1</v>
       </c>
@@ -5876,20 +5972,20 @@
       <c r="S37" s="4">
         <v>1</v>
       </c>
-      <c r="T37" s="15" t="s">
+      <c r="T37" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="16" t="s">
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
       <c r="AD37" s="14" t="s">
         <v>1</v>
       </c>
@@ -5965,20 +6061,20 @@
       <c r="S38" s="4">
         <v>0</v>
       </c>
-      <c r="T38" s="15" t="s">
+      <c r="T38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="16" t="s">
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
       <c r="AD38" s="14" t="s">
         <v>1</v>
       </c>
@@ -6054,20 +6150,20 @@
       <c r="S39" s="4">
         <v>1</v>
       </c>
-      <c r="T39" s="15" t="s">
+      <c r="T39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="16" t="s">
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
       <c r="AD39" s="14" t="s">
         <v>1</v>
       </c>
@@ -6143,20 +6239,20 @@
       <c r="S40" s="4">
         <v>0</v>
       </c>
-      <c r="T40" s="15" t="s">
+      <c r="T40" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="16" t="s">
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
       <c r="AD40" s="14" t="s">
         <v>1</v>
       </c>
@@ -6232,20 +6328,20 @@
       <c r="S41" s="4">
         <v>1</v>
       </c>
-      <c r="T41" s="15" t="s">
+      <c r="T41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="16" t="s">
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
       <c r="AD41" s="14" t="s">
         <v>75</v>
       </c>
@@ -6321,20 +6417,20 @@
       <c r="S42" s="4">
         <v>0</v>
       </c>
-      <c r="T42" s="15" t="s">
+      <c r="T42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="16" t="s">
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
       <c r="AD42" s="14" t="s">
         <v>75</v>
       </c>
@@ -6410,20 +6506,20 @@
       <c r="S43" s="4">
         <v>1</v>
       </c>
-      <c r="T43" s="15" t="s">
+      <c r="T43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="16" t="s">
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
       <c r="AD43" s="14" t="s">
         <v>1</v>
       </c>
@@ -6499,20 +6595,20 @@
       <c r="S44" s="4">
         <v>0</v>
       </c>
-      <c r="T44" s="15" t="s">
+      <c r="T44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="16" t="s">
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
       <c r="AD44" s="14" t="s">
         <v>1</v>
       </c>
@@ -6588,20 +6684,20 @@
       <c r="S45" s="4">
         <v>1</v>
       </c>
-      <c r="T45" s="15" t="s">
+      <c r="T45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="16" t="s">
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
       <c r="AD45" s="14" t="s">
         <v>75</v>
       </c>
@@ -6677,20 +6773,20 @@
       <c r="S46" s="4">
         <v>0</v>
       </c>
-      <c r="T46" s="15" t="s">
+      <c r="T46" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="16" t="s">
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
       <c r="AD46" s="14" t="s">
         <v>1</v>
       </c>
@@ -6766,20 +6862,20 @@
       <c r="S47" s="4">
         <v>1</v>
       </c>
-      <c r="T47" s="15" t="s">
+      <c r="T47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="16" t="s">
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-      <c r="AC47" s="16"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
       <c r="AD47" s="14" t="s">
         <v>1</v>
       </c>
@@ -6855,20 +6951,20 @@
       <c r="S48" s="4">
         <v>0</v>
       </c>
-      <c r="T48" s="15" t="s">
+      <c r="T48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="16" t="s">
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
       <c r="AD48" s="14" t="s">
         <v>1</v>
       </c>
@@ -6945,20 +7041,20 @@
       <c r="S49" s="4">
         <v>1</v>
       </c>
-      <c r="T49" s="15" t="s">
+      <c r="T49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="16" t="s">
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
       <c r="AD49" s="14" t="s">
         <v>1</v>
       </c>
@@ -7034,20 +7130,20 @@
       <c r="S50" s="4">
         <v>0</v>
       </c>
-      <c r="T50" s="15" t="s">
+      <c r="T50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="16" t="s">
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
       <c r="AD50" s="14" t="s">
         <v>75</v>
       </c>
@@ -7114,20 +7210,20 @@
       <c r="S51" s="4">
         <v>1</v>
       </c>
-      <c r="T51" s="15" t="s">
+      <c r="T51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="16" t="s">
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
       <c r="AD51" s="14" t="s">
         <v>75</v>
       </c>
@@ -7197,20 +7293,20 @@
       <c r="S52" s="4">
         <v>0</v>
       </c>
-      <c r="T52" s="15" t="s">
+      <c r="T52" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="16" t="s">
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
       <c r="AD52" s="14" t="s">
         <v>1</v>
       </c>
@@ -7283,20 +7379,20 @@
       <c r="S53" s="4">
         <v>0</v>
       </c>
-      <c r="T53" s="15" t="s">
+      <c r="T53" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="16" t="s">
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
       <c r="AD53" s="14" t="s">
         <v>1</v>
       </c>
@@ -7369,20 +7465,20 @@
       <c r="S54" s="4">
         <v>1</v>
       </c>
-      <c r="T54" s="15" t="s">
+      <c r="T54" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="16" t="s">
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-      <c r="AC54" s="16"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
       <c r="AD54" s="14" t="s">
         <v>1</v>
       </c>
@@ -7455,20 +7551,20 @@
       <c r="S55" s="4">
         <v>0</v>
       </c>
-      <c r="T55" s="15" t="s">
+      <c r="T55" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="16" t="s">
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
       <c r="AD55" s="14" t="s">
         <v>1</v>
       </c>
@@ -7535,20 +7631,20 @@
       <c r="S56" s="4">
         <v>1</v>
       </c>
-      <c r="T56" s="15" t="s">
+      <c r="T56" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="16" t="s">
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
       <c r="AD56" s="14" t="s">
         <v>1</v>
       </c>
@@ -7615,20 +7711,20 @@
       <c r="S57" s="4">
         <v>0</v>
       </c>
-      <c r="T57" s="15" t="s">
+      <c r="T57" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="16" t="s">
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
-      <c r="AC57" s="16"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
       <c r="AD57" s="14" t="s">
         <v>1</v>
       </c>
@@ -7695,20 +7791,20 @@
       <c r="S58" s="4">
         <v>1</v>
       </c>
-      <c r="T58" s="15" t="s">
+      <c r="T58" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="16" t="s">
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-      <c r="AC58" s="16"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
       <c r="AD58" s="14" t="s">
         <v>75</v>
       </c>
@@ -7775,20 +7871,20 @@
       <c r="S59" s="4">
         <v>0</v>
       </c>
-      <c r="T59" s="15" t="s">
+      <c r="T59" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="16" t="s">
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
-      <c r="AC59" s="16"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
       <c r="AD59" s="14" t="s">
         <v>75</v>
       </c>
@@ -7855,20 +7951,20 @@
       <c r="S60" s="4">
         <v>1</v>
       </c>
-      <c r="T60" s="15" t="s">
+      <c r="T60" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="16" t="s">
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="15"/>
       <c r="AD60" s="14" t="s">
         <v>1</v>
       </c>
@@ -7935,20 +8031,20 @@
       <c r="S61" s="4">
         <v>0</v>
       </c>
-      <c r="T61" s="15" t="s">
+      <c r="T61" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="16" t="s">
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
       <c r="AD61" s="14" t="s">
         <v>1</v>
       </c>
@@ -8015,20 +8111,20 @@
       <c r="S62" s="4">
         <v>1</v>
       </c>
-      <c r="T62" s="15" t="s">
+      <c r="T62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="16" t="s">
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
       <c r="AD62" s="14" t="s">
         <v>75</v>
       </c>
@@ -8095,20 +8191,20 @@
       <c r="S63" s="4">
         <v>0</v>
       </c>
-      <c r="T63" s="15" t="s">
+      <c r="T63" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="16" t="s">
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
       <c r="AD63" s="14" t="s">
         <v>1</v>
       </c>
@@ -8175,20 +8271,20 @@
       <c r="S64" s="4">
         <v>1</v>
       </c>
-      <c r="T64" s="15" t="s">
+      <c r="T64" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="16" t="s">
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
       <c r="AD64" s="14" t="s">
         <v>1</v>
       </c>
@@ -8255,20 +8351,20 @@
       <c r="S65" s="4">
         <v>0</v>
       </c>
-      <c r="T65" s="15" t="s">
+      <c r="T65" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="16" t="s">
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
       <c r="AD65" s="14" t="s">
         <v>1</v>
       </c>
@@ -8335,20 +8431,20 @@
       <c r="S66" s="4">
         <v>1</v>
       </c>
-      <c r="T66" s="15" t="s">
+      <c r="T66" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="16" t="s">
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
       <c r="AD66" s="14" t="s">
         <v>1</v>
       </c>
@@ -8415,20 +8511,20 @@
       <c r="S67" s="4">
         <v>0</v>
       </c>
-      <c r="T67" s="15" t="s">
+      <c r="T67" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="16" t="s">
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="16"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
       <c r="AD67" s="14" t="s">
         <v>163</v>
       </c>
@@ -8489,20 +8585,20 @@
       <c r="S68" s="4">
         <v>1</v>
       </c>
-      <c r="T68" s="15" t="s">
+      <c r="T68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="16" t="s">
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
       <c r="AD68" s="14" t="s">
         <v>75</v>
       </c>
@@ -8532,33 +8628,33 @@
       <c r="E70" s="5">
         <v>1</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="16"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
       <c r="AE70" s="14" t="s">
         <v>11</v>
       </c>
@@ -8585,33 +8681,33 @@
       <c r="E71" s="5">
         <v>0</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
       <c r="AE71" s="14" t="s">
         <v>11</v>
       </c>
@@ -8638,33 +8734,33 @@
       <c r="E72" s="5">
         <v>0</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
       <c r="AE72" s="14" t="s">
         <v>11</v>
       </c>
@@ -8692,33 +8788,33 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
       <c r="AE73" s="14" t="s">
         <v>11</v>
       </c>
@@ -8745,33 +8841,33 @@
       <c r="E74" s="5">
         <v>0</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
       <c r="AE74" s="14" t="s">
         <v>11</v>
       </c>
@@ -8801,33 +8897,33 @@
       <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AA75" s="16"/>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
-      <c r="AD75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
       <c r="AE75" s="14" t="s">
         <v>11</v>
       </c>
@@ -8866,33 +8962,33 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="J76" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AA76" s="16"/>
-      <c r="AB76" s="16"/>
-      <c r="AC76" s="16"/>
-      <c r="AD76" s="16"/>
-      <c r="AE76" s="16"/>
-      <c r="AF76" s="16"/>
-      <c r="AG76" s="16"/>
-      <c r="AH76" s="16"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
       <c r="AI76" t="s">
         <v>165</v>
       </c>
@@ -8928,33 +9024,33 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="16" t="s">
+      <c r="J77" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="16"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="16"/>
-      <c r="AE77" s="16"/>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="16"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
       <c r="AI77" t="s">
         <v>167</v>
       </c>
@@ -8990,26 +9086,26 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="15" t="s">
+      <c r="K80" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="16" t="s">
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
       <c r="AA80" s="14" t="s">
         <v>11</v>
       </c>
@@ -9061,26 +9157,26 @@
       <c r="J81" s="4">
         <v>1</v>
       </c>
-      <c r="K81" s="15" t="s">
+      <c r="K81" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="16" t="s">
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="16"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
       <c r="AA81" s="14" t="s">
         <v>11</v>
       </c>
@@ -9132,26 +9228,26 @@
       <c r="J82" s="4">
         <v>0</v>
       </c>
-      <c r="K82" s="15" t="s">
+      <c r="K82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="16" t="s">
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16"/>
-      <c r="Z82" s="16"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
       <c r="AA82" s="14" t="s">
         <v>11</v>
       </c>
@@ -9203,26 +9299,26 @@
       <c r="J83" s="4">
         <v>1</v>
       </c>
-      <c r="K83" s="15" t="s">
+      <c r="K83" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="16" t="s">
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="16"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
       <c r="AA83" s="14" t="s">
         <v>11</v>
       </c>
@@ -9277,26 +9373,26 @@
       <c r="J84" s="4">
         <v>0</v>
       </c>
-      <c r="K84" s="15" t="s">
+      <c r="K84" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="16" t="s">
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
       <c r="AA84" s="14" t="s">
         <v>11</v>
       </c>
@@ -9348,26 +9444,26 @@
       <c r="J85" s="4">
         <v>1</v>
       </c>
-      <c r="K85" s="15" t="s">
+      <c r="K85" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="16" t="s">
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="16"/>
-      <c r="X85" s="16"/>
-      <c r="Y85" s="16"/>
-      <c r="Z85" s="16"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
       <c r="AA85" s="14" t="s">
         <v>11</v>
       </c>
@@ -9419,26 +9515,26 @@
       <c r="J86" s="4">
         <v>0</v>
       </c>
-      <c r="K86" s="15" t="s">
+      <c r="K86" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="16" t="s">
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="16"/>
-      <c r="Z86" s="16"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
       <c r="AA86" s="14" t="s">
         <v>11</v>
       </c>
@@ -9490,26 +9586,26 @@
       <c r="J87" s="4">
         <v>1</v>
       </c>
-      <c r="K87" s="15" t="s">
+      <c r="K87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="16" t="s">
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="16"/>
-      <c r="X87" s="16"/>
-      <c r="Y87" s="16"/>
-      <c r="Z87" s="16"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
       <c r="AA87" s="14" t="s">
         <v>11</v>
       </c>
@@ -9584,16 +9680,16 @@
       <c r="R90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S90" s="16" t="s">
+      <c r="S90" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T90" s="16"/>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-      <c r="X90" s="16"/>
-      <c r="Y90" s="16"/>
-      <c r="Z90" s="16"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
       <c r="AA90" s="14" t="s">
         <v>11</v>
       </c>
@@ -9660,16 +9756,16 @@
       <c r="R91" s="4">
         <v>0</v>
       </c>
-      <c r="S91" s="16" t="s">
+      <c r="S91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
-      <c r="X91" s="16"/>
-      <c r="Y91" s="16"/>
-      <c r="Z91" s="16"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
       <c r="AA91" s="14" t="s">
         <v>11</v>
       </c>
@@ -9742,16 +9838,16 @@
       <c r="R92" s="4">
         <v>1</v>
       </c>
-      <c r="S92" s="16" t="s">
+      <c r="S92" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="16"/>
-      <c r="W92" s="16"/>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="16"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
       <c r="AA92" s="14" t="s">
         <v>11</v>
       </c>
@@ -9824,16 +9920,16 @@
       <c r="R93" s="4">
         <v>0</v>
       </c>
-      <c r="S93" s="16" t="s">
+      <c r="S93" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-      <c r="V93" s="16"/>
-      <c r="W93" s="16"/>
-      <c r="X93" s="16"/>
-      <c r="Y93" s="16"/>
-      <c r="Z93" s="16"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
       <c r="AA93" s="14" t="s">
         <v>11</v>
       </c>
@@ -9906,16 +10002,16 @@
       <c r="R94" s="4">
         <v>1</v>
       </c>
-      <c r="S94" s="16" t="s">
+      <c r="S94" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T94" s="16"/>
-      <c r="U94" s="16"/>
-      <c r="V94" s="16"/>
-      <c r="W94" s="16"/>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
       <c r="AA94" s="14" t="s">
         <v>11</v>
       </c>
@@ -9988,16 +10084,16 @@
       <c r="R95" s="4">
         <v>0</v>
       </c>
-      <c r="S95" s="16" t="s">
+      <c r="S95" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T95" s="16"/>
-      <c r="U95" s="16"/>
-      <c r="V95" s="16"/>
-      <c r="W95" s="16"/>
-      <c r="X95" s="16"/>
-      <c r="Y95" s="16"/>
-      <c r="Z95" s="16"/>
+      <c r="T95" s="15"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="15"/>
       <c r="AA95" s="14" t="s">
         <v>11</v>
       </c>
@@ -10070,16 +10166,16 @@
       <c r="R96" s="4">
         <v>1</v>
       </c>
-      <c r="S96" s="16" t="s">
+      <c r="S96" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T96" s="16"/>
-      <c r="U96" s="16"/>
-      <c r="V96" s="16"/>
-      <c r="W96" s="16"/>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="16"/>
-      <c r="Z96" s="16"/>
+      <c r="T96" s="15"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="15"/>
+      <c r="W96" s="15"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="15"/>
       <c r="AA96" s="14" t="s">
         <v>75</v>
       </c>
@@ -10149,16 +10245,16 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" s="16" t="s">
+      <c r="S97" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T97" s="16"/>
-      <c r="U97" s="16"/>
-      <c r="V97" s="16"/>
-      <c r="W97" s="16"/>
-      <c r="X97" s="16"/>
-      <c r="Y97" s="16"/>
-      <c r="Z97" s="16"/>
+      <c r="T97" s="15"/>
+      <c r="U97" s="15"/>
+      <c r="V97" s="15"/>
+      <c r="W97" s="15"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="15"/>
       <c r="AA97" s="14" t="s">
         <v>75</v>
       </c>
@@ -10228,16 +10324,16 @@
       <c r="R98" s="4">
         <v>1</v>
       </c>
-      <c r="S98" s="16" t="s">
+      <c r="S98" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
-      <c r="V98" s="16"/>
-      <c r="W98" s="16"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="16"/>
-      <c r="Z98" s="16"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
       <c r="AA98" s="14" t="s">
         <v>11</v>
       </c>
@@ -10310,16 +10406,16 @@
       <c r="R99" s="4">
         <v>0</v>
       </c>
-      <c r="S99" s="16" t="s">
+      <c r="S99" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-      <c r="Z99" s="16"/>
+      <c r="T99" s="15"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="15"/>
       <c r="AA99" s="14" t="s">
         <v>11</v>
       </c>
@@ -10392,16 +10488,16 @@
       <c r="R100" s="4">
         <v>1</v>
       </c>
-      <c r="S100" s="16" t="s">
+      <c r="S100" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T100" s="16"/>
-      <c r="U100" s="16"/>
-      <c r="V100" s="16"/>
-      <c r="W100" s="16"/>
-      <c r="X100" s="16"/>
-      <c r="Y100" s="16"/>
-      <c r="Z100" s="16"/>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="15"/>
+      <c r="W100" s="15"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="15"/>
       <c r="AA100" s="14" t="s">
         <v>11</v>
       </c>
@@ -10474,16 +10570,16 @@
       <c r="R101" s="4">
         <v>0</v>
       </c>
-      <c r="S101" s="16" t="s">
+      <c r="S101" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T101" s="16"/>
-      <c r="U101" s="16"/>
-      <c r="V101" s="16"/>
-      <c r="W101" s="16"/>
-      <c r="X101" s="16"/>
-      <c r="Y101" s="16"/>
-      <c r="Z101" s="16"/>
+      <c r="T101" s="15"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="15"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="15"/>
       <c r="AA101" s="14" t="s">
         <v>11</v>
       </c>
@@ -10556,16 +10652,16 @@
       <c r="R102" s="4">
         <v>1</v>
       </c>
-      <c r="S102" s="16" t="s">
+      <c r="S102" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T102" s="16"/>
-      <c r="U102" s="16"/>
-      <c r="V102" s="16"/>
-      <c r="W102" s="16"/>
-      <c r="X102" s="16"/>
-      <c r="Y102" s="16"/>
-      <c r="Z102" s="16"/>
+      <c r="T102" s="15"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="15"/>
+      <c r="W102" s="15"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="15"/>
       <c r="AA102" s="14" t="s">
         <v>11</v>
       </c>
@@ -10638,16 +10734,16 @@
       <c r="R103" s="4">
         <v>0</v>
       </c>
-      <c r="S103" s="16" t="s">
+      <c r="S103" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T103" s="16"/>
-      <c r="U103" s="16"/>
-      <c r="V103" s="16"/>
-      <c r="W103" s="16"/>
-      <c r="X103" s="16"/>
-      <c r="Y103" s="16"/>
-      <c r="Z103" s="16"/>
+      <c r="T103" s="15"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
       <c r="AA103" s="14" t="s">
         <v>11</v>
       </c>
@@ -10721,16 +10817,16 @@
       <c r="R104" s="4">
         <v>1</v>
       </c>
-      <c r="S104" s="16" t="s">
+      <c r="S104" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T104" s="16"/>
-      <c r="U104" s="16"/>
-      <c r="V104" s="16"/>
-      <c r="W104" s="16"/>
-      <c r="X104" s="16"/>
-      <c r="Y104" s="16"/>
-      <c r="Z104" s="16"/>
+      <c r="T104" s="15"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
       <c r="AA104" s="14" t="s">
         <v>11</v>
       </c>
@@ -10831,24 +10927,24 @@
       <c r="M108" s="3">
         <v>1</v>
       </c>
-      <c r="N108" s="16" t="s">
+      <c r="N108" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="16"/>
-      <c r="R108" s="16"/>
-      <c r="S108" s="16"/>
-      <c r="T108" s="16"/>
-      <c r="U108" s="16"/>
-      <c r="V108" s="16"/>
-      <c r="W108" s="16"/>
-      <c r="X108" s="16"/>
-      <c r="Y108" s="16"/>
-      <c r="Z108" s="16"/>
-      <c r="AA108" s="16"/>
-      <c r="AB108" s="16"/>
-      <c r="AC108" s="16"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
       <c r="AD108" s="17" t="s">
         <v>1</v>
       </c>
@@ -10897,24 +10993,24 @@
       <c r="M109" s="3">
         <v>1</v>
       </c>
-      <c r="N109" s="16" t="s">
+      <c r="N109" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="16"/>
-      <c r="R109" s="16"/>
-      <c r="S109" s="16"/>
-      <c r="T109" s="16"/>
-      <c r="U109" s="16"/>
-      <c r="V109" s="16"/>
-      <c r="W109" s="16"/>
-      <c r="X109" s="16"/>
-      <c r="Y109" s="16"/>
-      <c r="Z109" s="16"/>
-      <c r="AA109" s="16"/>
-      <c r="AB109" s="16"/>
-      <c r="AC109" s="16"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
       <c r="AD109" s="17" t="s">
         <v>1</v>
       </c>
@@ -10925,105 +11021,155 @@
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="N107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="AA99:AH99"/>
-    <mergeCell ref="AA100:AH100"/>
-    <mergeCell ref="AA101:AH101"/>
-    <mergeCell ref="AA102:AH102"/>
-    <mergeCell ref="AA103:AH103"/>
-    <mergeCell ref="AA104:AH104"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="S104:Z104"/>
-    <mergeCell ref="S99:Z99"/>
-    <mergeCell ref="S100:Z100"/>
-    <mergeCell ref="S101:Z101"/>
-    <mergeCell ref="S102:Z102"/>
-    <mergeCell ref="AA91:AH91"/>
-    <mergeCell ref="AA92:AH92"/>
-    <mergeCell ref="AA93:AH93"/>
-    <mergeCell ref="AA94:AH94"/>
-    <mergeCell ref="AA95:AH95"/>
-    <mergeCell ref="AA96:AH96"/>
-    <mergeCell ref="AA97:AH97"/>
-    <mergeCell ref="AA98:AH98"/>
-    <mergeCell ref="S97:Z97"/>
-    <mergeCell ref="S98:Z98"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S92:Z92"/>
-    <mergeCell ref="S93:Z93"/>
-    <mergeCell ref="S94:Z94"/>
-    <mergeCell ref="S95:Z95"/>
-    <mergeCell ref="S96:Z96"/>
-    <mergeCell ref="K87:R87"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="AA90:AH90"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="AA81:AH81"/>
-    <mergeCell ref="AA82:AH82"/>
-    <mergeCell ref="AA83:AH83"/>
-    <mergeCell ref="AA84:AH84"/>
-    <mergeCell ref="AA85:AH85"/>
-    <mergeCell ref="AA86:AH86"/>
-    <mergeCell ref="AA87:AH87"/>
-    <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="J77:AH77"/>
-    <mergeCell ref="T68:X68"/>
-    <mergeCell ref="Y68:AC68"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="K84:R84"/>
-    <mergeCell ref="K85:R85"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="J76:AH76"/>
-    <mergeCell ref="AE74:AH74"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="F72:AD72"/>
-    <mergeCell ref="F73:AD73"/>
-    <mergeCell ref="F74:AD74"/>
-    <mergeCell ref="F75:AD75"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="Y60:AC60"/>
-    <mergeCell ref="AD60:AH60"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="S80:Z80"/>
-    <mergeCell ref="AA80:AH80"/>
-    <mergeCell ref="K81:R81"/>
-    <mergeCell ref="K82:R82"/>
-    <mergeCell ref="K83:R83"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="Y65:AC65"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="T62:X62"/>
-    <mergeCell ref="Y62:AC62"/>
-    <mergeCell ref="AD62:AH62"/>
-    <mergeCell ref="T63:X63"/>
-    <mergeCell ref="Y63:AC63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="T57:X57"/>
-    <mergeCell ref="Y57:AC57"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="Y54:AC54"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="T55:X55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="T61:X61"/>
-    <mergeCell ref="Y61:AC61"/>
-    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="N108:AC108"/>
+    <mergeCell ref="AD108:AH108"/>
+    <mergeCell ref="N109:AC109"/>
+    <mergeCell ref="AD109:AH109"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AH21"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AH25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:AC29"/>
+    <mergeCell ref="AD29:AH29"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AC28"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="Y33:AC33"/>
+    <mergeCell ref="AD33:AH33"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:AC31"/>
+    <mergeCell ref="AD31:AH31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="AD32:AH32"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="Y34:AC34"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AC35"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AC40"/>
+    <mergeCell ref="AD40:AH40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="AD37:AH37"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AD41:AH41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AD42:AH42"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AD52:AH52"/>
+    <mergeCell ref="AD66:AH66"/>
+    <mergeCell ref="T67:X67"/>
+    <mergeCell ref="Y67:AC67"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="T64:X64"/>
+    <mergeCell ref="Y64:AC64"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="T49:X49"/>
+    <mergeCell ref="Y49:AC49"/>
+    <mergeCell ref="AD49:AH49"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="Y52:AC52"/>
     <mergeCell ref="T58:X58"/>
     <mergeCell ref="Y58:AC58"/>
     <mergeCell ref="AD58:AH58"/>
@@ -11048,159 +11194,109 @@
     <mergeCell ref="Y50:AC50"/>
     <mergeCell ref="AD46:AH46"/>
     <mergeCell ref="T51:X51"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="AD66:AH66"/>
-    <mergeCell ref="T67:X67"/>
-    <mergeCell ref="Y67:AC67"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="T64:X64"/>
-    <mergeCell ref="Y64:AC64"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="Y57:AC57"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="Y54:AC54"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="Y60:AC60"/>
+    <mergeCell ref="AD60:AH60"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="S80:Z80"/>
+    <mergeCell ref="AA80:AH80"/>
+    <mergeCell ref="K81:R81"/>
+    <mergeCell ref="K82:R82"/>
+    <mergeCell ref="K83:R83"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="T62:X62"/>
+    <mergeCell ref="Y62:AC62"/>
+    <mergeCell ref="AD62:AH62"/>
+    <mergeCell ref="T63:X63"/>
+    <mergeCell ref="Y63:AC63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="T61:X61"/>
+    <mergeCell ref="Y61:AC61"/>
+    <mergeCell ref="AD61:AH61"/>
     <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AD42:AH42"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="T49:X49"/>
-    <mergeCell ref="Y49:AC49"/>
-    <mergeCell ref="AD49:AH49"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="Y52:AC52"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="Y39:AC39"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="Y40:AC40"/>
-    <mergeCell ref="AD40:AH40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="AD37:AH37"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="Y33:AC33"/>
-    <mergeCell ref="AD33:AH33"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="Y31:AC31"/>
-    <mergeCell ref="AD31:AH31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="AD32:AH32"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="Y34:AC34"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AC35"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Y29:AC29"/>
-    <mergeCell ref="AD29:AH29"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AC28"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="N108:AC108"/>
-    <mergeCell ref="AD108:AH108"/>
-    <mergeCell ref="N109:AC109"/>
-    <mergeCell ref="AD109:AH109"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="J77:AH77"/>
+    <mergeCell ref="T68:X68"/>
+    <mergeCell ref="Y68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="K84:R84"/>
+    <mergeCell ref="K85:R85"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="J76:AH76"/>
+    <mergeCell ref="AE74:AH74"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="F72:AD72"/>
+    <mergeCell ref="F73:AD73"/>
+    <mergeCell ref="F74:AD74"/>
+    <mergeCell ref="F75:AD75"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="K87:R87"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S82:Z82"/>
+    <mergeCell ref="S83:Z83"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="AA90:AH90"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="AA81:AH81"/>
+    <mergeCell ref="AA82:AH82"/>
+    <mergeCell ref="AA83:AH83"/>
+    <mergeCell ref="AA84:AH84"/>
+    <mergeCell ref="AA85:AH85"/>
+    <mergeCell ref="AA86:AH86"/>
+    <mergeCell ref="AA87:AH87"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="AA91:AH91"/>
+    <mergeCell ref="AA92:AH92"/>
+    <mergeCell ref="AA93:AH93"/>
+    <mergeCell ref="AA94:AH94"/>
+    <mergeCell ref="AA95:AH95"/>
+    <mergeCell ref="AA96:AH96"/>
+    <mergeCell ref="AA97:AH97"/>
+    <mergeCell ref="AA98:AH98"/>
+    <mergeCell ref="S97:Z97"/>
+    <mergeCell ref="S98:Z98"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="S93:Z93"/>
+    <mergeCell ref="S94:Z94"/>
+    <mergeCell ref="S95:Z95"/>
+    <mergeCell ref="S96:Z96"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="N107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="AA99:AH99"/>
+    <mergeCell ref="AA100:AH100"/>
+    <mergeCell ref="AA101:AH101"/>
+    <mergeCell ref="AA102:AH102"/>
+    <mergeCell ref="AA103:AH103"/>
+    <mergeCell ref="AA104:AH104"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="S104:Z104"/>
+    <mergeCell ref="S99:Z99"/>
+    <mergeCell ref="S100:Z100"/>
+    <mergeCell ref="S101:Z101"/>
+    <mergeCell ref="S102:Z102"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AI52" r:id="rId1" display="JMP@R3"/>
+    <hyperlink ref="AI52" r:id="rId1" display="JMP@R3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xilinx_project\git_project\projet_CPU\projet_CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F63BEE-0C61-4223-BC94-5BBDF17B9FE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C58CFC-0DEA-4E33-9467-3C81E2F05A24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Operateur" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -801,10 +802,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2215,6 +2216,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="J11:Y11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:Y8"/>
     <mergeCell ref="I6:AG6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="B6:D6"/>
@@ -2231,26 +2252,6 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="J11:Y11"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2955,20 +2956,20 @@
       <c r="S3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="15" t="s">
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
       <c r="AD3" s="14" t="s">
         <v>1</v>
       </c>
@@ -3035,20 +3036,20 @@
       <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="15" t="s">
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
       <c r="AD4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3124,20 +3125,20 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="15" t="s">
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="14" t="s">
         <v>1</v>
       </c>
@@ -3213,20 +3214,20 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="15" t="s">
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
       <c r="AD6" s="14" t="s">
         <v>1</v>
       </c>
@@ -3302,20 +3303,20 @@
       <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="15" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
       <c r="AD7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3394,20 +3395,20 @@
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="15" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
       <c r="AD8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3483,20 +3484,20 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="15" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
       <c r="AD9" s="14" t="s">
         <v>1</v>
       </c>
@@ -3572,20 +3573,20 @@
       <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="15" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
       <c r="AD10" s="14" t="s">
         <v>1</v>
       </c>
@@ -3661,20 +3662,20 @@
       <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="15" t="s">
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
       <c r="AD11" s="14" t="s">
         <v>1</v>
       </c>
@@ -3750,20 +3751,20 @@
       <c r="S12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="15" t="s">
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
       <c r="AD12" s="14" t="s">
         <v>1</v>
       </c>
@@ -3839,20 +3840,20 @@
       <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="T13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="15" t="s">
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
       <c r="AD13" s="14" t="s">
         <v>1</v>
       </c>
@@ -3928,20 +3929,20 @@
       <c r="S14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="15" t="s">
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
       <c r="AD14" s="14" t="s">
         <v>1</v>
       </c>
@@ -4017,20 +4018,20 @@
       <c r="S15" s="4">
         <v>0</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="15" t="s">
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
       <c r="AD15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4106,20 +4107,20 @@
       <c r="S16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="T16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="15" t="s">
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="14" t="s">
         <v>1</v>
       </c>
@@ -4195,20 +4196,20 @@
       <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="T17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="15" t="s">
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
       <c r="AD17" s="14" t="s">
         <v>1</v>
       </c>
@@ -4284,20 +4285,20 @@
       <c r="S18" s="4">
         <v>1</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="15" t="s">
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
       <c r="AD18" s="14" t="s">
         <v>1</v>
       </c>
@@ -4373,20 +4374,20 @@
       <c r="S19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="15" t="s">
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
       <c r="AD19" s="14" t="s">
         <v>1</v>
       </c>
@@ -4462,20 +4463,20 @@
       <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="T20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="15" t="s">
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="14" t="s">
         <v>1</v>
       </c>
@@ -4551,20 +4552,20 @@
       <c r="S21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="15" t="s">
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
       <c r="AD21" s="14" t="s">
         <v>1</v>
       </c>
@@ -4640,20 +4641,20 @@
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="T22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="15" t="s">
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
       <c r="AD22" s="14" t="s">
         <v>1</v>
       </c>
@@ -4729,20 +4730,20 @@
       <c r="S23" s="4">
         <v>0</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="15" t="s">
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
       <c r="AD23" s="14" t="s">
         <v>1</v>
       </c>
@@ -4821,20 +4822,20 @@
       <c r="S24" s="4">
         <v>1</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="15" t="s">
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
       <c r="AD24" s="14" t="s">
         <v>1</v>
       </c>
@@ -4910,20 +4911,20 @@
       <c r="S25" s="4">
         <v>0</v>
       </c>
-      <c r="T25" s="16" t="s">
+      <c r="T25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="15" t="s">
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
       <c r="AD25" s="14" t="s">
         <v>1</v>
       </c>
@@ -4999,20 +5000,20 @@
       <c r="S26" s="4">
         <v>1</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="T26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="15" t="s">
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
       <c r="AD26" s="14" t="s">
         <v>1</v>
       </c>
@@ -5085,20 +5086,20 @@
       <c r="S27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="T27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="15" t="s">
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
       <c r="AD27" s="14" t="s">
         <v>1</v>
       </c>
@@ -5174,20 +5175,20 @@
       <c r="S28" s="4">
         <v>1</v>
       </c>
-      <c r="T28" s="16" t="s">
+      <c r="T28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="15" t="s">
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
       <c r="AD28" s="14" t="s">
         <v>1</v>
       </c>
@@ -5263,20 +5264,20 @@
       <c r="S29" s="4">
         <v>0</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="T29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="15" t="s">
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
       <c r="AD29" s="14" t="s">
         <v>1</v>
       </c>
@@ -5352,20 +5353,20 @@
       <c r="S30" s="4">
         <v>1</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="T30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="15" t="s">
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
       <c r="AD30" s="14" t="s">
         <v>1</v>
       </c>
@@ -5441,20 +5442,20 @@
       <c r="S31" s="4">
         <v>0</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="T31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="15" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
       <c r="AD31" s="14" t="s">
         <v>1</v>
       </c>
@@ -5530,20 +5531,20 @@
       <c r="S32" s="4">
         <v>1</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="T32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="15" t="s">
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
       <c r="AD32" s="14" t="s">
         <v>1</v>
       </c>
@@ -5619,20 +5620,20 @@
       <c r="S33" s="4">
         <v>0</v>
       </c>
-      <c r="T33" s="16" t="s">
+      <c r="T33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="15" t="s">
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
       <c r="AD33" s="14" t="s">
         <v>1</v>
       </c>
@@ -5708,20 +5709,20 @@
       <c r="S34" s="4">
         <v>1</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="15" t="s">
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
       <c r="AD34" s="14" t="s">
         <v>1</v>
       </c>
@@ -5794,20 +5795,20 @@
       <c r="S35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="16" t="s">
+      <c r="T35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="15" t="s">
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
       <c r="AD35" s="14" t="s">
         <v>1</v>
       </c>
@@ -5883,20 +5884,20 @@
       <c r="S36" s="4">
         <v>0</v>
       </c>
-      <c r="T36" s="16" t="s">
+      <c r="T36" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="15" t="s">
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
       <c r="AD36" s="14" t="s">
         <v>1</v>
       </c>
@@ -5972,20 +5973,20 @@
       <c r="S37" s="4">
         <v>1</v>
       </c>
-      <c r="T37" s="16" t="s">
+      <c r="T37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="15" t="s">
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
       <c r="AD37" s="14" t="s">
         <v>1</v>
       </c>
@@ -6061,20 +6062,20 @@
       <c r="S38" s="4">
         <v>0</v>
       </c>
-      <c r="T38" s="16" t="s">
+      <c r="T38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="15" t="s">
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
       <c r="AD38" s="14" t="s">
         <v>1</v>
       </c>
@@ -6150,20 +6151,20 @@
       <c r="S39" s="4">
         <v>1</v>
       </c>
-      <c r="T39" s="16" t="s">
+      <c r="T39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="15" t="s">
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
       <c r="AD39" s="14" t="s">
         <v>1</v>
       </c>
@@ -6239,20 +6240,20 @@
       <c r="S40" s="4">
         <v>0</v>
       </c>
-      <c r="T40" s="16" t="s">
+      <c r="T40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="15" t="s">
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
       <c r="AD40" s="14" t="s">
         <v>1</v>
       </c>
@@ -6328,20 +6329,20 @@
       <c r="S41" s="4">
         <v>1</v>
       </c>
-      <c r="T41" s="16" t="s">
+      <c r="T41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="15" t="s">
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
       <c r="AD41" s="14" t="s">
         <v>75</v>
       </c>
@@ -6417,20 +6418,20 @@
       <c r="S42" s="4">
         <v>0</v>
       </c>
-      <c r="T42" s="16" t="s">
+      <c r="T42" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="15" t="s">
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
       <c r="AD42" s="14" t="s">
         <v>75</v>
       </c>
@@ -6506,20 +6507,20 @@
       <c r="S43" s="4">
         <v>1</v>
       </c>
-      <c r="T43" s="16" t="s">
+      <c r="T43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="15" t="s">
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
       <c r="AD43" s="14" t="s">
         <v>1</v>
       </c>
@@ -6595,20 +6596,20 @@
       <c r="S44" s="4">
         <v>0</v>
       </c>
-      <c r="T44" s="16" t="s">
+      <c r="T44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="15" t="s">
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
       <c r="AD44" s="14" t="s">
         <v>1</v>
       </c>
@@ -6684,20 +6685,20 @@
       <c r="S45" s="4">
         <v>1</v>
       </c>
-      <c r="T45" s="16" t="s">
+      <c r="T45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="15" t="s">
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
       <c r="AD45" s="14" t="s">
         <v>75</v>
       </c>
@@ -6773,20 +6774,20 @@
       <c r="S46" s="4">
         <v>0</v>
       </c>
-      <c r="T46" s="16" t="s">
+      <c r="T46" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="15" t="s">
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
       <c r="AD46" s="14" t="s">
         <v>1</v>
       </c>
@@ -6862,20 +6863,20 @@
       <c r="S47" s="4">
         <v>1</v>
       </c>
-      <c r="T47" s="16" t="s">
+      <c r="T47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="15" t="s">
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
       <c r="AD47" s="14" t="s">
         <v>1</v>
       </c>
@@ -6951,20 +6952,20 @@
       <c r="S48" s="4">
         <v>0</v>
       </c>
-      <c r="T48" s="16" t="s">
+      <c r="T48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="15" t="s">
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
       <c r="AD48" s="14" t="s">
         <v>1</v>
       </c>
@@ -7041,20 +7042,20 @@
       <c r="S49" s="4">
         <v>1</v>
       </c>
-      <c r="T49" s="16" t="s">
+      <c r="T49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="15" t="s">
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
       <c r="AD49" s="14" t="s">
         <v>1</v>
       </c>
@@ -7130,20 +7131,20 @@
       <c r="S50" s="4">
         <v>0</v>
       </c>
-      <c r="T50" s="16" t="s">
+      <c r="T50" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="15" t="s">
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="15"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
       <c r="AD50" s="14" t="s">
         <v>75</v>
       </c>
@@ -7210,20 +7211,20 @@
       <c r="S51" s="4">
         <v>1</v>
       </c>
-      <c r="T51" s="16" t="s">
+      <c r="T51" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="15" t="s">
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
       <c r="AD51" s="14" t="s">
         <v>75</v>
       </c>
@@ -7293,20 +7294,20 @@
       <c r="S52" s="4">
         <v>0</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="T52" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="15" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
       <c r="AD52" s="14" t="s">
         <v>1</v>
       </c>
@@ -7379,20 +7380,20 @@
       <c r="S53" s="4">
         <v>0</v>
       </c>
-      <c r="T53" s="16" t="s">
+      <c r="T53" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="15" t="s">
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
       <c r="AD53" s="14" t="s">
         <v>1</v>
       </c>
@@ -7465,20 +7466,20 @@
       <c r="S54" s="4">
         <v>1</v>
       </c>
-      <c r="T54" s="16" t="s">
+      <c r="T54" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="15" t="s">
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
       <c r="AD54" s="14" t="s">
         <v>1</v>
       </c>
@@ -7551,20 +7552,20 @@
       <c r="S55" s="4">
         <v>0</v>
       </c>
-      <c r="T55" s="16" t="s">
+      <c r="T55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="15" t="s">
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
       <c r="AD55" s="14" t="s">
         <v>1</v>
       </c>
@@ -7631,20 +7632,20 @@
       <c r="S56" s="4">
         <v>1</v>
       </c>
-      <c r="T56" s="16" t="s">
+      <c r="T56" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="15" t="s">
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="15"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
       <c r="AD56" s="14" t="s">
         <v>1</v>
       </c>
@@ -7711,20 +7712,20 @@
       <c r="S57" s="4">
         <v>0</v>
       </c>
-      <c r="T57" s="16" t="s">
+      <c r="T57" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="15" t="s">
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
       <c r="AD57" s="14" t="s">
         <v>1</v>
       </c>
@@ -7791,20 +7792,20 @@
       <c r="S58" s="4">
         <v>1</v>
       </c>
-      <c r="T58" s="16" t="s">
+      <c r="T58" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="16"/>
-      <c r="Y58" s="15" t="s">
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="15"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
       <c r="AD58" s="14" t="s">
         <v>75</v>
       </c>
@@ -7871,20 +7872,20 @@
       <c r="S59" s="4">
         <v>0</v>
       </c>
-      <c r="T59" s="16" t="s">
+      <c r="T59" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="15" t="s">
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
       <c r="AD59" s="14" t="s">
         <v>75</v>
       </c>
@@ -7951,20 +7952,20 @@
       <c r="S60" s="4">
         <v>1</v>
       </c>
-      <c r="T60" s="16" t="s">
+      <c r="T60" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="15" t="s">
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
       <c r="AD60" s="14" t="s">
         <v>1</v>
       </c>
@@ -8031,20 +8032,20 @@
       <c r="S61" s="4">
         <v>0</v>
       </c>
-      <c r="T61" s="16" t="s">
+      <c r="T61" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="15" t="s">
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-      <c r="AC61" s="15"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
       <c r="AD61" s="14" t="s">
         <v>1</v>
       </c>
@@ -8111,20 +8112,20 @@
       <c r="S62" s="4">
         <v>1</v>
       </c>
-      <c r="T62" s="16" t="s">
+      <c r="T62" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="15" t="s">
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
       <c r="AD62" s="14" t="s">
         <v>75</v>
       </c>
@@ -8191,20 +8192,20 @@
       <c r="S63" s="4">
         <v>0</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="T63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="15" t="s">
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
       <c r="AD63" s="14" t="s">
         <v>1</v>
       </c>
@@ -8271,20 +8272,20 @@
       <c r="S64" s="4">
         <v>1</v>
       </c>
-      <c r="T64" s="16" t="s">
+      <c r="T64" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="15" t="s">
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
       <c r="AD64" s="14" t="s">
         <v>1</v>
       </c>
@@ -8351,20 +8352,20 @@
       <c r="S65" s="4">
         <v>0</v>
       </c>
-      <c r="T65" s="16" t="s">
+      <c r="T65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="15" t="s">
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
       <c r="AD65" s="14" t="s">
         <v>1</v>
       </c>
@@ -8431,20 +8432,20 @@
       <c r="S66" s="4">
         <v>1</v>
       </c>
-      <c r="T66" s="16" t="s">
+      <c r="T66" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="15" t="s">
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="15"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
       <c r="AD66" s="14" t="s">
         <v>1</v>
       </c>
@@ -8511,20 +8512,20 @@
       <c r="S67" s="4">
         <v>0</v>
       </c>
-      <c r="T67" s="16" t="s">
+      <c r="T67" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="15" t="s">
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
       <c r="AD67" s="14" t="s">
         <v>163</v>
       </c>
@@ -8585,20 +8586,20 @@
       <c r="S68" s="4">
         <v>1</v>
       </c>
-      <c r="T68" s="16" t="s">
+      <c r="T68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="15" t="s">
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z68" s="15"/>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="15"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
       <c r="AD68" s="14" t="s">
         <v>75</v>
       </c>
@@ -8628,33 +8629,33 @@
       <c r="E70" s="5">
         <v>1</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="15"/>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="15"/>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
       <c r="AE70" s="14" t="s">
         <v>11</v>
       </c>
@@ -8681,33 +8682,33 @@
       <c r="E71" s="5">
         <v>0</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="15"/>
-      <c r="AD71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
       <c r="AE71" s="14" t="s">
         <v>11</v>
       </c>
@@ -8734,33 +8735,33 @@
       <c r="E72" s="5">
         <v>0</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
       <c r="AE72" s="14" t="s">
         <v>11</v>
       </c>
@@ -8788,33 +8789,33 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="15"/>
-      <c r="AD73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
       <c r="AE73" s="14" t="s">
         <v>11</v>
       </c>
@@ -8841,33 +8842,33 @@
       <c r="E74" s="5">
         <v>0</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
-      <c r="AC74" s="15"/>
-      <c r="AD74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
       <c r="AE74" s="14" t="s">
         <v>11</v>
       </c>
@@ -8897,33 +8898,33 @@
       <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="15"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
       <c r="AE75" s="14" t="s">
         <v>11</v>
       </c>
@@ -8962,33 +8963,33 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
-      <c r="X76" s="15"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="15"/>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="15"/>
-      <c r="AD76" s="15"/>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
-      <c r="AG76" s="15"/>
-      <c r="AH76" s="15"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
       <c r="AI76" t="s">
         <v>165</v>
       </c>
@@ -9024,33 +9025,33 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="J77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15"/>
-      <c r="AC77" s="15"/>
-      <c r="AD77" s="15"/>
-      <c r="AE77" s="15"/>
-      <c r="AF77" s="15"/>
-      <c r="AG77" s="15"/>
-      <c r="AH77" s="15"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
       <c r="AI77" t="s">
         <v>167</v>
       </c>
@@ -9086,26 +9087,26 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="15" t="s">
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="15"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
       <c r="AA80" s="14" t="s">
         <v>11</v>
       </c>
@@ -9157,26 +9158,26 @@
       <c r="J81" s="4">
         <v>1</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="15" t="s">
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
       <c r="AA81" s="14" t="s">
         <v>11</v>
       </c>
@@ -9228,26 +9229,26 @@
       <c r="J82" s="4">
         <v>0</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="K82" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="15" t="s">
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
       <c r="AA82" s="14" t="s">
         <v>11</v>
       </c>
@@ -9299,26 +9300,26 @@
       <c r="J83" s="4">
         <v>1</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="K83" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="15" t="s">
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="15"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
       <c r="AA83" s="14" t="s">
         <v>11</v>
       </c>
@@ -9373,26 +9374,26 @@
       <c r="J84" s="4">
         <v>0</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="K84" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="15" t="s">
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
       <c r="AA84" s="14" t="s">
         <v>11</v>
       </c>
@@ -9444,26 +9445,26 @@
       <c r="J85" s="4">
         <v>1</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="15" t="s">
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="15"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
       <c r="AA85" s="14" t="s">
         <v>11</v>
       </c>
@@ -9515,26 +9516,26 @@
       <c r="J86" s="4">
         <v>0</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="K86" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="15" t="s">
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
       <c r="AA86" s="14" t="s">
         <v>11</v>
       </c>
@@ -9586,26 +9587,26 @@
       <c r="J87" s="4">
         <v>1</v>
       </c>
-      <c r="K87" s="16" t="s">
+      <c r="K87" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="15" t="s">
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="16"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
       <c r="AA87" s="14" t="s">
         <v>11</v>
       </c>
@@ -9680,16 +9681,16 @@
       <c r="R90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S90" s="15" t="s">
+      <c r="S90" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="16"/>
+      <c r="Z90" s="16"/>
       <c r="AA90" s="14" t="s">
         <v>11</v>
       </c>
@@ -9756,16 +9757,16 @@
       <c r="R91" s="4">
         <v>0</v>
       </c>
-      <c r="S91" s="15" t="s">
+      <c r="S91" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
       <c r="AA91" s="14" t="s">
         <v>11</v>
       </c>
@@ -9838,16 +9839,16 @@
       <c r="R92" s="4">
         <v>1</v>
       </c>
-      <c r="S92" s="15" t="s">
+      <c r="S92" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="15"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
       <c r="AA92" s="14" t="s">
         <v>11</v>
       </c>
@@ -9920,16 +9921,16 @@
       <c r="R93" s="4">
         <v>0</v>
       </c>
-      <c r="S93" s="15" t="s">
+      <c r="S93" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="15"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="15"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="16"/>
+      <c r="Z93" s="16"/>
       <c r="AA93" s="14" t="s">
         <v>11</v>
       </c>
@@ -10002,16 +10003,16 @@
       <c r="R94" s="4">
         <v>1</v>
       </c>
-      <c r="S94" s="15" t="s">
+      <c r="S94" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="15"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
       <c r="AA94" s="14" t="s">
         <v>11</v>
       </c>
@@ -10084,16 +10085,16 @@
       <c r="R95" s="4">
         <v>0</v>
       </c>
-      <c r="S95" s="15" t="s">
+      <c r="S95" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T95" s="15"/>
-      <c r="U95" s="15"/>
-      <c r="V95" s="15"/>
-      <c r="W95" s="15"/>
-      <c r="X95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="15"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
       <c r="AA95" s="14" t="s">
         <v>11</v>
       </c>
@@ -10166,16 +10167,16 @@
       <c r="R96" s="4">
         <v>1</v>
       </c>
-      <c r="S96" s="15" t="s">
+      <c r="S96" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="V96" s="15"/>
-      <c r="W96" s="15"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="15"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
+      <c r="Z96" s="16"/>
       <c r="AA96" s="14" t="s">
         <v>75</v>
       </c>
@@ -10245,16 +10246,16 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" s="15" t="s">
+      <c r="S97" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T97" s="15"/>
-      <c r="U97" s="15"/>
-      <c r="V97" s="15"/>
-      <c r="W97" s="15"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="15"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="16"/>
+      <c r="Y97" s="16"/>
+      <c r="Z97" s="16"/>
       <c r="AA97" s="14" t="s">
         <v>75</v>
       </c>
@@ -10324,16 +10325,16 @@
       <c r="R98" s="4">
         <v>1</v>
       </c>
-      <c r="S98" s="15" t="s">
+      <c r="S98" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T98" s="15"/>
-      <c r="U98" s="15"/>
-      <c r="V98" s="15"/>
-      <c r="W98" s="15"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="15"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
+      <c r="W98" s="16"/>
+      <c r="X98" s="16"/>
+      <c r="Y98" s="16"/>
+      <c r="Z98" s="16"/>
       <c r="AA98" s="14" t="s">
         <v>11</v>
       </c>
@@ -10406,16 +10407,16 @@
       <c r="R99" s="4">
         <v>0</v>
       </c>
-      <c r="S99" s="15" t="s">
+      <c r="S99" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="V99" s="15"/>
-      <c r="W99" s="15"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="16"/>
+      <c r="Z99" s="16"/>
       <c r="AA99" s="14" t="s">
         <v>11</v>
       </c>
@@ -10488,16 +10489,16 @@
       <c r="R100" s="4">
         <v>1</v>
       </c>
-      <c r="S100" s="15" t="s">
+      <c r="S100" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T100" s="15"/>
-      <c r="U100" s="15"/>
-      <c r="V100" s="15"/>
-      <c r="W100" s="15"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="15"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="16"/>
+      <c r="Z100" s="16"/>
       <c r="AA100" s="14" t="s">
         <v>11</v>
       </c>
@@ -10570,16 +10571,16 @@
       <c r="R101" s="4">
         <v>0</v>
       </c>
-      <c r="S101" s="15" t="s">
+      <c r="S101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="V101" s="15"/>
-      <c r="W101" s="15"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="16"/>
+      <c r="Z101" s="16"/>
       <c r="AA101" s="14" t="s">
         <v>11</v>
       </c>
@@ -10652,16 +10653,16 @@
       <c r="R102" s="4">
         <v>1</v>
       </c>
-      <c r="S102" s="15" t="s">
+      <c r="S102" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+      <c r="Z102" s="16"/>
       <c r="AA102" s="14" t="s">
         <v>11</v>
       </c>
@@ -10734,16 +10735,16 @@
       <c r="R103" s="4">
         <v>0</v>
       </c>
-      <c r="S103" s="15" t="s">
+      <c r="S103" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T103" s="15"/>
-      <c r="U103" s="15"/>
-      <c r="V103" s="15"/>
-      <c r="W103" s="15"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="15"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="16"/>
+      <c r="Z103" s="16"/>
       <c r="AA103" s="14" t="s">
         <v>11</v>
       </c>
@@ -10817,16 +10818,16 @@
       <c r="R104" s="4">
         <v>1</v>
       </c>
-      <c r="S104" s="15" t="s">
+      <c r="S104" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T104" s="15"/>
-      <c r="U104" s="15"/>
-      <c r="V104" s="15"/>
-      <c r="W104" s="15"/>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
-      <c r="Z104" s="15"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+      <c r="Z104" s="16"/>
       <c r="AA104" s="14" t="s">
         <v>11</v>
       </c>
@@ -10927,24 +10928,24 @@
       <c r="M108" s="3">
         <v>1</v>
       </c>
-      <c r="N108" s="15" t="s">
+      <c r="N108" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
-      <c r="U108" s="15"/>
-      <c r="V108" s="15"/>
-      <c r="W108" s="15"/>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="15"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="15"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="16"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="16"/>
+      <c r="Y108" s="16"/>
+      <c r="Z108" s="16"/>
+      <c r="AA108" s="16"/>
+      <c r="AB108" s="16"/>
+      <c r="AC108" s="16"/>
       <c r="AD108" s="17" t="s">
         <v>1</v>
       </c>
@@ -10993,24 +10994,24 @@
       <c r="M109" s="3">
         <v>1</v>
       </c>
-      <c r="N109" s="15" t="s">
+      <c r="N109" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="15"/>
-      <c r="U109" s="15"/>
-      <c r="V109" s="15"/>
-      <c r="W109" s="15"/>
-      <c r="X109" s="15"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="15"/>
-      <c r="AB109" s="15"/>
-      <c r="AC109" s="15"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="16"/>
+      <c r="Y109" s="16"/>
+      <c r="Z109" s="16"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="16"/>
+      <c r="AC109" s="16"/>
       <c r="AD109" s="17" t="s">
         <v>1</v>
       </c>
@@ -11021,6 +11022,255 @@
     </row>
   </sheetData>
   <mergeCells count="273">
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="N107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="AA99:AH99"/>
+    <mergeCell ref="AA100:AH100"/>
+    <mergeCell ref="AA101:AH101"/>
+    <mergeCell ref="AA102:AH102"/>
+    <mergeCell ref="AA103:AH103"/>
+    <mergeCell ref="AA104:AH104"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="S104:Z104"/>
+    <mergeCell ref="S99:Z99"/>
+    <mergeCell ref="S100:Z100"/>
+    <mergeCell ref="S101:Z101"/>
+    <mergeCell ref="S102:Z102"/>
+    <mergeCell ref="AA91:AH91"/>
+    <mergeCell ref="AA92:AH92"/>
+    <mergeCell ref="AA93:AH93"/>
+    <mergeCell ref="AA94:AH94"/>
+    <mergeCell ref="AA95:AH95"/>
+    <mergeCell ref="AA96:AH96"/>
+    <mergeCell ref="AA97:AH97"/>
+    <mergeCell ref="AA98:AH98"/>
+    <mergeCell ref="S97:Z97"/>
+    <mergeCell ref="S98:Z98"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="S93:Z93"/>
+    <mergeCell ref="S94:Z94"/>
+    <mergeCell ref="S95:Z95"/>
+    <mergeCell ref="S96:Z96"/>
+    <mergeCell ref="K87:R87"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S82:Z82"/>
+    <mergeCell ref="S83:Z83"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="AA90:AH90"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="AA81:AH81"/>
+    <mergeCell ref="AA82:AH82"/>
+    <mergeCell ref="AA83:AH83"/>
+    <mergeCell ref="AA84:AH84"/>
+    <mergeCell ref="AA85:AH85"/>
+    <mergeCell ref="AA86:AH86"/>
+    <mergeCell ref="AA87:AH87"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="J77:AH77"/>
+    <mergeCell ref="T68:X68"/>
+    <mergeCell ref="Y68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="K84:R84"/>
+    <mergeCell ref="K85:R85"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="J76:AH76"/>
+    <mergeCell ref="AE74:AH74"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="F72:AD72"/>
+    <mergeCell ref="F73:AD73"/>
+    <mergeCell ref="F74:AD74"/>
+    <mergeCell ref="F75:AD75"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="Y60:AC60"/>
+    <mergeCell ref="AD60:AH60"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="S80:Z80"/>
+    <mergeCell ref="AA80:AH80"/>
+    <mergeCell ref="K81:R81"/>
+    <mergeCell ref="K82:R82"/>
+    <mergeCell ref="K83:R83"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="T62:X62"/>
+    <mergeCell ref="Y62:AC62"/>
+    <mergeCell ref="AD62:AH62"/>
+    <mergeCell ref="T63:X63"/>
+    <mergeCell ref="Y63:AC63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="T61:X61"/>
+    <mergeCell ref="Y61:AC61"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="Y57:AC57"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="Y54:AC54"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="T59:X59"/>
+    <mergeCell ref="Y59:AC59"/>
+    <mergeCell ref="F71:AD71"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="Y66:AC66"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="Y45:AC45"/>
+    <mergeCell ref="AD45:AH45"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="Y46:AC46"/>
+    <mergeCell ref="F70:AD70"/>
+    <mergeCell ref="AD51:AH51"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="T50:X50"/>
+    <mergeCell ref="Y50:AC50"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="T51:X51"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AD52:AH52"/>
+    <mergeCell ref="AD66:AH66"/>
+    <mergeCell ref="T67:X67"/>
+    <mergeCell ref="Y67:AC67"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="T64:X64"/>
+    <mergeCell ref="Y64:AC64"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="T49:X49"/>
+    <mergeCell ref="Y49:AC49"/>
+    <mergeCell ref="AD49:AH49"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="Y52:AC52"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="Y58:AC58"/>
+    <mergeCell ref="AD58:AH58"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AD41:AH41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AD42:AH42"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AC40"/>
+    <mergeCell ref="AD40:AH40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="AD37:AH37"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="Y33:AC33"/>
+    <mergeCell ref="AD33:AH33"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:AC31"/>
+    <mergeCell ref="AD31:AH31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="AD32:AH32"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="Y34:AC34"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AC35"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:AC29"/>
+    <mergeCell ref="AD29:AH29"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AC28"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AH25"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
     <mergeCell ref="AD15:AH15"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="Y16:AC16"/>
@@ -11045,255 +11295,6 @@
     <mergeCell ref="AD21:AH21"/>
     <mergeCell ref="T22:X22"/>
     <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Y29:AC29"/>
-    <mergeCell ref="AD29:AH29"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AC28"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="Y33:AC33"/>
-    <mergeCell ref="AD33:AH33"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="Y31:AC31"/>
-    <mergeCell ref="AD31:AH31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="AD32:AH32"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="Y34:AC34"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AC35"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="Y39:AC39"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="Y40:AC40"/>
-    <mergeCell ref="AD40:AH40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="AD37:AH37"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AD42:AH42"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="AD66:AH66"/>
-    <mergeCell ref="T67:X67"/>
-    <mergeCell ref="Y67:AC67"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="T64:X64"/>
-    <mergeCell ref="Y64:AC64"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="T49:X49"/>
-    <mergeCell ref="Y49:AC49"/>
-    <mergeCell ref="AD49:AH49"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="Y52:AC52"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="Y58:AC58"/>
-    <mergeCell ref="AD58:AH58"/>
-    <mergeCell ref="T59:X59"/>
-    <mergeCell ref="Y59:AC59"/>
-    <mergeCell ref="F71:AD71"/>
-    <mergeCell ref="T66:X66"/>
-    <mergeCell ref="Y66:AC66"/>
-    <mergeCell ref="Y44:AC44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AD45:AH45"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="Y46:AC46"/>
-    <mergeCell ref="F70:AD70"/>
-    <mergeCell ref="AD51:AH51"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="T50:X50"/>
-    <mergeCell ref="Y50:AC50"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="T51:X51"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="T57:X57"/>
-    <mergeCell ref="Y57:AC57"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="Y54:AC54"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="T55:X55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="Y60:AC60"/>
-    <mergeCell ref="AD60:AH60"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="S80:Z80"/>
-    <mergeCell ref="AA80:AH80"/>
-    <mergeCell ref="K81:R81"/>
-    <mergeCell ref="K82:R82"/>
-    <mergeCell ref="K83:R83"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="Y65:AC65"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="T62:X62"/>
-    <mergeCell ref="Y62:AC62"/>
-    <mergeCell ref="AD62:AH62"/>
-    <mergeCell ref="T63:X63"/>
-    <mergeCell ref="Y63:AC63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="T61:X61"/>
-    <mergeCell ref="Y61:AC61"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="J77:AH77"/>
-    <mergeCell ref="T68:X68"/>
-    <mergeCell ref="Y68:AC68"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="K84:R84"/>
-    <mergeCell ref="K85:R85"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="J76:AH76"/>
-    <mergeCell ref="AE74:AH74"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="F72:AD72"/>
-    <mergeCell ref="F73:AD73"/>
-    <mergeCell ref="F74:AD74"/>
-    <mergeCell ref="F75:AD75"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="K87:R87"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="AA90:AH90"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="AA81:AH81"/>
-    <mergeCell ref="AA82:AH82"/>
-    <mergeCell ref="AA83:AH83"/>
-    <mergeCell ref="AA84:AH84"/>
-    <mergeCell ref="AA85:AH85"/>
-    <mergeCell ref="AA86:AH86"/>
-    <mergeCell ref="AA87:AH87"/>
-    <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="AA91:AH91"/>
-    <mergeCell ref="AA92:AH92"/>
-    <mergeCell ref="AA93:AH93"/>
-    <mergeCell ref="AA94:AH94"/>
-    <mergeCell ref="AA95:AH95"/>
-    <mergeCell ref="AA96:AH96"/>
-    <mergeCell ref="AA97:AH97"/>
-    <mergeCell ref="AA98:AH98"/>
-    <mergeCell ref="S97:Z97"/>
-    <mergeCell ref="S98:Z98"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S92:Z92"/>
-    <mergeCell ref="S93:Z93"/>
-    <mergeCell ref="S94:Z94"/>
-    <mergeCell ref="S95:Z95"/>
-    <mergeCell ref="S96:Z96"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="N107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="AA99:AH99"/>
-    <mergeCell ref="AA100:AH100"/>
-    <mergeCell ref="AA101:AH101"/>
-    <mergeCell ref="AA102:AH102"/>
-    <mergeCell ref="AA103:AH103"/>
-    <mergeCell ref="AA104:AH104"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="S104:Z104"/>
-    <mergeCell ref="S99:Z99"/>
-    <mergeCell ref="S100:Z100"/>
-    <mergeCell ref="S101:Z101"/>
-    <mergeCell ref="S102:Z102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AI52" r:id="rId1" display="JMP@R3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xilinx_project\git_project\projet_CPU\projet_CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xilinx_project\CPUproject\projet_CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F63BEE-0C61-4223-BC94-5BBDF17B9FE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069C36AB-63CB-403E-9230-D027C63E20AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4545" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format operateur" sheetId="1" r:id="rId1"/>
     <sheet name="PLL_PWM compute" sheetId="4" r:id="rId2"/>
     <sheet name="Cache" sheetId="5" r:id="rId3"/>
-    <sheet name="Fomat registre" sheetId="2" r:id="rId4"/>
-    <sheet name="Operateur" sheetId="3" r:id="rId5"/>
+    <sheet name="cache(2)" sheetId="6" r:id="rId4"/>
+    <sheet name="Fomat registre" sheetId="2" r:id="rId5"/>
+    <sheet name="Operateur" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="289">
   <si>
     <t>ADD</t>
   </si>
@@ -698,6 +704,204 @@
   </si>
   <si>
     <t>taille de la mémoire adresse</t>
+  </si>
+  <si>
+    <t>Protocole</t>
+  </si>
+  <si>
+    <t>Master-&gt;Slave</t>
+  </si>
+  <si>
+    <t>0-31</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>Explaination</t>
+  </si>
+  <si>
+    <t>read command</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>data for write command</t>
+  </si>
+  <si>
+    <t>Slave-&gt; master</t>
+  </si>
+  <si>
+    <t>bus taken</t>
+  </si>
+  <si>
+    <t>Data for the answer</t>
+  </si>
+  <si>
+    <t>H-&gt;0</t>
+  </si>
+  <si>
+    <t>Ack Answer</t>
+  </si>
+  <si>
+    <t>Bus is free</t>
+  </si>
+  <si>
+    <t>Exemple d'échange</t>
+  </si>
+  <si>
+    <t>Master -&gt; slave</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Address/Data</t>
+  </si>
+  <si>
+    <t>Address/Data flag</t>
+  </si>
+  <si>
+    <t>Address for write command</t>
+  </si>
+  <si>
+    <t>Address for the answer</t>
+  </si>
+  <si>
+    <t>Ecriture</t>
+  </si>
+  <si>
+    <t>Clk</t>
+  </si>
+  <si>
+    <t>&lt;Address[0:31]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Data[0:31]&gt;</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>Handshake</t>
+  </si>
+  <si>
+    <t>&lt;Address[0:31]&gt;(H/0)</t>
+  </si>
+  <si>
+    <t>&lt;Data[0:31]&gt;(H/0)</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>(forcé a 0 par le master)</t>
+  </si>
+  <si>
+    <t>relire l'adress av</t>
+  </si>
+  <si>
+    <t>Adder in/out</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>A_in</t>
+  </si>
+  <si>
+    <t>B_in</t>
+  </si>
+  <si>
+    <t>D_out</t>
+  </si>
+  <si>
+    <t>X_or</t>
+  </si>
+  <si>
+    <t>x_in</t>
+  </si>
+  <si>
+    <t>x_out</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>And_in</t>
+  </si>
+  <si>
+    <t>And_out</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Extended mod</t>
+  </si>
+  <si>
+    <t>Or_in</t>
+  </si>
+  <si>
+    <t>Or_out</t>
+  </si>
+  <si>
+    <t>C_in</t>
+  </si>
+  <si>
+    <t>Write from slave</t>
+  </si>
+  <si>
+    <t>Address for write</t>
+  </si>
+  <si>
+    <t>Ack Write</t>
+  </si>
+  <si>
+    <t>HandShake(H/0=&gt; etat 1 récessif)=&gt; reset de toute les machine lorsque 34- passe à 0</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>global addr prefix</t>
+  </si>
+  <si>
+    <t>Etiquette</t>
+  </si>
+  <si>
+    <t>Relatif cache index</t>
+  </si>
+  <si>
+    <t>Cache handler port</t>
+  </si>
+  <si>
+    <t>addr_res</t>
+  </si>
+  <si>
+    <t>data_res</t>
+  </si>
+  <si>
+    <t>res_valid</t>
+  </si>
+  <si>
+    <t>busy</t>
+  </si>
+  <si>
+    <t>data_down_lvl</t>
+  </si>
+  <si>
+    <t>RW_down_lvl</t>
+  </si>
+  <si>
+    <t>addr_down_lvl</t>
   </si>
 </sst>
 </file>
@@ -801,10 +1005,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2215,6 +2419,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="J11:Y11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:Y8"/>
     <mergeCell ref="I6:AG6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="B6:D6"/>
@@ -2231,26 +2455,6 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="J11:Y11"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2261,7 +2465,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C217D931-D8EC-4E18-86A1-839AA8BD0689}">
-  <dimension ref="A4:C10"/>
+  <dimension ref="A3:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,19 +2648,49 @@
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -2466,8 +2700,17 @@
       <c r="C6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -2478,16 +2721,54 @@
         <f>A5-B7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>(A7+B7)*2^8</f>
         <v>19968</v>
@@ -2495,6 +2776,356 @@
       <c r="C10">
         <f>B7*2^C7</f>
         <v>14336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>33</v>
+      </c>
+      <c r="L14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>234</v>
+      </c>
+      <c r="M18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>238</v>
+      </c>
+      <c r="P29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>240</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>239</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" t="s">
+        <v>252</v>
+      </c>
+      <c r="S35" t="s">
+        <v>253</v>
+      </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2503,261 +3134,104 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C6F1E8-74C4-4BB6-8AC3-414BA2E5596B}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" customWidth="1"/>
-    <col min="15" max="18" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>"--input_up_lvl"</f>
+        <v>--input_up_lvl</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>"--input_down_lvl"</f>
+        <v>--input_down_lvl</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -2767,11 +3241,278 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="18" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AM109"/>
+  <dimension ref="A1:BA109"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="AI30" sqref="AI30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,14 +3521,28 @@
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="3" max="34" width="2.7109375" customWidth="1"/>
     <col min="35" max="35" width="39.28515625" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2896,8 +3651,41 @@
       <c r="AL2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2955,20 +3743,20 @@
       <c r="S3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="15" t="s">
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
       <c r="AD3" s="14" t="s">
         <v>1</v>
       </c>
@@ -2977,7 +3765,7 @@
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3035,20 +3823,20 @@
       <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="15" t="s">
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
       <c r="AD4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3065,8 +3853,23 @@
       <c r="AL4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -3124,20 +3927,20 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="15" t="s">
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="14" t="s">
         <v>1</v>
       </c>
@@ -3155,7 +3958,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -3213,20 +4016,20 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="15" t="s">
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
       <c r="AD6" s="14" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +4047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -3302,20 +4105,20 @@
       <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="15" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
       <c r="AD7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3336,7 +4139,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -3394,20 +4197,20 @@
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="15" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
       <c r="AD8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3425,7 +4228,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -3483,20 +4286,20 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="15" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
       <c r="AD9" s="14" t="s">
         <v>1</v>
       </c>
@@ -3514,7 +4317,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3572,20 +4375,20 @@
       <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="15" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
       <c r="AD10" s="14" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +4406,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3661,20 +4464,20 @@
       <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="15" t="s">
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
       <c r="AD11" s="14" t="s">
         <v>1</v>
       </c>
@@ -3692,7 +4495,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3750,20 +4553,20 @@
       <c r="S12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="15" t="s">
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
       <c r="AD12" s="14" t="s">
         <v>1</v>
       </c>
@@ -3781,7 +4584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -3839,20 +4642,20 @@
       <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="T13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="15" t="s">
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
       <c r="AD13" s="14" t="s">
         <v>1</v>
       </c>
@@ -3870,7 +4673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3928,20 +4731,20 @@
       <c r="S14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="15" t="s">
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
       <c r="AD14" s="14" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +4762,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -4017,20 +4820,20 @@
       <c r="S15" s="4">
         <v>0</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="15" t="s">
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
       <c r="AD15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4048,7 +4851,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4106,20 +4909,20 @@
       <c r="S16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="T16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="15" t="s">
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="14" t="s">
         <v>1</v>
       </c>
@@ -4195,20 +4998,20 @@
       <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="T17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="15" t="s">
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
       <c r="AD17" s="14" t="s">
         <v>1</v>
       </c>
@@ -4284,20 +5087,20 @@
       <c r="S18" s="4">
         <v>1</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="T18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="15" t="s">
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
       <c r="AD18" s="14" t="s">
         <v>1</v>
       </c>
@@ -4373,20 +5176,20 @@
       <c r="S19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="15" t="s">
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
       <c r="AD19" s="14" t="s">
         <v>1</v>
       </c>
@@ -4462,20 +5265,20 @@
       <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="T20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="15" t="s">
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="14" t="s">
         <v>1</v>
       </c>
@@ -4551,20 +5354,20 @@
       <c r="S21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="15" t="s">
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
       <c r="AD21" s="14" t="s">
         <v>1</v>
       </c>
@@ -4640,20 +5443,20 @@
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="T22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="15" t="s">
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
       <c r="AD22" s="14" t="s">
         <v>1</v>
       </c>
@@ -4729,20 +5532,20 @@
       <c r="S23" s="4">
         <v>0</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="15" t="s">
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
       <c r="AD23" s="14" t="s">
         <v>1</v>
       </c>
@@ -4821,20 +5624,20 @@
       <c r="S24" s="4">
         <v>1</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="15" t="s">
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
       <c r="AD24" s="14" t="s">
         <v>1</v>
       </c>
@@ -4910,20 +5713,20 @@
       <c r="S25" s="4">
         <v>0</v>
       </c>
-      <c r="T25" s="16" t="s">
+      <c r="T25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="15" t="s">
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
       <c r="AD25" s="14" t="s">
         <v>1</v>
       </c>
@@ -4999,20 +5802,20 @@
       <c r="S26" s="4">
         <v>1</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="T26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="15" t="s">
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
       <c r="AD26" s="14" t="s">
         <v>1</v>
       </c>
@@ -5085,20 +5888,20 @@
       <c r="S27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="T27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="15" t="s">
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
       <c r="AD27" s="14" t="s">
         <v>1</v>
       </c>
@@ -5174,20 +5977,20 @@
       <c r="S28" s="4">
         <v>1</v>
       </c>
-      <c r="T28" s="16" t="s">
+      <c r="T28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="15" t="s">
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
       <c r="AD28" s="14" t="s">
         <v>1</v>
       </c>
@@ -5263,20 +6066,20 @@
       <c r="S29" s="4">
         <v>0</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="T29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="15" t="s">
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
       <c r="AD29" s="14" t="s">
         <v>1</v>
       </c>
@@ -5352,20 +6155,20 @@
       <c r="S30" s="4">
         <v>1</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="T30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="15" t="s">
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
       <c r="AD30" s="14" t="s">
         <v>1</v>
       </c>
@@ -5441,20 +6244,20 @@
       <c r="S31" s="4">
         <v>0</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="T31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="15" t="s">
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
       <c r="AD31" s="14" t="s">
         <v>1</v>
       </c>
@@ -5530,20 +6333,20 @@
       <c r="S32" s="4">
         <v>1</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="T32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="15" t="s">
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
       <c r="AD32" s="14" t="s">
         <v>1</v>
       </c>
@@ -5619,20 +6422,20 @@
       <c r="S33" s="4">
         <v>0</v>
       </c>
-      <c r="T33" s="16" t="s">
+      <c r="T33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="15" t="s">
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
       <c r="AD33" s="14" t="s">
         <v>1</v>
       </c>
@@ -5708,20 +6511,20 @@
       <c r="S34" s="4">
         <v>1</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="15" t="s">
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
       <c r="AD34" s="14" t="s">
         <v>1</v>
       </c>
@@ -5794,20 +6597,20 @@
       <c r="S35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="16" t="s">
+      <c r="T35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="15" t="s">
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
       <c r="AD35" s="14" t="s">
         <v>1</v>
       </c>
@@ -5883,20 +6686,20 @@
       <c r="S36" s="4">
         <v>0</v>
       </c>
-      <c r="T36" s="16" t="s">
+      <c r="T36" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="15" t="s">
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
       <c r="AD36" s="14" t="s">
         <v>1</v>
       </c>
@@ -5972,20 +6775,20 @@
       <c r="S37" s="4">
         <v>1</v>
       </c>
-      <c r="T37" s="16" t="s">
+      <c r="T37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="15" t="s">
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
       <c r="AD37" s="14" t="s">
         <v>1</v>
       </c>
@@ -6061,20 +6864,20 @@
       <c r="S38" s="4">
         <v>0</v>
       </c>
-      <c r="T38" s="16" t="s">
+      <c r="T38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="15" t="s">
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
       <c r="AD38" s="14" t="s">
         <v>1</v>
       </c>
@@ -6150,20 +6953,20 @@
       <c r="S39" s="4">
         <v>1</v>
       </c>
-      <c r="T39" s="16" t="s">
+      <c r="T39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="15" t="s">
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
       <c r="AD39" s="14" t="s">
         <v>1</v>
       </c>
@@ -6239,20 +7042,20 @@
       <c r="S40" s="4">
         <v>0</v>
       </c>
-      <c r="T40" s="16" t="s">
+      <c r="T40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="15" t="s">
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
       <c r="AD40" s="14" t="s">
         <v>1</v>
       </c>
@@ -6328,20 +7131,20 @@
       <c r="S41" s="4">
         <v>1</v>
       </c>
-      <c r="T41" s="16" t="s">
+      <c r="T41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="15" t="s">
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
       <c r="AD41" s="14" t="s">
         <v>75</v>
       </c>
@@ -6417,20 +7220,20 @@
       <c r="S42" s="4">
         <v>0</v>
       </c>
-      <c r="T42" s="16" t="s">
+      <c r="T42" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="15" t="s">
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
       <c r="AD42" s="14" t="s">
         <v>75</v>
       </c>
@@ -6506,20 +7309,20 @@
       <c r="S43" s="4">
         <v>1</v>
       </c>
-      <c r="T43" s="16" t="s">
+      <c r="T43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="15" t="s">
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
       <c r="AD43" s="14" t="s">
         <v>1</v>
       </c>
@@ -6595,20 +7398,20 @@
       <c r="S44" s="4">
         <v>0</v>
       </c>
-      <c r="T44" s="16" t="s">
+      <c r="T44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="15" t="s">
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
       <c r="AD44" s="14" t="s">
         <v>1</v>
       </c>
@@ -6684,20 +7487,20 @@
       <c r="S45" s="4">
         <v>1</v>
       </c>
-      <c r="T45" s="16" t="s">
+      <c r="T45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="15" t="s">
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
       <c r="AD45" s="14" t="s">
         <v>75</v>
       </c>
@@ -6773,20 +7576,20 @@
       <c r="S46" s="4">
         <v>0</v>
       </c>
-      <c r="T46" s="16" t="s">
+      <c r="T46" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="15" t="s">
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
       <c r="AD46" s="14" t="s">
         <v>1</v>
       </c>
@@ -6862,20 +7665,20 @@
       <c r="S47" s="4">
         <v>1</v>
       </c>
-      <c r="T47" s="16" t="s">
+      <c r="T47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="15" t="s">
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
       <c r="AD47" s="14" t="s">
         <v>1</v>
       </c>
@@ -6951,20 +7754,20 @@
       <c r="S48" s="4">
         <v>0</v>
       </c>
-      <c r="T48" s="16" t="s">
+      <c r="T48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="15" t="s">
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
       <c r="AD48" s="14" t="s">
         <v>1</v>
       </c>
@@ -7041,20 +7844,20 @@
       <c r="S49" s="4">
         <v>1</v>
       </c>
-      <c r="T49" s="16" t="s">
+      <c r="T49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="15" t="s">
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
       <c r="AD49" s="14" t="s">
         <v>1</v>
       </c>
@@ -7130,20 +7933,20 @@
       <c r="S50" s="4">
         <v>0</v>
       </c>
-      <c r="T50" s="16" t="s">
+      <c r="T50" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="15" t="s">
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="15"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
       <c r="AD50" s="14" t="s">
         <v>75</v>
       </c>
@@ -7210,20 +8013,20 @@
       <c r="S51" s="4">
         <v>1</v>
       </c>
-      <c r="T51" s="16" t="s">
+      <c r="T51" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="15" t="s">
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
       <c r="AD51" s="14" t="s">
         <v>75</v>
       </c>
@@ -7293,20 +8096,20 @@
       <c r="S52" s="4">
         <v>0</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="T52" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="15" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
       <c r="AD52" s="14" t="s">
         <v>1</v>
       </c>
@@ -7379,20 +8182,20 @@
       <c r="S53" s="4">
         <v>0</v>
       </c>
-      <c r="T53" s="16" t="s">
+      <c r="T53" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="15" t="s">
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
       <c r="AD53" s="14" t="s">
         <v>1</v>
       </c>
@@ -7465,20 +8268,20 @@
       <c r="S54" s="4">
         <v>1</v>
       </c>
-      <c r="T54" s="16" t="s">
+      <c r="T54" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="15" t="s">
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
       <c r="AD54" s="14" t="s">
         <v>1</v>
       </c>
@@ -7551,20 +8354,20 @@
       <c r="S55" s="4">
         <v>0</v>
       </c>
-      <c r="T55" s="16" t="s">
+      <c r="T55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="15" t="s">
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
       <c r="AD55" s="14" t="s">
         <v>1</v>
       </c>
@@ -7631,20 +8434,20 @@
       <c r="S56" s="4">
         <v>1</v>
       </c>
-      <c r="T56" s="16" t="s">
+      <c r="T56" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="15" t="s">
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="15"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
       <c r="AD56" s="14" t="s">
         <v>1</v>
       </c>
@@ -7711,20 +8514,20 @@
       <c r="S57" s="4">
         <v>0</v>
       </c>
-      <c r="T57" s="16" t="s">
+      <c r="T57" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="15" t="s">
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
       <c r="AD57" s="14" t="s">
         <v>1</v>
       </c>
@@ -7791,20 +8594,20 @@
       <c r="S58" s="4">
         <v>1</v>
       </c>
-      <c r="T58" s="16" t="s">
+      <c r="T58" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="16"/>
-      <c r="Y58" s="15" t="s">
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="15"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
       <c r="AD58" s="14" t="s">
         <v>75</v>
       </c>
@@ -7871,20 +8674,20 @@
       <c r="S59" s="4">
         <v>0</v>
       </c>
-      <c r="T59" s="16" t="s">
+      <c r="T59" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="15" t="s">
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
       <c r="AD59" s="14" t="s">
         <v>75</v>
       </c>
@@ -7951,20 +8754,20 @@
       <c r="S60" s="4">
         <v>1</v>
       </c>
-      <c r="T60" s="16" t="s">
+      <c r="T60" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="15" t="s">
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
       <c r="AD60" s="14" t="s">
         <v>1</v>
       </c>
@@ -8031,20 +8834,20 @@
       <c r="S61" s="4">
         <v>0</v>
       </c>
-      <c r="T61" s="16" t="s">
+      <c r="T61" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="15" t="s">
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-      <c r="AC61" s="15"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
       <c r="AD61" s="14" t="s">
         <v>1</v>
       </c>
@@ -8111,20 +8914,20 @@
       <c r="S62" s="4">
         <v>1</v>
       </c>
-      <c r="T62" s="16" t="s">
+      <c r="T62" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="15" t="s">
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
       <c r="AD62" s="14" t="s">
         <v>75</v>
       </c>
@@ -8191,20 +8994,20 @@
       <c r="S63" s="4">
         <v>0</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="T63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="15" t="s">
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
       <c r="AD63" s="14" t="s">
         <v>1</v>
       </c>
@@ -8271,20 +9074,20 @@
       <c r="S64" s="4">
         <v>1</v>
       </c>
-      <c r="T64" s="16" t="s">
+      <c r="T64" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="15" t="s">
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
       <c r="AD64" s="14" t="s">
         <v>1</v>
       </c>
@@ -8351,20 +9154,20 @@
       <c r="S65" s="4">
         <v>0</v>
       </c>
-      <c r="T65" s="16" t="s">
+      <c r="T65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="15" t="s">
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
       <c r="AD65" s="14" t="s">
         <v>1</v>
       </c>
@@ -8431,20 +9234,20 @@
       <c r="S66" s="4">
         <v>1</v>
       </c>
-      <c r="T66" s="16" t="s">
+      <c r="T66" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="15" t="s">
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="15"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
       <c r="AD66" s="14" t="s">
         <v>1</v>
       </c>
@@ -8511,20 +9314,20 @@
       <c r="S67" s="4">
         <v>0</v>
       </c>
-      <c r="T67" s="16" t="s">
+      <c r="T67" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="15" t="s">
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
       <c r="AD67" s="14" t="s">
         <v>163</v>
       </c>
@@ -8585,20 +9388,20 @@
       <c r="S68" s="4">
         <v>1</v>
       </c>
-      <c r="T68" s="16" t="s">
+      <c r="T68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="15" t="s">
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z68" s="15"/>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="15"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
       <c r="AD68" s="14" t="s">
         <v>75</v>
       </c>
@@ -8628,33 +9431,33 @@
       <c r="E70" s="5">
         <v>1</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="15"/>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="15"/>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
       <c r="AE70" s="14" t="s">
         <v>11</v>
       </c>
@@ -8681,33 +9484,33 @@
       <c r="E71" s="5">
         <v>0</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="15"/>
-      <c r="AD71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
       <c r="AE71" s="14" t="s">
         <v>11</v>
       </c>
@@ -8734,33 +9537,33 @@
       <c r="E72" s="5">
         <v>0</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
       <c r="AE72" s="14" t="s">
         <v>11</v>
       </c>
@@ -8788,33 +9591,33 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="15"/>
-      <c r="AD73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
       <c r="AE73" s="14" t="s">
         <v>11</v>
       </c>
@@ -8841,33 +9644,33 @@
       <c r="E74" s="5">
         <v>0</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
-      <c r="AC74" s="15"/>
-      <c r="AD74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
       <c r="AE74" s="14" t="s">
         <v>11</v>
       </c>
@@ -8897,33 +9700,33 @@
       <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="15"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
       <c r="AE75" s="14" t="s">
         <v>11</v>
       </c>
@@ -8962,33 +9765,33 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76" s="15" t="s">
+      <c r="J76" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
-      <c r="X76" s="15"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="15"/>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="15"/>
-      <c r="AD76" s="15"/>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
-      <c r="AG76" s="15"/>
-      <c r="AH76" s="15"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
       <c r="AI76" t="s">
         <v>165</v>
       </c>
@@ -9024,33 +9827,33 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="J77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15"/>
-      <c r="AC77" s="15"/>
-      <c r="AD77" s="15"/>
-      <c r="AE77" s="15"/>
-      <c r="AF77" s="15"/>
-      <c r="AG77" s="15"/>
-      <c r="AH77" s="15"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
       <c r="AI77" t="s">
         <v>167</v>
       </c>
@@ -9086,26 +9889,26 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="15" t="s">
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="15"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
       <c r="AA80" s="14" t="s">
         <v>11</v>
       </c>
@@ -9157,26 +9960,26 @@
       <c r="J81" s="4">
         <v>1</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="15" t="s">
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
       <c r="AA81" s="14" t="s">
         <v>11</v>
       </c>
@@ -9228,26 +10031,26 @@
       <c r="J82" s="4">
         <v>0</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="K82" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="15" t="s">
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
       <c r="AA82" s="14" t="s">
         <v>11</v>
       </c>
@@ -9299,26 +10102,26 @@
       <c r="J83" s="4">
         <v>1</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="K83" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="15" t="s">
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="15"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
       <c r="AA83" s="14" t="s">
         <v>11</v>
       </c>
@@ -9373,26 +10176,26 @@
       <c r="J84" s="4">
         <v>0</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="K84" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="15" t="s">
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
       <c r="AA84" s="14" t="s">
         <v>11</v>
       </c>
@@ -9444,26 +10247,26 @@
       <c r="J85" s="4">
         <v>1</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="15" t="s">
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="15"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
       <c r="AA85" s="14" t="s">
         <v>11</v>
       </c>
@@ -9515,26 +10318,26 @@
       <c r="J86" s="4">
         <v>0</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="K86" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="15" t="s">
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="15"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
       <c r="AA86" s="14" t="s">
         <v>11</v>
       </c>
@@ -9586,26 +10389,26 @@
       <c r="J87" s="4">
         <v>1</v>
       </c>
-      <c r="K87" s="16" t="s">
+      <c r="K87" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="15" t="s">
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="16"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
       <c r="AA87" s="14" t="s">
         <v>11</v>
       </c>
@@ -9680,16 +10483,16 @@
       <c r="R90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S90" s="15" t="s">
+      <c r="S90" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="16"/>
+      <c r="Z90" s="16"/>
       <c r="AA90" s="14" t="s">
         <v>11</v>
       </c>
@@ -9756,16 +10559,16 @@
       <c r="R91" s="4">
         <v>0</v>
       </c>
-      <c r="S91" s="15" t="s">
+      <c r="S91" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
       <c r="AA91" s="14" t="s">
         <v>11</v>
       </c>
@@ -9838,16 +10641,16 @@
       <c r="R92" s="4">
         <v>1</v>
       </c>
-      <c r="S92" s="15" t="s">
+      <c r="S92" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="15"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
       <c r="AA92" s="14" t="s">
         <v>11</v>
       </c>
@@ -9920,16 +10723,16 @@
       <c r="R93" s="4">
         <v>0</v>
       </c>
-      <c r="S93" s="15" t="s">
+      <c r="S93" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="15"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="15"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="16"/>
+      <c r="Z93" s="16"/>
       <c r="AA93" s="14" t="s">
         <v>11</v>
       </c>
@@ -10002,16 +10805,16 @@
       <c r="R94" s="4">
         <v>1</v>
       </c>
-      <c r="S94" s="15" t="s">
+      <c r="S94" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="15"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
       <c r="AA94" s="14" t="s">
         <v>11</v>
       </c>
@@ -10084,16 +10887,16 @@
       <c r="R95" s="4">
         <v>0</v>
       </c>
-      <c r="S95" s="15" t="s">
+      <c r="S95" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T95" s="15"/>
-      <c r="U95" s="15"/>
-      <c r="V95" s="15"/>
-      <c r="W95" s="15"/>
-      <c r="X95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="15"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
       <c r="AA95" s="14" t="s">
         <v>11</v>
       </c>
@@ -10166,16 +10969,16 @@
       <c r="R96" s="4">
         <v>1</v>
       </c>
-      <c r="S96" s="15" t="s">
+      <c r="S96" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="V96" s="15"/>
-      <c r="W96" s="15"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="15"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
+      <c r="Z96" s="16"/>
       <c r="AA96" s="14" t="s">
         <v>75</v>
       </c>
@@ -10245,16 +11048,16 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" s="15" t="s">
+      <c r="S97" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T97" s="15"/>
-      <c r="U97" s="15"/>
-      <c r="V97" s="15"/>
-      <c r="W97" s="15"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="15"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="16"/>
+      <c r="Y97" s="16"/>
+      <c r="Z97" s="16"/>
       <c r="AA97" s="14" t="s">
         <v>75</v>
       </c>
@@ -10324,16 +11127,16 @@
       <c r="R98" s="4">
         <v>1</v>
       </c>
-      <c r="S98" s="15" t="s">
+      <c r="S98" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T98" s="15"/>
-      <c r="U98" s="15"/>
-      <c r="V98" s="15"/>
-      <c r="W98" s="15"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="15"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
+      <c r="W98" s="16"/>
+      <c r="X98" s="16"/>
+      <c r="Y98" s="16"/>
+      <c r="Z98" s="16"/>
       <c r="AA98" s="14" t="s">
         <v>11</v>
       </c>
@@ -10406,16 +11209,16 @@
       <c r="R99" s="4">
         <v>0</v>
       </c>
-      <c r="S99" s="15" t="s">
+      <c r="S99" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="V99" s="15"/>
-      <c r="W99" s="15"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="16"/>
+      <c r="Z99" s="16"/>
       <c r="AA99" s="14" t="s">
         <v>11</v>
       </c>
@@ -10488,16 +11291,16 @@
       <c r="R100" s="4">
         <v>1</v>
       </c>
-      <c r="S100" s="15" t="s">
+      <c r="S100" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T100" s="15"/>
-      <c r="U100" s="15"/>
-      <c r="V100" s="15"/>
-      <c r="W100" s="15"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="15"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="16"/>
+      <c r="Z100" s="16"/>
       <c r="AA100" s="14" t="s">
         <v>11</v>
       </c>
@@ -10570,16 +11373,16 @@
       <c r="R101" s="4">
         <v>0</v>
       </c>
-      <c r="S101" s="15" t="s">
+      <c r="S101" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="V101" s="15"/>
-      <c r="W101" s="15"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="16"/>
+      <c r="Z101" s="16"/>
       <c r="AA101" s="14" t="s">
         <v>11</v>
       </c>
@@ -10652,16 +11455,16 @@
       <c r="R102" s="4">
         <v>1</v>
       </c>
-      <c r="S102" s="15" t="s">
+      <c r="S102" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="V102" s="15"/>
-      <c r="W102" s="15"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="15"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+      <c r="Z102" s="16"/>
       <c r="AA102" s="14" t="s">
         <v>11</v>
       </c>
@@ -10734,16 +11537,16 @@
       <c r="R103" s="4">
         <v>0</v>
       </c>
-      <c r="S103" s="15" t="s">
+      <c r="S103" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T103" s="15"/>
-      <c r="U103" s="15"/>
-      <c r="V103" s="15"/>
-      <c r="W103" s="15"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="15"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="16"/>
+      <c r="Z103" s="16"/>
       <c r="AA103" s="14" t="s">
         <v>11</v>
       </c>
@@ -10817,16 +11620,16 @@
       <c r="R104" s="4">
         <v>1</v>
       </c>
-      <c r="S104" s="15" t="s">
+      <c r="S104" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T104" s="15"/>
-      <c r="U104" s="15"/>
-      <c r="V104" s="15"/>
-      <c r="W104" s="15"/>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
-      <c r="Z104" s="15"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+      <c r="Z104" s="16"/>
       <c r="AA104" s="14" t="s">
         <v>11</v>
       </c>
@@ -10927,24 +11730,24 @@
       <c r="M108" s="3">
         <v>1</v>
       </c>
-      <c r="N108" s="15" t="s">
+      <c r="N108" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
-      <c r="U108" s="15"/>
-      <c r="V108" s="15"/>
-      <c r="W108" s="15"/>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="15"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="15"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="16"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="16"/>
+      <c r="Y108" s="16"/>
+      <c r="Z108" s="16"/>
+      <c r="AA108" s="16"/>
+      <c r="AB108" s="16"/>
+      <c r="AC108" s="16"/>
       <c r="AD108" s="17" t="s">
         <v>1</v>
       </c>
@@ -10993,24 +11796,24 @@
       <c r="M109" s="3">
         <v>1</v>
       </c>
-      <c r="N109" s="15" t="s">
+      <c r="N109" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="15"/>
-      <c r="U109" s="15"/>
-      <c r="V109" s="15"/>
-      <c r="W109" s="15"/>
-      <c r="X109" s="15"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="15"/>
-      <c r="AB109" s="15"/>
-      <c r="AC109" s="15"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="16"/>
+      <c r="Y109" s="16"/>
+      <c r="Z109" s="16"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="16"/>
+      <c r="AC109" s="16"/>
       <c r="AD109" s="17" t="s">
         <v>1</v>
       </c>
@@ -11021,6 +11824,255 @@
     </row>
   </sheetData>
   <mergeCells count="273">
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="N107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="AA99:AH99"/>
+    <mergeCell ref="AA100:AH100"/>
+    <mergeCell ref="AA101:AH101"/>
+    <mergeCell ref="AA102:AH102"/>
+    <mergeCell ref="AA103:AH103"/>
+    <mergeCell ref="AA104:AH104"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="S104:Z104"/>
+    <mergeCell ref="S99:Z99"/>
+    <mergeCell ref="S100:Z100"/>
+    <mergeCell ref="S101:Z101"/>
+    <mergeCell ref="S102:Z102"/>
+    <mergeCell ref="AA91:AH91"/>
+    <mergeCell ref="AA92:AH92"/>
+    <mergeCell ref="AA93:AH93"/>
+    <mergeCell ref="AA94:AH94"/>
+    <mergeCell ref="AA95:AH95"/>
+    <mergeCell ref="AA96:AH96"/>
+    <mergeCell ref="AA97:AH97"/>
+    <mergeCell ref="AA98:AH98"/>
+    <mergeCell ref="S97:Z97"/>
+    <mergeCell ref="S98:Z98"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="S93:Z93"/>
+    <mergeCell ref="S94:Z94"/>
+    <mergeCell ref="S95:Z95"/>
+    <mergeCell ref="S96:Z96"/>
+    <mergeCell ref="K87:R87"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S82:Z82"/>
+    <mergeCell ref="S83:Z83"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="AA90:AH90"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="AA81:AH81"/>
+    <mergeCell ref="AA82:AH82"/>
+    <mergeCell ref="AA83:AH83"/>
+    <mergeCell ref="AA84:AH84"/>
+    <mergeCell ref="AA85:AH85"/>
+    <mergeCell ref="AA86:AH86"/>
+    <mergeCell ref="AA87:AH87"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="J77:AH77"/>
+    <mergeCell ref="T68:X68"/>
+    <mergeCell ref="Y68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="K84:R84"/>
+    <mergeCell ref="K85:R85"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="J76:AH76"/>
+    <mergeCell ref="AE74:AH74"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="F72:AD72"/>
+    <mergeCell ref="F73:AD73"/>
+    <mergeCell ref="F74:AD74"/>
+    <mergeCell ref="F75:AD75"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="Y60:AC60"/>
+    <mergeCell ref="AD60:AH60"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="S80:Z80"/>
+    <mergeCell ref="AA80:AH80"/>
+    <mergeCell ref="K81:R81"/>
+    <mergeCell ref="K82:R82"/>
+    <mergeCell ref="K83:R83"/>
+    <mergeCell ref="AD64:AH64"/>
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="Y65:AC65"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="T62:X62"/>
+    <mergeCell ref="Y62:AC62"/>
+    <mergeCell ref="AD62:AH62"/>
+    <mergeCell ref="T63:X63"/>
+    <mergeCell ref="Y63:AC63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="T61:X61"/>
+    <mergeCell ref="Y61:AC61"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="Y57:AC57"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="Y54:AC54"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="T59:X59"/>
+    <mergeCell ref="Y59:AC59"/>
+    <mergeCell ref="F71:AD71"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="Y66:AC66"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="Y45:AC45"/>
+    <mergeCell ref="AD45:AH45"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="Y46:AC46"/>
+    <mergeCell ref="F70:AD70"/>
+    <mergeCell ref="AD51:AH51"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="T50:X50"/>
+    <mergeCell ref="Y50:AC50"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="T51:X51"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AD52:AH52"/>
+    <mergeCell ref="AD66:AH66"/>
+    <mergeCell ref="T67:X67"/>
+    <mergeCell ref="Y67:AC67"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="T64:X64"/>
+    <mergeCell ref="Y64:AC64"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="T49:X49"/>
+    <mergeCell ref="Y49:AC49"/>
+    <mergeCell ref="AD49:AH49"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="Y52:AC52"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="Y58:AC58"/>
+    <mergeCell ref="AD58:AH58"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AD41:AH41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AD42:AH42"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AC40"/>
+    <mergeCell ref="AD40:AH40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="AD37:AH37"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="Y33:AC33"/>
+    <mergeCell ref="AD33:AH33"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:AC31"/>
+    <mergeCell ref="AD31:AH31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="AD32:AH32"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="Y34:AC34"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AC35"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:AC29"/>
+    <mergeCell ref="AD29:AH29"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AC28"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AH25"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
     <mergeCell ref="AD15:AH15"/>
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="Y16:AC16"/>
@@ -11045,255 +12097,6 @@
     <mergeCell ref="AD21:AH21"/>
     <mergeCell ref="T22:X22"/>
     <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Y29:AC29"/>
-    <mergeCell ref="AD29:AH29"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AC28"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="Y33:AC33"/>
-    <mergeCell ref="AD33:AH33"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="Y31:AC31"/>
-    <mergeCell ref="AD31:AH31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="AD32:AH32"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="Y34:AC34"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AC35"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="Y39:AC39"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="Y40:AC40"/>
-    <mergeCell ref="AD40:AH40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="AD37:AH37"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AD42:AH42"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="AD66:AH66"/>
-    <mergeCell ref="T67:X67"/>
-    <mergeCell ref="Y67:AC67"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="T64:X64"/>
-    <mergeCell ref="Y64:AC64"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="T49:X49"/>
-    <mergeCell ref="Y49:AC49"/>
-    <mergeCell ref="AD49:AH49"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="Y52:AC52"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="Y58:AC58"/>
-    <mergeCell ref="AD58:AH58"/>
-    <mergeCell ref="T59:X59"/>
-    <mergeCell ref="Y59:AC59"/>
-    <mergeCell ref="F71:AD71"/>
-    <mergeCell ref="T66:X66"/>
-    <mergeCell ref="Y66:AC66"/>
-    <mergeCell ref="Y44:AC44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AD45:AH45"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="Y46:AC46"/>
-    <mergeCell ref="F70:AD70"/>
-    <mergeCell ref="AD51:AH51"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="T50:X50"/>
-    <mergeCell ref="Y50:AC50"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="T51:X51"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="T57:X57"/>
-    <mergeCell ref="Y57:AC57"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="Y54:AC54"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="T55:X55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="Y60:AC60"/>
-    <mergeCell ref="AD60:AH60"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="S80:Z80"/>
-    <mergeCell ref="AA80:AH80"/>
-    <mergeCell ref="K81:R81"/>
-    <mergeCell ref="K82:R82"/>
-    <mergeCell ref="K83:R83"/>
-    <mergeCell ref="AD64:AH64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="Y65:AC65"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="T62:X62"/>
-    <mergeCell ref="Y62:AC62"/>
-    <mergeCell ref="AD62:AH62"/>
-    <mergeCell ref="T63:X63"/>
-    <mergeCell ref="Y63:AC63"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="T61:X61"/>
-    <mergeCell ref="Y61:AC61"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="J77:AH77"/>
-    <mergeCell ref="T68:X68"/>
-    <mergeCell ref="Y68:AC68"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="K84:R84"/>
-    <mergeCell ref="K85:R85"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="J76:AH76"/>
-    <mergeCell ref="AE74:AH74"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="F72:AD72"/>
-    <mergeCell ref="F73:AD73"/>
-    <mergeCell ref="F74:AD74"/>
-    <mergeCell ref="F75:AD75"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="K87:R87"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="AA90:AH90"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="AA81:AH81"/>
-    <mergeCell ref="AA82:AH82"/>
-    <mergeCell ref="AA83:AH83"/>
-    <mergeCell ref="AA84:AH84"/>
-    <mergeCell ref="AA85:AH85"/>
-    <mergeCell ref="AA86:AH86"/>
-    <mergeCell ref="AA87:AH87"/>
-    <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="AA91:AH91"/>
-    <mergeCell ref="AA92:AH92"/>
-    <mergeCell ref="AA93:AH93"/>
-    <mergeCell ref="AA94:AH94"/>
-    <mergeCell ref="AA95:AH95"/>
-    <mergeCell ref="AA96:AH96"/>
-    <mergeCell ref="AA97:AH97"/>
-    <mergeCell ref="AA98:AH98"/>
-    <mergeCell ref="S97:Z97"/>
-    <mergeCell ref="S98:Z98"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S92:Z92"/>
-    <mergeCell ref="S93:Z93"/>
-    <mergeCell ref="S94:Z94"/>
-    <mergeCell ref="S95:Z95"/>
-    <mergeCell ref="S96:Z96"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="N107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="AA99:AH99"/>
-    <mergeCell ref="AA100:AH100"/>
-    <mergeCell ref="AA101:AH101"/>
-    <mergeCell ref="AA102:AH102"/>
-    <mergeCell ref="AA103:AH103"/>
-    <mergeCell ref="AA104:AH104"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="S104:Z104"/>
-    <mergeCell ref="S99:Z99"/>
-    <mergeCell ref="S100:Z100"/>
-    <mergeCell ref="S101:Z101"/>
-    <mergeCell ref="S102:Z102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AI52" r:id="rId1" display="JMP@R3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xilinx_project\CPUproject\projet_CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xilinx_project\git_project\projet_CPU\projet_CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069C36AB-63CB-403E-9230-D027C63E20AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C6131-12CB-471A-845C-078D53AF4A75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4545" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1320" windowWidth="24075" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format operateur" sheetId="1" r:id="rId1"/>
     <sheet name="PLL_PWM compute" sheetId="4" r:id="rId2"/>
     <sheet name="Cache" sheetId="5" r:id="rId3"/>
-    <sheet name="cache(2)" sheetId="6" r:id="rId4"/>
-    <sheet name="Fomat registre" sheetId="2" r:id="rId5"/>
-    <sheet name="Operateur" sheetId="3" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId4"/>
+    <sheet name="cache(2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Fomat registre" sheetId="2" r:id="rId6"/>
+    <sheet name="Operateur" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="291">
   <si>
     <t>ADD</t>
   </si>
@@ -902,6 +903,12 @@
   </si>
   <si>
     <t>addr_down_lvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HandShake </t>
+  </si>
+  <si>
+    <t>(ACK est controllé par le master/(le 1 reset tout le monde)</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1012,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2419,26 +2426,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="J11:Y11"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
     <mergeCell ref="I6:AG6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="B6:D6"/>
@@ -2455,6 +2442,26 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:Y8"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="J11:Y11"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2639,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C217D931-D8EC-4E18-86A1-839AA8BD0689}">
   <dimension ref="A3:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,10 +3141,291 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC584C10-E2F9-497C-8849-09E92E2CAC95}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C6F1E8-74C4-4BB6-8AC3-414BA2E5596B}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3240,7 +3528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3507,7 +3795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA109"/>
   <sheetViews>
@@ -3743,20 +4031,20 @@
       <c r="S3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16" t="s">
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
       <c r="AD3" s="14" t="s">
         <v>1</v>
       </c>
@@ -3823,20 +4111,20 @@
       <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16" t="s">
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
       <c r="AD4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3927,20 +4215,20 @@
       <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16" t="s">
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
       <c r="AD5" s="14" t="s">
         <v>1</v>
       </c>
@@ -4016,20 +4304,20 @@
       <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16" t="s">
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
       <c r="AD6" s="14" t="s">
         <v>1</v>
       </c>
@@ -4105,20 +4393,20 @@
       <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="16" t="s">
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
       <c r="AD7" s="14" t="s">
         <v>1</v>
       </c>
@@ -4197,20 +4485,20 @@
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="16" t="s">
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
       <c r="AD8" s="14" t="s">
         <v>1</v>
       </c>
@@ -4286,20 +4574,20 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="16" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
       <c r="AD9" s="14" t="s">
         <v>1</v>
       </c>
@@ -4375,20 +4663,20 @@
       <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="16" t="s">
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
       <c r="AD10" s="14" t="s">
         <v>1</v>
       </c>
@@ -4464,20 +4752,20 @@
       <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="16" t="s">
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
       <c r="AD11" s="14" t="s">
         <v>1</v>
       </c>
@@ -4553,20 +4841,20 @@
       <c r="S12" s="4">
         <v>1</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="16" t="s">
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
       <c r="AD12" s="14" t="s">
         <v>1</v>
       </c>
@@ -4642,20 +4930,20 @@
       <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="16" t="s">
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
       <c r="AD13" s="14" t="s">
         <v>1</v>
       </c>
@@ -4731,20 +5019,20 @@
       <c r="S14" s="4">
         <v>1</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="16" t="s">
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
       <c r="AD14" s="14" t="s">
         <v>1</v>
       </c>
@@ -4820,20 +5108,20 @@
       <c r="S15" s="4">
         <v>0</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16" t="s">
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
       <c r="AD15" s="14" t="s">
         <v>1</v>
       </c>
@@ -4909,20 +5197,20 @@
       <c r="S16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16" t="s">
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
       <c r="AD16" s="14" t="s">
         <v>1</v>
       </c>
@@ -4998,20 +5286,20 @@
       <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="16" t="s">
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
       <c r="AD17" s="14" t="s">
         <v>1</v>
       </c>
@@ -5087,20 +5375,20 @@
       <c r="S18" s="4">
         <v>1</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16" t="s">
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
       <c r="AD18" s="14" t="s">
         <v>1</v>
       </c>
@@ -5176,20 +5464,20 @@
       <c r="S19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="16" t="s">
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
       <c r="AD19" s="14" t="s">
         <v>1</v>
       </c>
@@ -5265,20 +5553,20 @@
       <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16" t="s">
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
       <c r="AD20" s="14" t="s">
         <v>1</v>
       </c>
@@ -5354,20 +5642,20 @@
       <c r="S21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16" t="s">
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
       <c r="AD21" s="14" t="s">
         <v>1</v>
       </c>
@@ -5443,20 +5731,20 @@
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="16" t="s">
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
       <c r="AD22" s="14" t="s">
         <v>1</v>
       </c>
@@ -5532,20 +5820,20 @@
       <c r="S23" s="4">
         <v>0</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="16" t="s">
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
       <c r="AD23" s="14" t="s">
         <v>1</v>
       </c>
@@ -5624,20 +5912,20 @@
       <c r="S24" s="4">
         <v>1</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="16" t="s">
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
       <c r="AD24" s="14" t="s">
         <v>1</v>
       </c>
@@ -5713,20 +6001,20 @@
       <c r="S25" s="4">
         <v>0</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="16" t="s">
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
       <c r="AD25" s="14" t="s">
         <v>1</v>
       </c>
@@ -5802,20 +6090,20 @@
       <c r="S26" s="4">
         <v>1</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="16" t="s">
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
       <c r="AD26" s="14" t="s">
         <v>1</v>
       </c>
@@ -5888,20 +6176,20 @@
       <c r="S27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="16" t="s">
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
       <c r="AD27" s="14" t="s">
         <v>1</v>
       </c>
@@ -5977,20 +6265,20 @@
       <c r="S28" s="4">
         <v>1</v>
       </c>
-      <c r="T28" s="15" t="s">
+      <c r="T28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="16" t="s">
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
       <c r="AD28" s="14" t="s">
         <v>1</v>
       </c>
@@ -6066,20 +6354,20 @@
       <c r="S29" s="4">
         <v>0</v>
       </c>
-      <c r="T29" s="15" t="s">
+      <c r="T29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="16" t="s">
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
       <c r="AD29" s="14" t="s">
         <v>1</v>
       </c>
@@ -6155,20 +6443,20 @@
       <c r="S30" s="4">
         <v>1</v>
       </c>
-      <c r="T30" s="15" t="s">
+      <c r="T30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="16" t="s">
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
       <c r="AD30" s="14" t="s">
         <v>1</v>
       </c>
@@ -6244,20 +6532,20 @@
       <c r="S31" s="4">
         <v>0</v>
       </c>
-      <c r="T31" s="15" t="s">
+      <c r="T31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="16" t="s">
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
       <c r="AD31" s="14" t="s">
         <v>1</v>
       </c>
@@ -6333,20 +6621,20 @@
       <c r="S32" s="4">
         <v>1</v>
       </c>
-      <c r="T32" s="15" t="s">
+      <c r="T32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="16" t="s">
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
       <c r="AD32" s="14" t="s">
         <v>1</v>
       </c>
@@ -6422,20 +6710,20 @@
       <c r="S33" s="4">
         <v>0</v>
       </c>
-      <c r="T33" s="15" t="s">
+      <c r="T33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="16" t="s">
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
       <c r="AD33" s="14" t="s">
         <v>1</v>
       </c>
@@ -6511,20 +6799,20 @@
       <c r="S34" s="4">
         <v>1</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="16" t="s">
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
       <c r="AD34" s="14" t="s">
         <v>1</v>
       </c>
@@ -6597,20 +6885,20 @@
       <c r="S35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="15" t="s">
+      <c r="T35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="16" t="s">
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
       <c r="AD35" s="14" t="s">
         <v>1</v>
       </c>
@@ -6686,20 +6974,20 @@
       <c r="S36" s="4">
         <v>0</v>
       </c>
-      <c r="T36" s="15" t="s">
+      <c r="T36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="16" t="s">
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
       <c r="AD36" s="14" t="s">
         <v>1</v>
       </c>
@@ -6775,20 +7063,20 @@
       <c r="S37" s="4">
         <v>1</v>
       </c>
-      <c r="T37" s="15" t="s">
+      <c r="T37" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="16" t="s">
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
       <c r="AD37" s="14" t="s">
         <v>1</v>
       </c>
@@ -6864,20 +7152,20 @@
       <c r="S38" s="4">
         <v>0</v>
       </c>
-      <c r="T38" s="15" t="s">
+      <c r="T38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="16" t="s">
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
       <c r="AD38" s="14" t="s">
         <v>1</v>
       </c>
@@ -6953,20 +7241,20 @@
       <c r="S39" s="4">
         <v>1</v>
       </c>
-      <c r="T39" s="15" t="s">
+      <c r="T39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="16" t="s">
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
       <c r="AD39" s="14" t="s">
         <v>1</v>
       </c>
@@ -7042,20 +7330,20 @@
       <c r="S40" s="4">
         <v>0</v>
       </c>
-      <c r="T40" s="15" t="s">
+      <c r="T40" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="16" t="s">
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
       <c r="AD40" s="14" t="s">
         <v>1</v>
       </c>
@@ -7131,20 +7419,20 @@
       <c r="S41" s="4">
         <v>1</v>
       </c>
-      <c r="T41" s="15" t="s">
+      <c r="T41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="16" t="s">
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
       <c r="AD41" s="14" t="s">
         <v>75</v>
       </c>
@@ -7220,20 +7508,20 @@
       <c r="S42" s="4">
         <v>0</v>
       </c>
-      <c r="T42" s="15" t="s">
+      <c r="T42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="16" t="s">
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
       <c r="AD42" s="14" t="s">
         <v>75</v>
       </c>
@@ -7309,20 +7597,20 @@
       <c r="S43" s="4">
         <v>1</v>
       </c>
-      <c r="T43" s="15" t="s">
+      <c r="T43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="16" t="s">
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
       <c r="AD43" s="14" t="s">
         <v>1</v>
       </c>
@@ -7398,20 +7686,20 @@
       <c r="S44" s="4">
         <v>0</v>
       </c>
-      <c r="T44" s="15" t="s">
+      <c r="T44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="16" t="s">
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
       <c r="AD44" s="14" t="s">
         <v>1</v>
       </c>
@@ -7487,20 +7775,20 @@
       <c r="S45" s="4">
         <v>1</v>
       </c>
-      <c r="T45" s="15" t="s">
+      <c r="T45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="16" t="s">
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
       <c r="AD45" s="14" t="s">
         <v>75</v>
       </c>
@@ -7576,20 +7864,20 @@
       <c r="S46" s="4">
         <v>0</v>
       </c>
-      <c r="T46" s="15" t="s">
+      <c r="T46" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="16" t="s">
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
       <c r="AD46" s="14" t="s">
         <v>1</v>
       </c>
@@ -7665,20 +7953,20 @@
       <c r="S47" s="4">
         <v>1</v>
       </c>
-      <c r="T47" s="15" t="s">
+      <c r="T47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="16" t="s">
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-      <c r="AC47" s="16"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
       <c r="AD47" s="14" t="s">
         <v>1</v>
       </c>
@@ -7754,20 +8042,20 @@
       <c r="S48" s="4">
         <v>0</v>
       </c>
-      <c r="T48" s="15" t="s">
+      <c r="T48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="16" t="s">
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
       <c r="AD48" s="14" t="s">
         <v>1</v>
       </c>
@@ -7844,20 +8132,20 @@
       <c r="S49" s="4">
         <v>1</v>
       </c>
-      <c r="T49" s="15" t="s">
+      <c r="T49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="16" t="s">
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
       <c r="AD49" s="14" t="s">
         <v>1</v>
       </c>
@@ -7933,20 +8221,20 @@
       <c r="S50" s="4">
         <v>0</v>
       </c>
-      <c r="T50" s="15" t="s">
+      <c r="T50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="16" t="s">
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
       <c r="AD50" s="14" t="s">
         <v>75</v>
       </c>
@@ -8013,20 +8301,20 @@
       <c r="S51" s="4">
         <v>1</v>
       </c>
-      <c r="T51" s="15" t="s">
+      <c r="T51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="16" t="s">
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
       <c r="AD51" s="14" t="s">
         <v>75</v>
       </c>
@@ -8096,20 +8384,20 @@
       <c r="S52" s="4">
         <v>0</v>
       </c>
-      <c r="T52" s="15" t="s">
+      <c r="T52" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="16" t="s">
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
       <c r="AD52" s="14" t="s">
         <v>1</v>
       </c>
@@ -8182,20 +8470,20 @@
       <c r="S53" s="4">
         <v>0</v>
       </c>
-      <c r="T53" s="15" t="s">
+      <c r="T53" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="16" t="s">
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
       <c r="AD53" s="14" t="s">
         <v>1</v>
       </c>
@@ -8268,20 +8556,20 @@
       <c r="S54" s="4">
         <v>1</v>
       </c>
-      <c r="T54" s="15" t="s">
+      <c r="T54" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="16" t="s">
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-      <c r="AC54" s="16"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
       <c r="AD54" s="14" t="s">
         <v>1</v>
       </c>
@@ -8354,20 +8642,20 @@
       <c r="S55" s="4">
         <v>0</v>
       </c>
-      <c r="T55" s="15" t="s">
+      <c r="T55" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="16" t="s">
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
       <c r="AD55" s="14" t="s">
         <v>1</v>
       </c>
@@ -8434,20 +8722,20 @@
       <c r="S56" s="4">
         <v>1</v>
       </c>
-      <c r="T56" s="15" t="s">
+      <c r="T56" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="16" t="s">
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
       <c r="AD56" s="14" t="s">
         <v>1</v>
       </c>
@@ -8514,20 +8802,20 @@
       <c r="S57" s="4">
         <v>0</v>
       </c>
-      <c r="T57" s="15" t="s">
+      <c r="T57" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="16" t="s">
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
-      <c r="AC57" s="16"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
       <c r="AD57" s="14" t="s">
         <v>1</v>
       </c>
@@ -8594,20 +8882,20 @@
       <c r="S58" s="4">
         <v>1</v>
       </c>
-      <c r="T58" s="15" t="s">
+      <c r="T58" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="16" t="s">
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-      <c r="AC58" s="16"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
       <c r="AD58" s="14" t="s">
         <v>75</v>
       </c>
@@ -8674,20 +8962,20 @@
       <c r="S59" s="4">
         <v>0</v>
       </c>
-      <c r="T59" s="15" t="s">
+      <c r="T59" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="16" t="s">
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
-      <c r="AC59" s="16"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
       <c r="AD59" s="14" t="s">
         <v>75</v>
       </c>
@@ -8754,20 +9042,20 @@
       <c r="S60" s="4">
         <v>1</v>
       </c>
-      <c r="T60" s="15" t="s">
+      <c r="T60" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="16" t="s">
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="15"/>
       <c r="AD60" s="14" t="s">
         <v>1</v>
       </c>
@@ -8834,20 +9122,20 @@
       <c r="S61" s="4">
         <v>0</v>
       </c>
-      <c r="T61" s="15" t="s">
+      <c r="T61" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="16" t="s">
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
       <c r="AD61" s="14" t="s">
         <v>1</v>
       </c>
@@ -8914,20 +9202,20 @@
       <c r="S62" s="4">
         <v>1</v>
       </c>
-      <c r="T62" s="15" t="s">
+      <c r="T62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="16" t="s">
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
       <c r="AD62" s="14" t="s">
         <v>75</v>
       </c>
@@ -8994,20 +9282,20 @@
       <c r="S63" s="4">
         <v>0</v>
       </c>
-      <c r="T63" s="15" t="s">
+      <c r="T63" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="16" t="s">
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
       <c r="AD63" s="14" t="s">
         <v>1</v>
       </c>
@@ -9074,20 +9362,20 @@
       <c r="S64" s="4">
         <v>1</v>
       </c>
-      <c r="T64" s="15" t="s">
+      <c r="T64" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="16" t="s">
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
       <c r="AD64" s="14" t="s">
         <v>1</v>
       </c>
@@ -9154,20 +9442,20 @@
       <c r="S65" s="4">
         <v>0</v>
       </c>
-      <c r="T65" s="15" t="s">
+      <c r="T65" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="16" t="s">
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
       <c r="AD65" s="14" t="s">
         <v>1</v>
       </c>
@@ -9234,20 +9522,20 @@
       <c r="S66" s="4">
         <v>1</v>
       </c>
-      <c r="T66" s="15" t="s">
+      <c r="T66" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="16" t="s">
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
       <c r="AD66" s="14" t="s">
         <v>1</v>
       </c>
@@ -9314,20 +9602,20 @@
       <c r="S67" s="4">
         <v>0</v>
       </c>
-      <c r="T67" s="15" t="s">
+      <c r="T67" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="16" t="s">
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="16"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
       <c r="AD67" s="14" t="s">
         <v>163</v>
       </c>
@@ -9388,20 +9676,20 @@
       <c r="S68" s="4">
         <v>1</v>
       </c>
-      <c r="T68" s="15" t="s">
+      <c r="T68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="16" t="s">
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
       <c r="AD68" s="14" t="s">
         <v>75</v>
       </c>
@@ -9431,33 +9719,33 @@
       <c r="E70" s="5">
         <v>1</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="16"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
       <c r="AE70" s="14" t="s">
         <v>11</v>
       </c>
@@ -9484,33 +9772,33 @@
       <c r="E71" s="5">
         <v>0</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
       <c r="AE71" s="14" t="s">
         <v>11</v>
       </c>
@@ -9537,33 +9825,33 @@
       <c r="E72" s="5">
         <v>0</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
       <c r="AE72" s="14" t="s">
         <v>11</v>
       </c>
@@ -9591,33 +9879,33 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
       <c r="AE73" s="14" t="s">
         <v>11</v>
       </c>
@@ -9644,33 +9932,33 @@
       <c r="E74" s="5">
         <v>0</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
       <c r="AE74" s="14" t="s">
         <v>11</v>
       </c>
@@ -9700,33 +9988,33 @@
       <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AA75" s="16"/>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
-      <c r="AD75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
       <c r="AE75" s="14" t="s">
         <v>11</v>
       </c>
@@ -9765,33 +10053,33 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="J76" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AA76" s="16"/>
-      <c r="AB76" s="16"/>
-      <c r="AC76" s="16"/>
-      <c r="AD76" s="16"/>
-      <c r="AE76" s="16"/>
-      <c r="AF76" s="16"/>
-      <c r="AG76" s="16"/>
-      <c r="AH76" s="16"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
       <c r="AI76" t="s">
         <v>165</v>
       </c>
@@ -9827,33 +10115,33 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="16" t="s">
+      <c r="J77" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="16"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="16"/>
-      <c r="AE77" s="16"/>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="16"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
       <c r="AI77" t="s">
         <v>167</v>
       </c>
@@ -9889,26 +10177,26 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="15" t="s">
+      <c r="K80" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="16" t="s">
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
       <c r="AA80" s="14" t="s">
         <v>11</v>
       </c>
@@ -9960,26 +10248,26 @@
       <c r="J81" s="4">
         <v>1</v>
       </c>
-      <c r="K81" s="15" t="s">
+      <c r="K81" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="16" t="s">
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="16"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
       <c r="AA81" s="14" t="s">
         <v>11</v>
       </c>
@@ -10031,26 +10319,26 @@
       <c r="J82" s="4">
         <v>0</v>
       </c>
-      <c r="K82" s="15" t="s">
+      <c r="K82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="16" t="s">
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16"/>
-      <c r="Z82" s="16"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
       <c r="AA82" s="14" t="s">
         <v>11</v>
       </c>
@@ -10102,26 +10390,26 @@
       <c r="J83" s="4">
         <v>1</v>
       </c>
-      <c r="K83" s="15" t="s">
+      <c r="K83" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="16" t="s">
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="16"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
       <c r="AA83" s="14" t="s">
         <v>11</v>
       </c>
@@ -10176,26 +10464,26 @@
       <c r="J84" s="4">
         <v>0</v>
       </c>
-      <c r="K84" s="15" t="s">
+      <c r="K84" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="16" t="s">
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
       <c r="AA84" s="14" t="s">
         <v>11</v>
       </c>
@@ -10247,26 +10535,26 @@
       <c r="J85" s="4">
         <v>1</v>
       </c>
-      <c r="K85" s="15" t="s">
+      <c r="K85" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="16" t="s">
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="16"/>
-      <c r="X85" s="16"/>
-      <c r="Y85" s="16"/>
-      <c r="Z85" s="16"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
       <c r="AA85" s="14" t="s">
         <v>11</v>
       </c>
@@ -10318,26 +10606,26 @@
       <c r="J86" s="4">
         <v>0</v>
       </c>
-      <c r="K86" s="15" t="s">
+      <c r="K86" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="16" t="s">
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="16"/>
-      <c r="Z86" s="16"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
       <c r="AA86" s="14" t="s">
         <v>11</v>
       </c>
@@ -10389,26 +10677,26 @@
       <c r="J87" s="4">
         <v>1</v>
       </c>
-      <c r="K87" s="15" t="s">
+      <c r="K87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="16" t="s">
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="16"/>
-      <c r="X87" s="16"/>
-      <c r="Y87" s="16"/>
-      <c r="Z87" s="16"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
       <c r="AA87" s="14" t="s">
         <v>11</v>
       </c>
@@ -10483,16 +10771,16 @@
       <c r="R90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S90" s="16" t="s">
+      <c r="S90" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T90" s="16"/>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-      <c r="X90" s="16"/>
-      <c r="Y90" s="16"/>
-      <c r="Z90" s="16"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
       <c r="AA90" s="14" t="s">
         <v>11</v>
       </c>
@@ -10559,16 +10847,16 @@
       <c r="R91" s="4">
         <v>0</v>
       </c>
-      <c r="S91" s="16" t="s">
+      <c r="S91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
-      <c r="X91" s="16"/>
-      <c r="Y91" s="16"/>
-      <c r="Z91" s="16"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
       <c r="AA91" s="14" t="s">
         <v>11</v>
       </c>
@@ -10641,16 +10929,16 @@
       <c r="R92" s="4">
         <v>1</v>
       </c>
-      <c r="S92" s="16" t="s">
+      <c r="S92" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="16"/>
-      <c r="W92" s="16"/>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="16"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
       <c r="AA92" s="14" t="s">
         <v>11</v>
       </c>
@@ -10723,16 +11011,16 @@
       <c r="R93" s="4">
         <v>0</v>
       </c>
-      <c r="S93" s="16" t="s">
+      <c r="S93" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-      <c r="V93" s="16"/>
-      <c r="W93" s="16"/>
-      <c r="X93" s="16"/>
-      <c r="Y93" s="16"/>
-      <c r="Z93" s="16"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
       <c r="AA93" s="14" t="s">
         <v>11</v>
       </c>
@@ -10805,16 +11093,16 @@
       <c r="R94" s="4">
         <v>1</v>
       </c>
-      <c r="S94" s="16" t="s">
+      <c r="S94" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T94" s="16"/>
-      <c r="U94" s="16"/>
-      <c r="V94" s="16"/>
-      <c r="W94" s="16"/>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
       <c r="AA94" s="14" t="s">
         <v>11</v>
       </c>
@@ -10887,16 +11175,16 @@
       <c r="R95" s="4">
         <v>0</v>
       </c>
-      <c r="S95" s="16" t="s">
+      <c r="S95" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T95" s="16"/>
-      <c r="U95" s="16"/>
-      <c r="V95" s="16"/>
-      <c r="W95" s="16"/>
-      <c r="X95" s="16"/>
-      <c r="Y95" s="16"/>
-      <c r="Z95" s="16"/>
+      <c r="T95" s="15"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="15"/>
       <c r="AA95" s="14" t="s">
         <v>11</v>
       </c>
@@ -10969,16 +11257,16 @@
       <c r="R96" s="4">
         <v>1</v>
       </c>
-      <c r="S96" s="16" t="s">
+      <c r="S96" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T96" s="16"/>
-      <c r="U96" s="16"/>
-      <c r="V96" s="16"/>
-      <c r="W96" s="16"/>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="16"/>
-      <c r="Z96" s="16"/>
+      <c r="T96" s="15"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="15"/>
+      <c r="W96" s="15"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="15"/>
       <c r="AA96" s="14" t="s">
         <v>75</v>
       </c>
@@ -11048,16 +11336,16 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" s="16" t="s">
+      <c r="S97" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T97" s="16"/>
-      <c r="U97" s="16"/>
-      <c r="V97" s="16"/>
-      <c r="W97" s="16"/>
-      <c r="X97" s="16"/>
-      <c r="Y97" s="16"/>
-      <c r="Z97" s="16"/>
+      <c r="T97" s="15"/>
+      <c r="U97" s="15"/>
+      <c r="V97" s="15"/>
+      <c r="W97" s="15"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="15"/>
       <c r="AA97" s="14" t="s">
         <v>75</v>
       </c>
@@ -11127,16 +11415,16 @@
       <c r="R98" s="4">
         <v>1</v>
       </c>
-      <c r="S98" s="16" t="s">
+      <c r="S98" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
-      <c r="V98" s="16"/>
-      <c r="W98" s="16"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="16"/>
-      <c r="Z98" s="16"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
       <c r="AA98" s="14" t="s">
         <v>11</v>
       </c>
@@ -11209,16 +11497,16 @@
       <c r="R99" s="4">
         <v>0</v>
       </c>
-      <c r="S99" s="16" t="s">
+      <c r="S99" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-      <c r="Z99" s="16"/>
+      <c r="T99" s="15"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="15"/>
       <c r="AA99" s="14" t="s">
         <v>11</v>
       </c>
@@ -11291,16 +11579,16 @@
       <c r="R100" s="4">
         <v>1</v>
       </c>
-      <c r="S100" s="16" t="s">
+      <c r="S100" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T100" s="16"/>
-      <c r="U100" s="16"/>
-      <c r="V100" s="16"/>
-      <c r="W100" s="16"/>
-      <c r="X100" s="16"/>
-      <c r="Y100" s="16"/>
-      <c r="Z100" s="16"/>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="15"/>
+      <c r="W100" s="15"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="15"/>
       <c r="AA100" s="14" t="s">
         <v>11</v>
       </c>
@@ -11373,16 +11661,16 @@
       <c r="R101" s="4">
         <v>0</v>
       </c>
-      <c r="S101" s="16" t="s">
+      <c r="S101" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T101" s="16"/>
-      <c r="U101" s="16"/>
-      <c r="V101" s="16"/>
-      <c r="W101" s="16"/>
-      <c r="X101" s="16"/>
-      <c r="Y101" s="16"/>
-      <c r="Z101" s="16"/>
+      <c r="T101" s="15"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="15"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="15"/>
       <c r="AA101" s="14" t="s">
         <v>11</v>
       </c>
@@ -11455,16 +11743,16 @@
       <c r="R102" s="4">
         <v>1</v>
       </c>
-      <c r="S102" s="16" t="s">
+      <c r="S102" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T102" s="16"/>
-      <c r="U102" s="16"/>
-      <c r="V102" s="16"/>
-      <c r="W102" s="16"/>
-      <c r="X102" s="16"/>
-      <c r="Y102" s="16"/>
-      <c r="Z102" s="16"/>
+      <c r="T102" s="15"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="15"/>
+      <c r="W102" s="15"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="15"/>
       <c r="AA102" s="14" t="s">
         <v>11</v>
       </c>
@@ -11537,16 +11825,16 @@
       <c r="R103" s="4">
         <v>0</v>
       </c>
-      <c r="S103" s="16" t="s">
+      <c r="S103" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T103" s="16"/>
-      <c r="U103" s="16"/>
-      <c r="V103" s="16"/>
-      <c r="W103" s="16"/>
-      <c r="X103" s="16"/>
-      <c r="Y103" s="16"/>
-      <c r="Z103" s="16"/>
+      <c r="T103" s="15"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
       <c r="AA103" s="14" t="s">
         <v>11</v>
       </c>
@@ -11620,16 +11908,16 @@
       <c r="R104" s="4">
         <v>1</v>
       </c>
-      <c r="S104" s="16" t="s">
+      <c r="S104" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T104" s="16"/>
-      <c r="U104" s="16"/>
-      <c r="V104" s="16"/>
-      <c r="W104" s="16"/>
-      <c r="X104" s="16"/>
-      <c r="Y104" s="16"/>
-      <c r="Z104" s="16"/>
+      <c r="T104" s="15"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
       <c r="AA104" s="14" t="s">
         <v>11</v>
       </c>
@@ -11730,24 +12018,24 @@
       <c r="M108" s="3">
         <v>1</v>
       </c>
-      <c r="N108" s="16" t="s">
+      <c r="N108" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="16"/>
-      <c r="R108" s="16"/>
-      <c r="S108" s="16"/>
-      <c r="T108" s="16"/>
-      <c r="U108" s="16"/>
-      <c r="V108" s="16"/>
-      <c r="W108" s="16"/>
-      <c r="X108" s="16"/>
-      <c r="Y108" s="16"/>
-      <c r="Z108" s="16"/>
-      <c r="AA108" s="16"/>
-      <c r="AB108" s="16"/>
-      <c r="AC108" s="16"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
       <c r="AD108" s="17" t="s">
         <v>1</v>
       </c>
@@ -11796,24 +12084,24 @@
       <c r="M109" s="3">
         <v>1</v>
       </c>
-      <c r="N109" s="16" t="s">
+      <c r="N109" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="16"/>
-      <c r="R109" s="16"/>
-      <c r="S109" s="16"/>
-      <c r="T109" s="16"/>
-      <c r="U109" s="16"/>
-      <c r="V109" s="16"/>
-      <c r="W109" s="16"/>
-      <c r="X109" s="16"/>
-      <c r="Y109" s="16"/>
-      <c r="Z109" s="16"/>
-      <c r="AA109" s="16"/>
-      <c r="AB109" s="16"/>
-      <c r="AC109" s="16"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
       <c r="AD109" s="17" t="s">
         <v>1</v>
       </c>
@@ -11824,70 +12112,191 @@
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="N107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="AA99:AH99"/>
-    <mergeCell ref="AA100:AH100"/>
-    <mergeCell ref="AA101:AH101"/>
-    <mergeCell ref="AA102:AH102"/>
-    <mergeCell ref="AA103:AH103"/>
-    <mergeCell ref="AA104:AH104"/>
-    <mergeCell ref="S103:Z103"/>
-    <mergeCell ref="S104:Z104"/>
-    <mergeCell ref="S99:Z99"/>
-    <mergeCell ref="S100:Z100"/>
-    <mergeCell ref="S101:Z101"/>
-    <mergeCell ref="S102:Z102"/>
-    <mergeCell ref="AA91:AH91"/>
-    <mergeCell ref="AA92:AH92"/>
-    <mergeCell ref="AA93:AH93"/>
-    <mergeCell ref="AA94:AH94"/>
-    <mergeCell ref="AA95:AH95"/>
-    <mergeCell ref="AA96:AH96"/>
-    <mergeCell ref="AA97:AH97"/>
-    <mergeCell ref="AA98:AH98"/>
-    <mergeCell ref="S97:Z97"/>
-    <mergeCell ref="S98:Z98"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S92:Z92"/>
-    <mergeCell ref="S93:Z93"/>
-    <mergeCell ref="S94:Z94"/>
-    <mergeCell ref="S95:Z95"/>
-    <mergeCell ref="S96:Z96"/>
-    <mergeCell ref="K87:R87"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="AA90:AH90"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="AA81:AH81"/>
-    <mergeCell ref="AA82:AH82"/>
-    <mergeCell ref="AA83:AH83"/>
-    <mergeCell ref="AA84:AH84"/>
-    <mergeCell ref="AA85:AH85"/>
-    <mergeCell ref="AA86:AH86"/>
-    <mergeCell ref="AA87:AH87"/>
-    <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="J77:AH77"/>
-    <mergeCell ref="T68:X68"/>
-    <mergeCell ref="Y68:AC68"/>
-    <mergeCell ref="AD68:AH68"/>
-    <mergeCell ref="K84:R84"/>
-    <mergeCell ref="K85:R85"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="J76:AH76"/>
-    <mergeCell ref="AE74:AH74"/>
-    <mergeCell ref="AE75:AH75"/>
-    <mergeCell ref="F72:AD72"/>
-    <mergeCell ref="F73:AD73"/>
-    <mergeCell ref="F74:AD74"/>
-    <mergeCell ref="F75:AD75"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="N108:AC108"/>
+    <mergeCell ref="AD108:AH108"/>
+    <mergeCell ref="N109:AC109"/>
+    <mergeCell ref="AD109:AH109"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AH21"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AH25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="Y29:AC29"/>
+    <mergeCell ref="AD29:AH29"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="Y30:AC30"/>
+    <mergeCell ref="AD30:AH30"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AC28"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="Y33:AC33"/>
+    <mergeCell ref="AD33:AH33"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="Y36:AC36"/>
+    <mergeCell ref="AD36:AH36"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="Y31:AC31"/>
+    <mergeCell ref="AD31:AH31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="Y32:AC32"/>
+    <mergeCell ref="AD32:AH32"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="Y34:AC34"/>
+    <mergeCell ref="AD34:AH34"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AC35"/>
+    <mergeCell ref="AD35:AH35"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="AD39:AH39"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="Y40:AC40"/>
+    <mergeCell ref="AD40:AH40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="AD37:AH37"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="Y38:AC38"/>
+    <mergeCell ref="AD38:AH38"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="Y41:AC41"/>
+    <mergeCell ref="AD41:AH41"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="Y42:AC42"/>
+    <mergeCell ref="AD42:AH42"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="AD48:AH48"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="Y51:AC51"/>
+    <mergeCell ref="AD52:AH52"/>
+    <mergeCell ref="AD66:AH66"/>
+    <mergeCell ref="T67:X67"/>
+    <mergeCell ref="Y67:AC67"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="T64:X64"/>
+    <mergeCell ref="Y64:AC64"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="Y43:AC43"/>
+    <mergeCell ref="AD43:AH43"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="Y47:AC47"/>
+    <mergeCell ref="AD47:AH47"/>
+    <mergeCell ref="T49:X49"/>
+    <mergeCell ref="Y49:AC49"/>
+    <mergeCell ref="AD49:AH49"/>
+    <mergeCell ref="AD50:AH50"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="Y52:AC52"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="Y58:AC58"/>
+    <mergeCell ref="AD58:AH58"/>
+    <mergeCell ref="T59:X59"/>
+    <mergeCell ref="Y59:AC59"/>
+    <mergeCell ref="F71:AD71"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="Y66:AC66"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="AD44:AH44"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="Y45:AC45"/>
+    <mergeCell ref="AD45:AH45"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="Y46:AC46"/>
+    <mergeCell ref="F70:AD70"/>
+    <mergeCell ref="AD51:AH51"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="Y53:AC53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="T50:X50"/>
+    <mergeCell ref="Y50:AC50"/>
+    <mergeCell ref="AD46:AH46"/>
+    <mergeCell ref="T51:X51"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="Y56:AC56"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="T57:X57"/>
+    <mergeCell ref="Y57:AC57"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="Y54:AC54"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AH55"/>
     <mergeCell ref="T60:X60"/>
     <mergeCell ref="Y60:AC60"/>
     <mergeCell ref="AD60:AH60"/>
@@ -11912,191 +12321,70 @@
     <mergeCell ref="Y61:AC61"/>
     <mergeCell ref="AD61:AH61"/>
     <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="T57:X57"/>
-    <mergeCell ref="Y57:AC57"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="Y54:AC54"/>
-    <mergeCell ref="AD54:AH54"/>
-    <mergeCell ref="T55:X55"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="T59:X59"/>
-    <mergeCell ref="Y59:AC59"/>
-    <mergeCell ref="F71:AD71"/>
-    <mergeCell ref="T66:X66"/>
-    <mergeCell ref="Y66:AC66"/>
-    <mergeCell ref="Y44:AC44"/>
-    <mergeCell ref="AD44:AH44"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="Y45:AC45"/>
-    <mergeCell ref="AD45:AH45"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="Y46:AC46"/>
-    <mergeCell ref="F70:AD70"/>
-    <mergeCell ref="AD51:AH51"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="Y53:AC53"/>
-    <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="T50:X50"/>
-    <mergeCell ref="Y50:AC50"/>
-    <mergeCell ref="AD46:AH46"/>
-    <mergeCell ref="T51:X51"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="Y56:AC56"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="AD52:AH52"/>
-    <mergeCell ref="AD66:AH66"/>
-    <mergeCell ref="T67:X67"/>
-    <mergeCell ref="Y67:AC67"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="T64:X64"/>
-    <mergeCell ref="Y64:AC64"/>
-    <mergeCell ref="T43:X43"/>
-    <mergeCell ref="Y43:AC43"/>
-    <mergeCell ref="AD43:AH43"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="Y47:AC47"/>
-    <mergeCell ref="AD47:AH47"/>
-    <mergeCell ref="T49:X49"/>
-    <mergeCell ref="Y49:AC49"/>
-    <mergeCell ref="AD49:AH49"/>
-    <mergeCell ref="AD50:AH50"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="Y52:AC52"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="Y58:AC58"/>
-    <mergeCell ref="AD58:AH58"/>
-    <mergeCell ref="T41:X41"/>
-    <mergeCell ref="Y41:AC41"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="Y42:AC42"/>
-    <mergeCell ref="AD42:AH42"/>
-    <mergeCell ref="T48:X48"/>
-    <mergeCell ref="Y48:AC48"/>
-    <mergeCell ref="AD48:AH48"/>
-    <mergeCell ref="T44:X44"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="Y39:AC39"/>
-    <mergeCell ref="AD39:AH39"/>
-    <mergeCell ref="T40:X40"/>
-    <mergeCell ref="Y40:AC40"/>
-    <mergeCell ref="AD40:AH40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="AD37:AH37"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="Y38:AC38"/>
-    <mergeCell ref="AD38:AH38"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="Y33:AC33"/>
-    <mergeCell ref="AD33:AH33"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="Y36:AC36"/>
-    <mergeCell ref="AD36:AH36"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="Y31:AC31"/>
-    <mergeCell ref="AD31:AH31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="Y32:AC32"/>
-    <mergeCell ref="AD32:AH32"/>
-    <mergeCell ref="T34:X34"/>
-    <mergeCell ref="Y34:AC34"/>
-    <mergeCell ref="AD34:AH34"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AC35"/>
-    <mergeCell ref="AD35:AH35"/>
-    <mergeCell ref="T29:X29"/>
-    <mergeCell ref="Y29:AC29"/>
-    <mergeCell ref="AD29:AH29"/>
-    <mergeCell ref="T30:X30"/>
-    <mergeCell ref="Y30:AC30"/>
-    <mergeCell ref="AD30:AH30"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AC28"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="N108:AC108"/>
-    <mergeCell ref="AD108:AH108"/>
-    <mergeCell ref="N109:AC109"/>
-    <mergeCell ref="AD109:AH109"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="J77:AH77"/>
+    <mergeCell ref="T68:X68"/>
+    <mergeCell ref="Y68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="K84:R84"/>
+    <mergeCell ref="K85:R85"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="J76:AH76"/>
+    <mergeCell ref="AE74:AH74"/>
+    <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="F72:AD72"/>
+    <mergeCell ref="F73:AD73"/>
+    <mergeCell ref="F74:AD74"/>
+    <mergeCell ref="F75:AD75"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="K87:R87"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S82:Z82"/>
+    <mergeCell ref="S83:Z83"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="AA90:AH90"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="AA81:AH81"/>
+    <mergeCell ref="AA82:AH82"/>
+    <mergeCell ref="AA83:AH83"/>
+    <mergeCell ref="AA84:AH84"/>
+    <mergeCell ref="AA85:AH85"/>
+    <mergeCell ref="AA86:AH86"/>
+    <mergeCell ref="AA87:AH87"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="AA91:AH91"/>
+    <mergeCell ref="AA92:AH92"/>
+    <mergeCell ref="AA93:AH93"/>
+    <mergeCell ref="AA94:AH94"/>
+    <mergeCell ref="AA95:AH95"/>
+    <mergeCell ref="AA96:AH96"/>
+    <mergeCell ref="AA97:AH97"/>
+    <mergeCell ref="AA98:AH98"/>
+    <mergeCell ref="S97:Z97"/>
+    <mergeCell ref="S98:Z98"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="S93:Z93"/>
+    <mergeCell ref="S94:Z94"/>
+    <mergeCell ref="S95:Z95"/>
+    <mergeCell ref="S96:Z96"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="N107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="AA99:AH99"/>
+    <mergeCell ref="AA100:AH100"/>
+    <mergeCell ref="AA101:AH101"/>
+    <mergeCell ref="AA102:AH102"/>
+    <mergeCell ref="AA103:AH103"/>
+    <mergeCell ref="AA104:AH104"/>
+    <mergeCell ref="S103:Z103"/>
+    <mergeCell ref="S104:Z104"/>
+    <mergeCell ref="S99:Z99"/>
+    <mergeCell ref="S100:Z100"/>
+    <mergeCell ref="S101:Z101"/>
+    <mergeCell ref="S102:Z102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AI52" r:id="rId1" display="JMP@R3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
